--- a/database/industries/palayesh/shavan/product/monthly_seprated.xlsx
+++ b/database/industries/palayesh/shavan/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shavan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E34CE93-59EB-4BF7-B8E3-F18DC741D5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4181" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="99">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -321,7 +322,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -514,7 +515,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -526,7 +527,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -573,6 +574,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -608,6 +626,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -759,17 +794,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -824,7 +859,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -881,7 +916,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -938,7 +973,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -993,7 +1028,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1085,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1142,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1162,7 +1197,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1354,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1374,7 +1409,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1431,7 +1466,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1556,14 +1591,14 @@
       <c r="AQ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11">
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
         <v>0</v>
       </c>
-      <c r="AT11" s="11">
-        <v>0</v>
+      <c r="AT11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU11" s="11" t="s">
         <v>58</v>
@@ -1590,7 +1625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1658,98 +1693,98 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>32752</v>
       </c>
       <c r="Z12" s="13">
-        <v>32752</v>
+        <v>52296</v>
       </c>
       <c r="AA12" s="13">
-        <v>52296</v>
+        <v>48601</v>
       </c>
       <c r="AB12" s="13">
-        <v>48601</v>
+        <v>59027</v>
       </c>
       <c r="AC12" s="13">
-        <v>59027</v>
+        <v>50567</v>
       </c>
       <c r="AD12" s="13">
-        <v>50567</v>
+        <v>49806</v>
       </c>
       <c r="AE12" s="13">
-        <v>49806</v>
+        <v>57476</v>
       </c>
       <c r="AF12" s="13">
-        <v>57476</v>
+        <v>49006</v>
       </c>
       <c r="AG12" s="13">
-        <v>49006</v>
+        <v>43675</v>
       </c>
       <c r="AH12" s="13">
-        <v>43675</v>
+        <v>53485</v>
       </c>
       <c r="AI12" s="13">
-        <v>53485</v>
+        <v>53969</v>
       </c>
       <c r="AJ12" s="13">
-        <v>53969</v>
+        <v>54781</v>
       </c>
       <c r="AK12" s="13">
-        <v>54781</v>
+        <v>53778</v>
       </c>
       <c r="AL12" s="13">
-        <v>53778</v>
+        <v>55363</v>
       </c>
       <c r="AM12" s="13">
-        <v>55363</v>
+        <v>55308</v>
       </c>
       <c r="AN12" s="13">
-        <v>55308</v>
-      </c>
-      <c r="AO12" s="13">
         <v>53104</v>
       </c>
-      <c r="AP12" s="13" t="s">
-        <v>58</v>
+      <c r="AO12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>55978</v>
       </c>
       <c r="AQ12" s="13">
-        <v>55978</v>
+        <v>53607</v>
       </c>
       <c r="AR12" s="13">
-        <v>53607</v>
+        <v>-541713</v>
       </c>
       <c r="AS12" s="13">
-        <v>-541713</v>
+        <v>635036</v>
       </c>
       <c r="AT12" s="13">
-        <v>635036</v>
+        <v>54994</v>
       </c>
       <c r="AU12" s="13">
-        <v>54994</v>
+        <v>54853</v>
       </c>
       <c r="AV12" s="13">
-        <v>54853</v>
+        <v>52604</v>
       </c>
       <c r="AW12" s="13">
-        <v>52604</v>
+        <v>54998</v>
       </c>
       <c r="AX12" s="13">
-        <v>54998</v>
+        <v>49663</v>
       </c>
       <c r="AY12" s="13">
-        <v>49663</v>
+        <v>50198</v>
       </c>
       <c r="AZ12" s="13">
-        <v>50198</v>
+        <v>45580</v>
       </c>
       <c r="BA12" s="13">
-        <v>45580</v>
+        <v>46369</v>
       </c>
       <c r="BB12" s="13">
-        <v>46369</v>
+        <v>47642</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1883,32 +1918,32 @@
       <c r="AT13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU13" s="11" t="s">
-        <v>58</v>
+      <c r="AU13" s="11">
+        <v>74010</v>
       </c>
       <c r="AV13" s="11">
-        <v>74010</v>
+        <v>71095</v>
       </c>
       <c r="AW13" s="11">
-        <v>71095</v>
+        <v>74376</v>
       </c>
       <c r="AX13" s="11">
-        <v>74376</v>
+        <v>72082</v>
       </c>
       <c r="AY13" s="11">
-        <v>72082</v>
+        <v>74047</v>
       </c>
       <c r="AZ13" s="11">
-        <v>74047</v>
+        <v>68761</v>
       </c>
       <c r="BA13" s="11">
-        <v>68761</v>
+        <v>68716</v>
       </c>
       <c r="BB13" s="11">
-        <v>68716</v>
+        <v>72341</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1976,98 +2011,98 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>6066</v>
       </c>
       <c r="Z14" s="13">
-        <v>6066</v>
+        <v>4089</v>
       </c>
       <c r="AA14" s="13">
-        <v>4089</v>
+        <v>5220</v>
       </c>
       <c r="AB14" s="13">
-        <v>5220</v>
+        <v>3392</v>
       </c>
       <c r="AC14" s="13">
-        <v>3392</v>
+        <v>8438</v>
       </c>
       <c r="AD14" s="13">
-        <v>8438</v>
+        <v>9147</v>
       </c>
       <c r="AE14" s="13">
-        <v>9147</v>
+        <v>9973</v>
       </c>
       <c r="AF14" s="13">
-        <v>9973</v>
+        <v>12516</v>
       </c>
       <c r="AG14" s="13">
-        <v>12516</v>
+        <v>11209</v>
       </c>
       <c r="AH14" s="13">
-        <v>11209</v>
+        <v>6802</v>
       </c>
       <c r="AI14" s="13">
-        <v>6802</v>
+        <v>8608</v>
       </c>
       <c r="AJ14" s="13">
-        <v>8608</v>
+        <v>4495</v>
       </c>
       <c r="AK14" s="13">
-        <v>4495</v>
+        <v>8078</v>
       </c>
       <c r="AL14" s="13">
-        <v>8078</v>
+        <v>3843</v>
       </c>
       <c r="AM14" s="13">
-        <v>3843</v>
+        <v>5232</v>
       </c>
       <c r="AN14" s="13">
-        <v>5232</v>
-      </c>
-      <c r="AO14" s="13">
         <v>5593</v>
       </c>
-      <c r="AP14" s="13" t="s">
-        <v>58</v>
+      <c r="AO14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>3906</v>
       </c>
       <c r="AQ14" s="13">
-        <v>3906</v>
+        <v>5717</v>
       </c>
       <c r="AR14" s="13">
-        <v>5717</v>
+        <v>4706</v>
       </c>
       <c r="AS14" s="13">
-        <v>4706</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="13">
-        <v>0</v>
+        <v>4610</v>
       </c>
       <c r="AU14" s="13">
-        <v>4610</v>
+        <v>4468</v>
       </c>
       <c r="AV14" s="13">
-        <v>4468</v>
+        <v>3130</v>
       </c>
       <c r="AW14" s="13">
-        <v>3130</v>
+        <v>4260</v>
       </c>
       <c r="AX14" s="13">
-        <v>4260</v>
+        <v>3356</v>
       </c>
       <c r="AY14" s="13">
-        <v>3356</v>
+        <v>4391</v>
       </c>
       <c r="AZ14" s="13">
-        <v>4391</v>
+        <v>2544</v>
       </c>
       <c r="BA14" s="13">
-        <v>2544</v>
+        <v>3728</v>
       </c>
       <c r="BB14" s="13">
-        <v>3728</v>
+        <v>3028</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2135,98 +2170,98 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>57361</v>
       </c>
       <c r="Z15" s="11">
-        <v>57361</v>
+        <v>57655</v>
       </c>
       <c r="AA15" s="11">
-        <v>57655</v>
+        <v>59775</v>
       </c>
       <c r="AB15" s="11">
-        <v>59775</v>
+        <v>53548</v>
       </c>
       <c r="AC15" s="11">
-        <v>53548</v>
+        <v>58688</v>
       </c>
       <c r="AD15" s="11">
-        <v>58688</v>
+        <v>66342</v>
       </c>
       <c r="AE15" s="11">
-        <v>66342</v>
+        <v>62120</v>
       </c>
       <c r="AF15" s="11">
-        <v>62120</v>
+        <v>62873</v>
       </c>
       <c r="AG15" s="11">
-        <v>62873</v>
+        <v>61529</v>
       </c>
       <c r="AH15" s="11">
-        <v>61529</v>
+        <v>62915</v>
       </c>
       <c r="AI15" s="11">
-        <v>62915</v>
+        <v>61972</v>
       </c>
       <c r="AJ15" s="11">
-        <v>61972</v>
+        <v>62703</v>
       </c>
       <c r="AK15" s="11">
-        <v>62703</v>
+        <v>61304</v>
       </c>
       <c r="AL15" s="11">
-        <v>61304</v>
+        <v>60440</v>
       </c>
       <c r="AM15" s="11">
-        <v>60440</v>
+        <v>56685</v>
       </c>
       <c r="AN15" s="11">
-        <v>56685</v>
-      </c>
-      <c r="AO15" s="11">
         <v>60025</v>
       </c>
-      <c r="AP15" s="11" t="s">
-        <v>58</v>
+      <c r="AO15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>34418</v>
       </c>
       <c r="AQ15" s="11">
-        <v>34418</v>
-      </c>
-      <c r="AR15" s="11">
         <v>72209</v>
       </c>
+      <c r="AR15" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT15" s="11" t="s">
-        <v>58</v>
+      <c r="AT15" s="11">
+        <v>92698</v>
       </c>
       <c r="AU15" s="11">
-        <v>92698</v>
+        <v>89038</v>
       </c>
       <c r="AV15" s="11">
-        <v>89038</v>
+        <v>88540</v>
       </c>
       <c r="AW15" s="11">
-        <v>88540</v>
+        <v>88050</v>
       </c>
       <c r="AX15" s="11">
-        <v>88050</v>
+        <v>86901</v>
       </c>
       <c r="AY15" s="11">
-        <v>86901</v>
+        <v>90766</v>
       </c>
       <c r="AZ15" s="11">
-        <v>90766</v>
+        <v>86891</v>
       </c>
       <c r="BA15" s="11">
-        <v>86891</v>
+        <v>86446</v>
       </c>
       <c r="BB15" s="11">
-        <v>86446</v>
+        <v>86912</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2294,8 +2329,8 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>0</v>
       </c>
       <c r="Z16" s="13">
         <v>0</v>
@@ -2310,20 +2345,20 @@
         <v>0</v>
       </c>
       <c r="AD16" s="13">
-        <v>0</v>
+        <v>94517</v>
       </c>
       <c r="AE16" s="13">
-        <v>94517</v>
+        <v>47465</v>
       </c>
       <c r="AF16" s="13">
-        <v>47465</v>
+        <v>32547</v>
       </c>
       <c r="AG16" s="13">
-        <v>32547</v>
-      </c>
-      <c r="AH16" s="13">
         <v>56829</v>
       </c>
+      <c r="AH16" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI16" s="13" t="s">
         <v>58</v>
       </c>
@@ -2360,32 +2395,32 @@
       <c r="AT16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU16" s="13" t="s">
-        <v>58</v>
+      <c r="AU16" s="13">
+        <v>27285</v>
       </c>
       <c r="AV16" s="13">
-        <v>27285</v>
+        <v>34654</v>
       </c>
       <c r="AW16" s="13">
-        <v>34654</v>
+        <v>25308</v>
       </c>
       <c r="AX16" s="13">
-        <v>25308</v>
+        <v>33351</v>
       </c>
       <c r="AY16" s="13">
-        <v>33351</v>
+        <v>25614</v>
       </c>
       <c r="AZ16" s="13">
-        <v>25614</v>
+        <v>28527</v>
       </c>
       <c r="BA16" s="13">
-        <v>28527</v>
+        <v>31323</v>
       </c>
       <c r="BB16" s="13">
-        <v>31323</v>
+        <v>34254</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2453,75 +2488,75 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>63367</v>
       </c>
       <c r="Z17" s="11">
-        <v>63367</v>
+        <v>67636</v>
       </c>
       <c r="AA17" s="11">
-        <v>67636</v>
+        <v>68801</v>
       </c>
       <c r="AB17" s="11">
-        <v>68801</v>
+        <v>53834</v>
       </c>
       <c r="AC17" s="11">
-        <v>53834</v>
+        <v>40763</v>
       </c>
       <c r="AD17" s="11">
-        <v>40763</v>
+        <v>59385</v>
       </c>
       <c r="AE17" s="11">
-        <v>59385</v>
+        <v>69266</v>
       </c>
       <c r="AF17" s="11">
-        <v>69266</v>
+        <v>73005</v>
       </c>
       <c r="AG17" s="11">
-        <v>73005</v>
+        <v>51387</v>
       </c>
       <c r="AH17" s="11">
-        <v>51387</v>
+        <v>75625</v>
       </c>
       <c r="AI17" s="11">
-        <v>75625</v>
+        <v>70638</v>
       </c>
       <c r="AJ17" s="11">
-        <v>70638</v>
+        <v>75592</v>
       </c>
       <c r="AK17" s="11">
-        <v>75592</v>
+        <v>76086</v>
       </c>
       <c r="AL17" s="11">
-        <v>76086</v>
+        <v>73331</v>
       </c>
       <c r="AM17" s="11">
-        <v>73331</v>
+        <v>58637</v>
       </c>
       <c r="AN17" s="11">
-        <v>58637</v>
-      </c>
-      <c r="AO17" s="11">
         <v>65382</v>
       </c>
-      <c r="AP17" s="11" t="s">
-        <v>58</v>
+      <c r="AO17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP17" s="11">
+        <v>7355</v>
       </c>
       <c r="AQ17" s="11">
-        <v>7355</v>
-      </c>
-      <c r="AR17" s="11">
         <v>39834</v>
       </c>
+      <c r="AR17" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU17" s="11">
+      <c r="AT17" s="11">
         <v>72719</v>
       </c>
+      <c r="AU17" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV17" s="11" t="s">
         <v>58</v>
       </c>
@@ -2544,7 +2579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2612,75 +2647,75 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>0</v>
       </c>
       <c r="Z18" s="13">
-        <v>0</v>
+        <v>3025</v>
       </c>
       <c r="AA18" s="13">
-        <v>3025</v>
+        <v>1001</v>
       </c>
       <c r="AB18" s="13">
-        <v>1001</v>
+        <v>25827</v>
       </c>
       <c r="AC18" s="13">
-        <v>25827</v>
+        <v>26640</v>
       </c>
       <c r="AD18" s="13">
-        <v>26640</v>
+        <v>19078</v>
       </c>
       <c r="AE18" s="13">
-        <v>19078</v>
+        <v>8428</v>
       </c>
       <c r="AF18" s="13">
-        <v>8428</v>
+        <v>3989</v>
       </c>
       <c r="AG18" s="13">
-        <v>3989</v>
+        <v>22308</v>
       </c>
       <c r="AH18" s="13">
-        <v>22308</v>
+        <v>1410</v>
       </c>
       <c r="AI18" s="13">
-        <v>1410</v>
-      </c>
-      <c r="AJ18" s="13">
         <v>5049</v>
       </c>
-      <c r="AK18" s="13" t="s">
-        <v>58</v>
+      <c r="AJ18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>913</v>
       </c>
       <c r="AL18" s="13">
-        <v>913</v>
+        <v>438</v>
       </c>
       <c r="AM18" s="13">
-        <v>438</v>
+        <v>16719</v>
       </c>
       <c r="AN18" s="13">
-        <v>16719</v>
-      </c>
-      <c r="AO18" s="13">
         <v>8581</v>
       </c>
-      <c r="AP18" s="13" t="s">
-        <v>58</v>
+      <c r="AO18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>72231</v>
       </c>
       <c r="AQ18" s="13">
-        <v>72231</v>
+        <v>34279</v>
       </c>
       <c r="AR18" s="13">
-        <v>34279</v>
+        <v>514970</v>
       </c>
       <c r="AS18" s="13">
-        <v>514970</v>
+        <v>887769</v>
       </c>
       <c r="AT18" s="13">
-        <v>887769</v>
-      </c>
-      <c r="AU18" s="13">
         <v>3118</v>
       </c>
+      <c r="AU18" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV18" s="13" t="s">
         <v>58</v>
       </c>
@@ -2703,7 +2738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2771,8 +2806,8 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>0</v>
       </c>
       <c r="Z19" s="11">
         <v>0</v>
@@ -2798,8 +2833,8 @@
       <c r="AG19" s="11">
         <v>0</v>
       </c>
-      <c r="AH19" s="11">
-        <v>0</v>
+      <c r="AH19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>58</v>
@@ -2862,7 +2897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2930,8 +2965,8 @@
       <c r="X20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="13" t="s">
-        <v>58</v>
+      <c r="Y20" s="13">
+        <v>0</v>
       </c>
       <c r="Z20" s="13">
         <v>0</v>
@@ -2960,8 +2995,8 @@
       <c r="AH20" s="13">
         <v>0</v>
       </c>
-      <c r="AI20" s="13">
-        <v>0</v>
+      <c r="AI20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ20" s="13" t="s">
         <v>58</v>
@@ -2987,14 +3022,14 @@
       <c r="AQ20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>58</v>
+      <c r="AR20" s="13">
+        <v>0</v>
       </c>
       <c r="AS20" s="13">
         <v>0</v>
       </c>
-      <c r="AT20" s="13">
-        <v>0</v>
+      <c r="AT20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU20" s="13" t="s">
         <v>58</v>
@@ -3021,7 +3056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3089,98 +3124,98 @@
       <c r="X21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="11" t="s">
-        <v>58</v>
+      <c r="Y21" s="11">
+        <v>204</v>
       </c>
       <c r="Z21" s="11">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="AA21" s="11">
+        <v>260</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>228</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>107</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>313</v>
+      </c>
+      <c r="AI21" s="11">
+        <v>299</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>392</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>317</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>301</v>
+      </c>
+      <c r="AM21" s="11">
+        <v>302</v>
+      </c>
+      <c r="AN21" s="11">
+        <v>278</v>
+      </c>
+      <c r="AO21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP21" s="11">
+        <v>71</v>
+      </c>
+      <c r="AQ21" s="11">
+        <v>127</v>
+      </c>
+      <c r="AR21" s="11">
+        <v>-2672</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>3216</v>
+      </c>
+      <c r="AT21" s="11">
+        <v>355</v>
+      </c>
+      <c r="AU21" s="11">
+        <v>337</v>
+      </c>
+      <c r="AV21" s="11">
+        <v>282</v>
+      </c>
+      <c r="AW21" s="11">
+        <v>311</v>
+      </c>
+      <c r="AX21" s="11">
+        <v>305</v>
+      </c>
+      <c r="AY21" s="11">
+        <v>298</v>
+      </c>
+      <c r="AZ21" s="11">
         <v>285</v>
       </c>
-      <c r="AB21" s="11">
-        <v>260</v>
-      </c>
-      <c r="AC21" s="11">
-        <v>228</v>
-      </c>
-      <c r="AD21" s="11">
-        <v>5</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>107</v>
-      </c>
-      <c r="AI21" s="11">
-        <v>313</v>
-      </c>
-      <c r="AJ21" s="11">
-        <v>299</v>
-      </c>
-      <c r="AK21" s="11">
-        <v>392</v>
-      </c>
-      <c r="AL21" s="11">
-        <v>317</v>
-      </c>
-      <c r="AM21" s="11">
-        <v>301</v>
-      </c>
-      <c r="AN21" s="11">
-        <v>302</v>
-      </c>
-      <c r="AO21" s="11">
-        <v>278</v>
-      </c>
-      <c r="AP21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ21" s="11">
-        <v>71</v>
-      </c>
-      <c r="AR21" s="11">
-        <v>127</v>
-      </c>
-      <c r="AS21" s="11">
-        <v>-2672</v>
-      </c>
-      <c r="AT21" s="11">
-        <v>3216</v>
-      </c>
-      <c r="AU21" s="11">
-        <v>355</v>
-      </c>
-      <c r="AV21" s="11">
-        <v>337</v>
-      </c>
-      <c r="AW21" s="11">
-        <v>282</v>
-      </c>
-      <c r="AX21" s="11">
-        <v>311</v>
-      </c>
-      <c r="AY21" s="11">
-        <v>305</v>
-      </c>
-      <c r="AZ21" s="11">
-        <v>298</v>
-      </c>
       <c r="BA21" s="11">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="BB21" s="11">
-        <v>222</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3248,39 +3283,39 @@
       <c r="X22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="13" t="s">
-        <v>58</v>
+      <c r="Y22" s="13">
+        <v>12383</v>
       </c>
       <c r="Z22" s="13">
-        <v>12383</v>
+        <v>3430</v>
       </c>
       <c r="AA22" s="13">
-        <v>3430</v>
+        <v>155</v>
       </c>
       <c r="AB22" s="13">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="13">
         <v>0</v>
       </c>
       <c r="AD22" s="13">
-        <v>0</v>
+        <v>1828</v>
       </c>
       <c r="AE22" s="13">
-        <v>1828</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="13">
-        <v>0</v>
+        <v>9199</v>
       </c>
       <c r="AG22" s="13">
-        <v>9199</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="13">
         <v>6597</v>
       </c>
+      <c r="AI22" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ22" s="13" t="s">
         <v>58</v>
       </c>
@@ -3305,17 +3340,17 @@
       <c r="AQ22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="13" t="s">
-        <v>58</v>
+      <c r="AR22" s="13">
+        <v>-6597</v>
       </c>
       <c r="AS22" s="13">
-        <v>-6597</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="13">
         <v>0</v>
       </c>
-      <c r="AU22" s="13">
-        <v>0</v>
+      <c r="AU22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV22" s="13" t="s">
         <v>58</v>
@@ -3339,7 +3374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3407,23 +3442,23 @@
       <c r="X23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="11" t="s">
-        <v>58</v>
+      <c r="Y23" s="11">
+        <v>16631</v>
       </c>
       <c r="Z23" s="11">
-        <v>16631</v>
+        <v>4316</v>
       </c>
       <c r="AA23" s="11">
-        <v>4316</v>
+        <v>31489</v>
       </c>
       <c r="AB23" s="11">
-        <v>31489</v>
+        <v>31015</v>
       </c>
       <c r="AC23" s="11">
-        <v>31015</v>
+        <v>24883</v>
       </c>
       <c r="AD23" s="11">
-        <v>24883</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="11">
         <v>0</v>
@@ -3432,46 +3467,46 @@
         <v>0</v>
       </c>
       <c r="AG23" s="11">
-        <v>0</v>
+        <v>3770</v>
       </c>
       <c r="AH23" s="11">
-        <v>3770</v>
-      </c>
-      <c r="AI23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ23" s="11">
         <v>409</v>
       </c>
-      <c r="AL23" s="11" t="s">
-        <v>58</v>
+      <c r="AK23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL23" s="11">
+        <v>144</v>
       </c>
       <c r="AM23" s="11">
-        <v>144</v>
-      </c>
-      <c r="AN23" s="11">
         <v>5758</v>
       </c>
+      <c r="AN23" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP23" s="11" t="s">
-        <v>58</v>
+      <c r="AP23" s="11">
+        <v>15800</v>
       </c>
       <c r="AQ23" s="11">
-        <v>15800</v>
+        <v>1209</v>
       </c>
       <c r="AR23" s="11">
-        <v>1209</v>
+        <v>-28845</v>
       </c>
       <c r="AS23" s="11">
-        <v>-28845</v>
-      </c>
-      <c r="AT23" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU23" s="11" t="s">
         <v>58</v>
@@ -3498,7 +3533,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>71</v>
       </c>
@@ -3623,15 +3658,15 @@
       <c r="AQ24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR24" s="13" t="s">
-        <v>58</v>
+      <c r="AR24" s="13">
+        <v>0</v>
       </c>
       <c r="AS24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="13">
         <v>738961</v>
       </c>
+      <c r="AT24" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU24" s="13" t="s">
         <v>58</v>
       </c>
@@ -3657,7 +3692,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>72</v>
       </c>
@@ -3752,48 +3787,48 @@
       <c r="AG25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="11" t="s">
-        <v>58</v>
+      <c r="AH25" s="11">
+        <v>36874</v>
       </c>
       <c r="AI25" s="11">
-        <v>36874</v>
+        <v>47398</v>
       </c>
       <c r="AJ25" s="11">
-        <v>47398</v>
+        <v>76509</v>
       </c>
       <c r="AK25" s="11">
-        <v>76509</v>
+        <v>49588</v>
       </c>
       <c r="AL25" s="11">
-        <v>49588</v>
+        <v>50789</v>
       </c>
       <c r="AM25" s="11">
-        <v>50789</v>
+        <v>45972</v>
       </c>
       <c r="AN25" s="11">
-        <v>45972</v>
-      </c>
-      <c r="AO25" s="11">
         <v>49300</v>
       </c>
-      <c r="AP25" s="11" t="s">
-        <v>58</v>
+      <c r="AO25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP25" s="11">
+        <v>54501</v>
       </c>
       <c r="AQ25" s="11">
-        <v>54501</v>
+        <v>38757</v>
       </c>
       <c r="AR25" s="11">
-        <v>38757</v>
+        <v>-489887</v>
       </c>
       <c r="AS25" s="11">
-        <v>-489887</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="11">
         <v>25175</v>
       </c>
+      <c r="AU25" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV25" s="11" t="s">
         <v>58</v>
       </c>
@@ -3816,7 +3851,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>73</v>
       </c>
@@ -3911,11 +3946,11 @@
       <c r="AG26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI26" s="13">
-        <v>0</v>
+      <c r="AH26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ26" s="13" t="s">
         <v>58</v>
@@ -3975,7 +4010,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>74</v>
       </c>
@@ -4042,97 +4077,97 @@
         <v>0</v>
       </c>
       <c r="Y27" s="15">
-        <v>0</v>
+        <v>188764</v>
       </c>
       <c r="Z27" s="15">
-        <v>188764</v>
+        <v>192732</v>
       </c>
       <c r="AA27" s="15">
-        <v>192732</v>
+        <v>215302</v>
       </c>
       <c r="AB27" s="15">
-        <v>215302</v>
+        <v>226871</v>
       </c>
       <c r="AC27" s="15">
-        <v>226871</v>
+        <v>209984</v>
       </c>
       <c r="AD27" s="15">
-        <v>209984</v>
+        <v>300103</v>
       </c>
       <c r="AE27" s="15">
-        <v>300103</v>
+        <v>254728</v>
       </c>
       <c r="AF27" s="15">
-        <v>254728</v>
+        <v>243135</v>
       </c>
       <c r="AG27" s="15">
-        <v>243135</v>
+        <v>250814</v>
       </c>
       <c r="AH27" s="15">
-        <v>250814</v>
+        <v>244021</v>
       </c>
       <c r="AI27" s="15">
-        <v>244021</v>
+        <v>247933</v>
       </c>
       <c r="AJ27" s="15">
-        <v>247933</v>
+        <v>274881</v>
       </c>
       <c r="AK27" s="15">
-        <v>274881</v>
+        <v>250064</v>
       </c>
       <c r="AL27" s="15">
-        <v>250064</v>
+        <v>244649</v>
       </c>
       <c r="AM27" s="15">
-        <v>244649</v>
+        <v>244613</v>
       </c>
       <c r="AN27" s="15">
-        <v>244613</v>
+        <v>242263</v>
       </c>
       <c r="AO27" s="15">
-        <v>242263</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="15">
-        <v>0</v>
+        <v>244260</v>
       </c>
       <c r="AQ27" s="15">
-        <v>244260</v>
+        <v>245739</v>
       </c>
       <c r="AR27" s="15">
-        <v>245739</v>
+        <v>-550038</v>
       </c>
       <c r="AS27" s="15">
-        <v>-550038</v>
+        <v>2264982</v>
       </c>
       <c r="AT27" s="15">
-        <v>2264982</v>
+        <v>253669</v>
       </c>
       <c r="AU27" s="15">
-        <v>253669</v>
+        <v>249991</v>
       </c>
       <c r="AV27" s="15">
-        <v>249991</v>
+        <v>250305</v>
       </c>
       <c r="AW27" s="15">
-        <v>250305</v>
+        <v>247303</v>
       </c>
       <c r="AX27" s="15">
-        <v>247303</v>
+        <v>245658</v>
       </c>
       <c r="AY27" s="15">
-        <v>245658</v>
+        <v>245314</v>
       </c>
       <c r="AZ27" s="15">
-        <v>245314</v>
+        <v>232588</v>
       </c>
       <c r="BA27" s="15">
-        <v>232588</v>
+        <v>236804</v>
       </c>
       <c r="BB27" s="15">
-        <v>236804</v>
+        <v>244470</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>75</v>
       </c>
@@ -4189,7 +4224,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>59</v>
       </c>
@@ -4257,8 +4292,8 @@
       <c r="X29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y29" s="11" t="s">
-        <v>58</v>
+      <c r="Y29" s="11">
+        <v>0</v>
       </c>
       <c r="Z29" s="11">
         <v>0</v>
@@ -4287,8 +4322,8 @@
       <c r="AH29" s="11">
         <v>0</v>
       </c>
-      <c r="AI29" s="11">
-        <v>0</v>
+      <c r="AI29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ29" s="11" t="s">
         <v>58</v>
@@ -4299,11 +4334,11 @@
       <c r="AL29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN29" s="11">
-        <v>0</v>
+      <c r="AM29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO29" s="11" t="s">
         <v>58</v>
@@ -4314,11 +4349,11 @@
       <c r="AQ29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR29" s="11" t="s">
-        <v>58</v>
+      <c r="AR29" s="11">
+        <v>630938</v>
       </c>
       <c r="AS29" s="11">
-        <v>630938</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="11">
         <v>0</v>
@@ -4348,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>60</v>
       </c>
@@ -4473,14 +4508,14 @@
       <c r="AQ30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR30" s="13" t="s">
-        <v>58</v>
+      <c r="AR30" s="13">
+        <v>0</v>
       </c>
       <c r="AS30" s="13">
         <v>0</v>
       </c>
-      <c r="AT30" s="13">
-        <v>0</v>
+      <c r="AT30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU30" s="13" t="s">
         <v>58</v>
@@ -4491,11 +4526,11 @@
       <c r="AW30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY30" s="13">
-        <v>0</v>
+      <c r="AX30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ30" s="13" t="s">
         <v>58</v>
@@ -4507,7 +4542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>61</v>
       </c>
@@ -4575,8 +4610,8 @@
       <c r="X31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="11" t="s">
-        <v>58</v>
+      <c r="Y31" s="11">
+        <v>0</v>
       </c>
       <c r="Z31" s="11">
         <v>0</v>
@@ -4602,8 +4637,8 @@
       <c r="AG31" s="11">
         <v>0</v>
       </c>
-      <c r="AH31" s="11">
-        <v>0</v>
+      <c r="AH31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>58</v>
@@ -4632,17 +4667,17 @@
       <c r="AQ31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR31" s="11" t="s">
-        <v>58</v>
+      <c r="AR31" s="11">
+        <v>0</v>
       </c>
       <c r="AS31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="11">
         <v>49261</v>
       </c>
-      <c r="AU31" s="11" t="s">
-        <v>58</v>
+      <c r="AT31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU31" s="11">
+        <v>0</v>
       </c>
       <c r="AV31" s="11">
         <v>0</v>
@@ -4666,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>62</v>
       </c>
@@ -4791,20 +4826,20 @@
       <c r="AQ32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR32" s="13" t="s">
-        <v>58</v>
+      <c r="AR32" s="13">
+        <v>0</v>
       </c>
       <c r="AS32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT32" s="13">
         <v>450</v>
       </c>
+      <c r="AT32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV32" s="13" t="s">
-        <v>58</v>
+      <c r="AV32" s="13">
+        <v>0</v>
       </c>
       <c r="AW32" s="13">
         <v>0</v>
@@ -4825,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>63</v>
       </c>
@@ -4893,8 +4928,8 @@
       <c r="X33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>58</v>
+      <c r="Y33" s="11">
+        <v>0</v>
       </c>
       <c r="Z33" s="11">
         <v>0</v>
@@ -4920,8 +4955,8 @@
       <c r="AG33" s="11">
         <v>0</v>
       </c>
-      <c r="AH33" s="11">
-        <v>0</v>
+      <c r="AH33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI33" s="11" t="s">
         <v>58</v>
@@ -4950,17 +4985,17 @@
       <c r="AQ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR33" s="11" t="s">
-        <v>58</v>
+      <c r="AR33" s="11">
+        <v>0</v>
       </c>
       <c r="AS33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT33" s="11">
         <v>557134</v>
       </c>
-      <c r="AU33" s="11" t="s">
-        <v>58</v>
+      <c r="AT33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU33" s="11">
+        <v>0</v>
       </c>
       <c r="AV33" s="11">
         <v>0</v>
@@ -4984,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>64</v>
       </c>
@@ -5067,8 +5102,8 @@
       <c r="AC34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD34" s="13" t="s">
-        <v>58</v>
+      <c r="AD34" s="13">
+        <v>0</v>
       </c>
       <c r="AE34" s="13">
         <v>0</v>
@@ -5079,8 +5114,8 @@
       <c r="AG34" s="13">
         <v>0</v>
       </c>
-      <c r="AH34" s="13">
-        <v>0</v>
+      <c r="AH34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI34" s="13" t="s">
         <v>58</v>
@@ -5143,7 +5178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>65</v>
       </c>
@@ -5302,7 +5337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>66</v>
       </c>
@@ -5370,8 +5405,8 @@
       <c r="X36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="13" t="s">
-        <v>58</v>
+      <c r="Y36" s="13">
+        <v>0</v>
       </c>
       <c r="Z36" s="13">
         <v>0</v>
@@ -5397,8 +5432,8 @@
       <c r="AG36" s="13">
         <v>0</v>
       </c>
-      <c r="AH36" s="13">
-        <v>0</v>
+      <c r="AH36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI36" s="13" t="s">
         <v>58</v>
@@ -5461,7 +5496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>67</v>
       </c>
@@ -5547,8 +5582,8 @@
       <c r="AD37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE37" s="11" t="s">
-        <v>58</v>
+      <c r="AE37" s="11">
+        <v>0</v>
       </c>
       <c r="AF37" s="11">
         <v>0</v>
@@ -5556,8 +5591,8 @@
       <c r="AG37" s="11">
         <v>0</v>
       </c>
-      <c r="AH37" s="11">
-        <v>0</v>
+      <c r="AH37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI37" s="11" t="s">
         <v>58</v>
@@ -5620,7 +5655,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>68</v>
       </c>
@@ -5688,8 +5723,8 @@
       <c r="X38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>58</v>
+      <c r="Y38" s="13">
+        <v>0</v>
       </c>
       <c r="Z38" s="13">
         <v>0</v>
@@ -5715,8 +5750,8 @@
       <c r="AG38" s="13">
         <v>0</v>
       </c>
-      <c r="AH38" s="13">
-        <v>0</v>
+      <c r="AH38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI38" s="13" t="s">
         <v>58</v>
@@ -5745,8 +5780,8 @@
       <c r="AQ38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR38" s="13" t="s">
-        <v>58</v>
+      <c r="AR38" s="13">
+        <v>0</v>
       </c>
       <c r="AS38" s="13">
         <v>0</v>
@@ -5779,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>70</v>
       </c>
@@ -5847,8 +5882,8 @@
       <c r="X39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>58</v>
+      <c r="Y39" s="11">
+        <v>0</v>
       </c>
       <c r="Z39" s="11">
         <v>0</v>
@@ -5874,8 +5909,8 @@
       <c r="AG39" s="11">
         <v>0</v>
       </c>
-      <c r="AH39" s="11">
-        <v>0</v>
+      <c r="AH39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI39" s="11" t="s">
         <v>58</v>
@@ -5938,7 +5973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>72</v>
       </c>
@@ -6033,11 +6068,11 @@
       <c r="AG40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>0</v>
+      <c r="AH40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ40" s="13" t="s">
         <v>58</v>
@@ -6063,8 +6098,8 @@
       <c r="AQ40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>58</v>
+      <c r="AR40" s="13">
+        <v>0</v>
       </c>
       <c r="AS40" s="13">
         <v>0</v>
@@ -6072,8 +6107,8 @@
       <c r="AT40" s="13">
         <v>0</v>
       </c>
-      <c r="AU40" s="13">
-        <v>0</v>
+      <c r="AU40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV40" s="13" t="s">
         <v>58</v>
@@ -6097,7 +6132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>76</v>
       </c>
@@ -6221,13 +6256,13 @@
         <v>0</v>
       </c>
       <c r="AR41" s="15">
-        <v>0</v>
+        <v>630938</v>
       </c>
       <c r="AS41" s="15">
-        <v>630938</v>
+        <v>606845</v>
       </c>
       <c r="AT41" s="15">
-        <v>606845</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="15">
         <v>0</v>
@@ -6254,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>77</v>
       </c>
@@ -6311,7 +6346,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>78</v>
       </c>
@@ -6377,8 +6412,8 @@
       <c r="X43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="15" t="s">
-        <v>58</v>
+      <c r="Y43" s="15">
+        <v>0</v>
       </c>
       <c r="Z43" s="15">
         <v>0</v>
@@ -6425,11 +6460,11 @@
       <c r="AN43" s="15">
         <v>0</v>
       </c>
-      <c r="AO43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP43" s="15" t="s">
-        <v>58</v>
+      <c r="AO43" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP43" s="15">
+        <v>0</v>
       </c>
       <c r="AQ43" s="15">
         <v>0</v>
@@ -6468,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
         <v>79</v>
       </c>
@@ -6535,97 +6570,97 @@
         <v>0</v>
       </c>
       <c r="Y44" s="19">
-        <v>0</v>
+        <v>188764</v>
       </c>
       <c r="Z44" s="19">
-        <v>188764</v>
+        <v>192732</v>
       </c>
       <c r="AA44" s="19">
-        <v>192732</v>
+        <v>215302</v>
       </c>
       <c r="AB44" s="19">
-        <v>215302</v>
+        <v>226871</v>
       </c>
       <c r="AC44" s="19">
-        <v>226871</v>
+        <v>209984</v>
       </c>
       <c r="AD44" s="19">
-        <v>209984</v>
+        <v>300103</v>
       </c>
       <c r="AE44" s="19">
-        <v>300103</v>
+        <v>254728</v>
       </c>
       <c r="AF44" s="19">
-        <v>254728</v>
+        <v>243135</v>
       </c>
       <c r="AG44" s="19">
-        <v>243135</v>
+        <v>250814</v>
       </c>
       <c r="AH44" s="19">
-        <v>250814</v>
+        <v>244021</v>
       </c>
       <c r="AI44" s="19">
-        <v>244021</v>
+        <v>247933</v>
       </c>
       <c r="AJ44" s="19">
-        <v>247933</v>
+        <v>274881</v>
       </c>
       <c r="AK44" s="19">
-        <v>274881</v>
+        <v>250064</v>
       </c>
       <c r="AL44" s="19">
-        <v>250064</v>
+        <v>244649</v>
       </c>
       <c r="AM44" s="19">
-        <v>244649</v>
+        <v>244613</v>
       </c>
       <c r="AN44" s="19">
-        <v>244613</v>
+        <v>242263</v>
       </c>
       <c r="AO44" s="19">
-        <v>242263</v>
+        <v>0</v>
       </c>
       <c r="AP44" s="19">
-        <v>0</v>
+        <v>244260</v>
       </c>
       <c r="AQ44" s="19">
-        <v>244260</v>
+        <v>245739</v>
       </c>
       <c r="AR44" s="19">
-        <v>245739</v>
+        <v>80900</v>
       </c>
       <c r="AS44" s="19">
-        <v>80900</v>
+        <v>2871827</v>
       </c>
       <c r="AT44" s="19">
-        <v>2871827</v>
+        <v>253669</v>
       </c>
       <c r="AU44" s="19">
-        <v>253669</v>
+        <v>249991</v>
       </c>
       <c r="AV44" s="19">
-        <v>249991</v>
+        <v>250305</v>
       </c>
       <c r="AW44" s="19">
-        <v>250305</v>
+        <v>247303</v>
       </c>
       <c r="AX44" s="19">
-        <v>247303</v>
+        <v>245658</v>
       </c>
       <c r="AY44" s="19">
-        <v>245658</v>
+        <v>245314</v>
       </c>
       <c r="AZ44" s="19">
-        <v>245314</v>
+        <v>232588</v>
       </c>
       <c r="BA44" s="19">
-        <v>232588</v>
+        <v>236804</v>
       </c>
       <c r="BB44" s="19">
-        <v>236804</v>
+        <v>244470</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6680,7 +6715,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6735,7 +6770,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6790,7 +6825,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>80</v>
       </c>
@@ -6947,7 +6982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -7002,7 +7037,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>81</v>
       </c>
@@ -7059,7 +7094,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>56</v>
       </c>
@@ -7184,14 +7219,14 @@
       <c r="AQ51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR51" s="11" t="s">
-        <v>58</v>
+      <c r="AR51" s="11">
+        <v>0</v>
       </c>
       <c r="AS51" s="11">
         <v>0</v>
       </c>
-      <c r="AT51" s="11">
-        <v>0</v>
+      <c r="AT51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU51" s="11" t="s">
         <v>58</v>
@@ -7218,7 +7253,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>59</v>
       </c>
@@ -7286,11 +7321,11 @@
       <c r="X52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y52" s="13" t="s">
-        <v>58</v>
+      <c r="Y52" s="13">
+        <v>327</v>
       </c>
       <c r="Z52" s="13">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="13">
         <v>0</v>
@@ -7299,85 +7334,85 @@
         <v>0</v>
       </c>
       <c r="AC52" s="13">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="AD52" s="13">
-        <v>168</v>
+        <v>918</v>
       </c>
       <c r="AE52" s="13">
-        <v>918</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="13">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="AG52" s="13">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="AH52" s="13">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="AI52" s="13">
-        <v>703</v>
+        <v>182</v>
       </c>
       <c r="AJ52" s="13">
-        <v>182</v>
-      </c>
-      <c r="AK52" s="13">
         <v>393</v>
       </c>
+      <c r="AK52" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN52" s="13">
+      <c r="AM52" s="13">
         <v>504</v>
       </c>
+      <c r="AN52" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP52" s="13" t="s">
-        <v>58</v>
+      <c r="AP52" s="13">
+        <v>407</v>
       </c>
       <c r="AQ52" s="13">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AR52" s="13">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="AS52" s="13">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="13">
         <v>0</v>
       </c>
       <c r="AU52" s="13">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="AV52" s="13">
-        <v>415</v>
+        <v>717</v>
       </c>
       <c r="AW52" s="13">
-        <v>717</v>
+        <v>759</v>
       </c>
       <c r="AX52" s="13">
-        <v>759</v>
+        <v>1</v>
       </c>
       <c r="AY52" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AZ52" s="13">
-        <v>-1</v>
+        <v>869</v>
       </c>
       <c r="BA52" s="13">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>60</v>
       </c>
@@ -7511,32 +7546,32 @@
       <c r="AT53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU53" s="11" t="s">
-        <v>58</v>
+      <c r="AU53" s="11">
+        <v>103259</v>
       </c>
       <c r="AV53" s="11">
-        <v>103259</v>
+        <v>49117</v>
       </c>
       <c r="AW53" s="11">
-        <v>49117</v>
+        <v>82911</v>
       </c>
       <c r="AX53" s="11">
-        <v>82911</v>
+        <v>48573</v>
       </c>
       <c r="AY53" s="11">
-        <v>48573</v>
+        <v>87916</v>
       </c>
       <c r="AZ53" s="11">
-        <v>87916</v>
+        <v>71681</v>
       </c>
       <c r="BA53" s="11">
-        <v>71681</v>
+        <v>61603</v>
       </c>
       <c r="BB53" s="11">
-        <v>61603</v>
+        <v>60567</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>61</v>
       </c>
@@ -7604,8 +7639,8 @@
       <c r="X54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="13" t="s">
-        <v>58</v>
+      <c r="Y54" s="13">
+        <v>0</v>
       </c>
       <c r="Z54" s="13">
         <v>0</v>
@@ -7634,8 +7669,8 @@
       <c r="AH54" s="13">
         <v>0</v>
       </c>
-      <c r="AI54" s="13">
-        <v>0</v>
+      <c r="AI54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ54" s="13" t="s">
         <v>58</v>
@@ -7643,14 +7678,14 @@
       <c r="AK54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL54" s="13" t="s">
-        <v>58</v>
+      <c r="AL54" s="13">
+        <v>0</v>
       </c>
       <c r="AM54" s="13">
         <v>0</v>
       </c>
-      <c r="AN54" s="13">
-        <v>0</v>
+      <c r="AN54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO54" s="13" t="s">
         <v>58</v>
@@ -7661,8 +7696,8 @@
       <c r="AQ54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR54" s="13" t="s">
-        <v>58</v>
+      <c r="AR54" s="13">
+        <v>0</v>
       </c>
       <c r="AS54" s="13">
         <v>0</v>
@@ -7695,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>62</v>
       </c>
@@ -7763,98 +7798,98 @@
       <c r="X55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="11" t="s">
-        <v>58</v>
+      <c r="Y55" s="11">
+        <v>35137</v>
       </c>
       <c r="Z55" s="11">
-        <v>35137</v>
+        <v>72851</v>
       </c>
       <c r="AA55" s="11">
-        <v>72851</v>
+        <v>62737</v>
       </c>
       <c r="AB55" s="11">
-        <v>62737</v>
+        <v>37226</v>
       </c>
       <c r="AC55" s="11">
-        <v>37226</v>
+        <v>72323</v>
       </c>
       <c r="AD55" s="11">
-        <v>72323</v>
+        <v>75983</v>
       </c>
       <c r="AE55" s="11">
-        <v>75983</v>
+        <v>92568</v>
       </c>
       <c r="AF55" s="11">
-        <v>92568</v>
+        <v>51452</v>
       </c>
       <c r="AG55" s="11">
-        <v>51452</v>
+        <v>41342</v>
       </c>
       <c r="AH55" s="11">
-        <v>41342</v>
+        <v>84391</v>
       </c>
       <c r="AI55" s="11">
-        <v>84391</v>
+        <v>80022</v>
       </c>
       <c r="AJ55" s="11">
-        <v>80022</v>
+        <v>42283</v>
       </c>
       <c r="AK55" s="11">
-        <v>42283</v>
+        <v>58186</v>
       </c>
       <c r="AL55" s="11">
-        <v>58186</v>
+        <v>67883</v>
       </c>
       <c r="AM55" s="11">
-        <v>67883</v>
+        <v>60449</v>
       </c>
       <c r="AN55" s="11">
-        <v>60449</v>
-      </c>
-      <c r="AO55" s="11">
         <v>55654</v>
       </c>
-      <c r="AP55" s="11" t="s">
-        <v>58</v>
+      <c r="AO55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP55" s="11">
+        <v>15993</v>
       </c>
       <c r="AQ55" s="11">
-        <v>15993</v>
-      </c>
-      <c r="AR55" s="11">
         <v>49395</v>
       </c>
+      <c r="AR55" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT55" s="11" t="s">
-        <v>58</v>
+      <c r="AT55" s="11">
+        <v>81820</v>
       </c>
       <c r="AU55" s="11">
-        <v>81820</v>
+        <v>79070</v>
       </c>
       <c r="AV55" s="11">
-        <v>79070</v>
+        <v>102269</v>
       </c>
       <c r="AW55" s="11">
-        <v>102269</v>
+        <v>105227</v>
       </c>
       <c r="AX55" s="11">
-        <v>105227</v>
+        <v>104110</v>
       </c>
       <c r="AY55" s="11">
-        <v>104110</v>
+        <v>72721</v>
       </c>
       <c r="AZ55" s="11">
-        <v>72721</v>
+        <v>93352</v>
       </c>
       <c r="BA55" s="11">
-        <v>93352</v>
+        <v>78501</v>
       </c>
       <c r="BB55" s="11">
-        <v>78501</v>
+        <v>74013</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>63</v>
       </c>
@@ -7922,8 +7957,8 @@
       <c r="X56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="13" t="s">
-        <v>58</v>
+      <c r="Y56" s="13">
+        <v>0</v>
       </c>
       <c r="Z56" s="13">
         <v>0</v>
@@ -7949,8 +7984,8 @@
       <c r="AG56" s="13">
         <v>0</v>
       </c>
-      <c r="AH56" s="13">
-        <v>0</v>
+      <c r="AH56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI56" s="13" t="s">
         <v>58</v>
@@ -7988,8 +8023,8 @@
       <c r="AT56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU56" s="13" t="s">
-        <v>58</v>
+      <c r="AU56" s="13">
+        <v>0</v>
       </c>
       <c r="AV56" s="13">
         <v>0</v>
@@ -8013,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>64</v>
       </c>
@@ -8081,75 +8116,75 @@
       <c r="X57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>58</v>
+      <c r="Y57" s="11">
+        <v>86484</v>
       </c>
       <c r="Z57" s="11">
-        <v>86484</v>
+        <v>68741</v>
       </c>
       <c r="AA57" s="11">
-        <v>68741</v>
+        <v>65497</v>
       </c>
       <c r="AB57" s="11">
-        <v>65497</v>
+        <v>40549</v>
       </c>
       <c r="AC57" s="11">
-        <v>40549</v>
+        <v>68812</v>
       </c>
       <c r="AD57" s="11">
-        <v>68812</v>
+        <v>47858</v>
       </c>
       <c r="AE57" s="11">
-        <v>47858</v>
+        <v>83550</v>
       </c>
       <c r="AF57" s="11">
-        <v>83550</v>
+        <v>65973</v>
       </c>
       <c r="AG57" s="11">
-        <v>65973</v>
+        <v>31062</v>
       </c>
       <c r="AH57" s="11">
-        <v>31062</v>
+        <v>70644</v>
       </c>
       <c r="AI57" s="11">
-        <v>70644</v>
+        <v>88995</v>
       </c>
       <c r="AJ57" s="11">
-        <v>88995</v>
+        <v>60777</v>
       </c>
       <c r="AK57" s="11">
-        <v>60777</v>
+        <v>73138</v>
       </c>
       <c r="AL57" s="11">
-        <v>73138</v>
+        <v>84167</v>
       </c>
       <c r="AM57" s="11">
-        <v>84167</v>
+        <v>80850</v>
       </c>
       <c r="AN57" s="11">
-        <v>80850</v>
-      </c>
-      <c r="AO57" s="11">
         <v>53259</v>
       </c>
-      <c r="AP57" s="11" t="s">
-        <v>58</v>
+      <c r="AO57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP57" s="11">
+        <v>16533</v>
       </c>
       <c r="AQ57" s="11">
-        <v>16533</v>
-      </c>
-      <c r="AR57" s="11">
         <v>19201</v>
       </c>
+      <c r="AR57" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU57" s="11">
+      <c r="AT57" s="11">
         <v>55611</v>
       </c>
+      <c r="AU57" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV57" s="11" t="s">
         <v>58</v>
       </c>
@@ -8172,7 +8207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>65</v>
       </c>
@@ -8240,75 +8275,75 @@
       <c r="X58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="13" t="s">
-        <v>58</v>
+      <c r="Y58" s="13">
+        <v>0</v>
       </c>
       <c r="Z58" s="13">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AA58" s="13">
+        <v>6</v>
+      </c>
+      <c r="AB58" s="13">
+        <v>9673</v>
+      </c>
+      <c r="AC58" s="13">
+        <v>34911</v>
+      </c>
+      <c r="AD58" s="13">
+        <v>34062</v>
+      </c>
+      <c r="AE58" s="13">
+        <v>238</v>
+      </c>
+      <c r="AF58" s="13">
+        <v>11690</v>
+      </c>
+      <c r="AG58" s="13">
+        <v>16315</v>
+      </c>
+      <c r="AH58" s="13">
+        <v>5811</v>
+      </c>
+      <c r="AI58" s="13">
         <v>53</v>
       </c>
-      <c r="AB58" s="13">
-        <v>6</v>
-      </c>
-      <c r="AC58" s="13">
-        <v>9673</v>
-      </c>
-      <c r="AD58" s="13">
-        <v>34911</v>
-      </c>
-      <c r="AE58" s="13">
-        <v>34062</v>
-      </c>
-      <c r="AF58" s="13">
-        <v>238</v>
-      </c>
-      <c r="AG58" s="13">
-        <v>11690</v>
-      </c>
-      <c r="AH58" s="13">
-        <v>16315</v>
-      </c>
-      <c r="AI58" s="13">
-        <v>5811</v>
-      </c>
       <c r="AJ58" s="13">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AK58" s="13">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="AL58" s="13">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="AM58" s="13">
-        <v>70</v>
+        <v>3941</v>
       </c>
       <c r="AN58" s="13">
-        <v>3941</v>
-      </c>
-      <c r="AO58" s="13">
         <v>23852</v>
       </c>
-      <c r="AP58" s="13" t="s">
-        <v>58</v>
+      <c r="AO58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP58" s="13">
+        <v>52282</v>
       </c>
       <c r="AQ58" s="13">
-        <v>52282</v>
+        <v>18238</v>
       </c>
       <c r="AR58" s="13">
-        <v>18238</v>
+        <v>536046</v>
       </c>
       <c r="AS58" s="13">
-        <v>536046</v>
+        <v>870648</v>
       </c>
       <c r="AT58" s="13">
-        <v>870648</v>
-      </c>
-      <c r="AU58" s="13">
         <v>10550</v>
       </c>
+      <c r="AU58" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV58" s="13" t="s">
         <v>58</v>
       </c>
@@ -8331,7 +8366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>66</v>
       </c>
@@ -8399,8 +8434,8 @@
       <c r="X59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>58</v>
+      <c r="Y59" s="11">
+        <v>0</v>
       </c>
       <c r="Z59" s="11">
         <v>0</v>
@@ -8426,8 +8461,8 @@
       <c r="AG59" s="11">
         <v>0</v>
       </c>
-      <c r="AH59" s="11">
-        <v>0</v>
+      <c r="AH59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI59" s="11" t="s">
         <v>58</v>
@@ -8490,7 +8525,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>67</v>
       </c>
@@ -8558,8 +8593,8 @@
       <c r="X60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y60" s="13" t="s">
-        <v>58</v>
+      <c r="Y60" s="13">
+        <v>0</v>
       </c>
       <c r="Z60" s="13">
         <v>0</v>
@@ -8588,8 +8623,8 @@
       <c r="AH60" s="13">
         <v>0</v>
       </c>
-      <c r="AI60" s="13">
-        <v>0</v>
+      <c r="AI60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ60" s="13" t="s">
         <v>58</v>
@@ -8615,14 +8650,14 @@
       <c r="AQ60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR60" s="13" t="s">
-        <v>58</v>
+      <c r="AR60" s="13">
+        <v>0</v>
       </c>
       <c r="AS60" s="13">
         <v>0</v>
       </c>
-      <c r="AT60" s="13">
-        <v>0</v>
+      <c r="AT60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU60" s="13" t="s">
         <v>58</v>
@@ -8649,7 +8684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>68</v>
       </c>
@@ -8717,8 +8752,8 @@
       <c r="X61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>58</v>
+      <c r="Y61" s="11">
+        <v>0</v>
       </c>
       <c r="Z61" s="11">
         <v>0</v>
@@ -8747,8 +8782,8 @@
       <c r="AH61" s="11">
         <v>0</v>
       </c>
-      <c r="AI61" s="11">
-        <v>0</v>
+      <c r="AI61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ61" s="11" t="s">
         <v>58</v>
@@ -8774,8 +8809,8 @@
       <c r="AQ61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR61" s="11" t="s">
-        <v>58</v>
+      <c r="AR61" s="11">
+        <v>0</v>
       </c>
       <c r="AS61" s="11">
         <v>0</v>
@@ -8808,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>69</v>
       </c>
@@ -8876,8 +8911,8 @@
       <c r="X62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y62" s="13" t="s">
-        <v>58</v>
+      <c r="Y62" s="13">
+        <v>0</v>
       </c>
       <c r="Z62" s="13">
         <v>0</v>
@@ -8906,8 +8941,8 @@
       <c r="AH62" s="13">
         <v>0</v>
       </c>
-      <c r="AI62" s="13">
-        <v>0</v>
+      <c r="AI62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ62" s="13" t="s">
         <v>58</v>
@@ -8933,8 +8968,8 @@
       <c r="AQ62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR62" s="13" t="s">
-        <v>58</v>
+      <c r="AR62" s="13">
+        <v>0</v>
       </c>
       <c r="AS62" s="13">
         <v>0</v>
@@ -8942,8 +8977,8 @@
       <c r="AT62" s="13">
         <v>0</v>
       </c>
-      <c r="AU62" s="13">
-        <v>0</v>
+      <c r="AU62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV62" s="13" t="s">
         <v>58</v>
@@ -8967,7 +9002,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>70</v>
       </c>
@@ -9035,8 +9070,8 @@
       <c r="X63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>58</v>
+      <c r="Y63" s="11">
+        <v>0</v>
       </c>
       <c r="Z63" s="11">
         <v>0</v>
@@ -9065,8 +9100,8 @@
       <c r="AH63" s="11">
         <v>0</v>
       </c>
-      <c r="AI63" s="11">
-        <v>0</v>
+      <c r="AI63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ63" s="11" t="s">
         <v>58</v>
@@ -9092,14 +9127,14 @@
       <c r="AQ63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR63" s="11" t="s">
-        <v>58</v>
+      <c r="AR63" s="11">
+        <v>0</v>
       </c>
       <c r="AS63" s="11">
         <v>0</v>
       </c>
-      <c r="AT63" s="11">
-        <v>0</v>
+      <c r="AT63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU63" s="11" t="s">
         <v>58</v>
@@ -9126,7 +9161,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>71</v>
       </c>
@@ -9251,15 +9286,15 @@
       <c r="AQ64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR64" s="13" t="s">
-        <v>58</v>
+      <c r="AR64" s="13">
+        <v>0</v>
       </c>
       <c r="AS64" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT64" s="13">
         <v>710735</v>
       </c>
+      <c r="AT64" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU64" s="13" t="s">
         <v>58</v>
       </c>
@@ -9285,7 +9320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>72</v>
       </c>
@@ -9380,11 +9415,11 @@
       <c r="AG65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI65" s="11">
-        <v>0</v>
+      <c r="AH65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ65" s="11" t="s">
         <v>58</v>
@@ -9410,8 +9445,8 @@
       <c r="AQ65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR65" s="11" t="s">
-        <v>58</v>
+      <c r="AR65" s="11">
+        <v>0</v>
       </c>
       <c r="AS65" s="11">
         <v>0</v>
@@ -9419,8 +9454,8 @@
       <c r="AT65" s="11">
         <v>0</v>
       </c>
-      <c r="AU65" s="11">
-        <v>0</v>
+      <c r="AU65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV65" s="11" t="s">
         <v>58</v>
@@ -9444,7 +9479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>73</v>
       </c>
@@ -9539,11 +9574,11 @@
       <c r="AG66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI66" s="13">
-        <v>0</v>
+      <c r="AH66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ66" s="13" t="s">
         <v>58</v>
@@ -9603,7 +9638,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>82</v>
       </c>
@@ -9670,97 +9705,97 @@
         <v>0</v>
       </c>
       <c r="Y67" s="15">
-        <v>0</v>
+        <v>121948</v>
       </c>
       <c r="Z67" s="15">
-        <v>121948</v>
+        <v>141645</v>
       </c>
       <c r="AA67" s="15">
-        <v>141645</v>
+        <v>128240</v>
       </c>
       <c r="AB67" s="15">
-        <v>128240</v>
+        <v>87448</v>
       </c>
       <c r="AC67" s="15">
-        <v>87448</v>
+        <v>176214</v>
       </c>
       <c r="AD67" s="15">
-        <v>176214</v>
+        <v>158821</v>
       </c>
       <c r="AE67" s="15">
-        <v>158821</v>
+        <v>176356</v>
       </c>
       <c r="AF67" s="15">
-        <v>176356</v>
+        <v>129516</v>
       </c>
       <c r="AG67" s="15">
-        <v>129516</v>
+        <v>88719</v>
       </c>
       <c r="AH67" s="15">
-        <v>88719</v>
+        <v>161549</v>
       </c>
       <c r="AI67" s="15">
-        <v>161549</v>
+        <v>169252</v>
       </c>
       <c r="AJ67" s="15">
-        <v>169252</v>
+        <v>103500</v>
       </c>
       <c r="AK67" s="15">
-        <v>103500</v>
+        <v>131436</v>
       </c>
       <c r="AL67" s="15">
-        <v>131436</v>
+        <v>152120</v>
       </c>
       <c r="AM67" s="15">
-        <v>152120</v>
+        <v>145744</v>
       </c>
       <c r="AN67" s="15">
-        <v>145744</v>
+        <v>132765</v>
       </c>
       <c r="AO67" s="15">
-        <v>132765</v>
+        <v>0</v>
       </c>
       <c r="AP67" s="15">
-        <v>0</v>
+        <v>85215</v>
       </c>
       <c r="AQ67" s="15">
-        <v>85215</v>
+        <v>87246</v>
       </c>
       <c r="AR67" s="15">
-        <v>87246</v>
+        <v>536481</v>
       </c>
       <c r="AS67" s="15">
-        <v>536481</v>
+        <v>1581383</v>
       </c>
       <c r="AT67" s="15">
-        <v>1581383</v>
+        <v>147981</v>
       </c>
       <c r="AU67" s="15">
-        <v>147981</v>
+        <v>182744</v>
       </c>
       <c r="AV67" s="15">
-        <v>182744</v>
+        <v>152103</v>
       </c>
       <c r="AW67" s="15">
-        <v>152103</v>
+        <v>188897</v>
       </c>
       <c r="AX67" s="15">
-        <v>188897</v>
+        <v>152684</v>
       </c>
       <c r="AY67" s="15">
-        <v>152684</v>
+        <v>160636</v>
       </c>
       <c r="AZ67" s="15">
-        <v>160636</v>
+        <v>165902</v>
       </c>
       <c r="BA67" s="15">
-        <v>165902</v>
+        <v>140104</v>
       </c>
       <c r="BB67" s="15">
-        <v>140104</v>
+        <v>134580</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>83</v>
       </c>
@@ -9817,7 +9852,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>59</v>
       </c>
@@ -9885,98 +9920,98 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>64288</v>
       </c>
       <c r="Z69" s="11">
-        <v>64288</v>
+        <v>40119</v>
       </c>
       <c r="AA69" s="11">
-        <v>40119</v>
+        <v>52927</v>
       </c>
       <c r="AB69" s="11">
-        <v>52927</v>
+        <v>46005</v>
       </c>
       <c r="AC69" s="11">
-        <v>46005</v>
+        <v>45462</v>
       </c>
       <c r="AD69" s="11">
-        <v>45462</v>
+        <v>45890</v>
       </c>
       <c r="AE69" s="11">
-        <v>45890</v>
+        <v>44600</v>
       </c>
       <c r="AF69" s="11">
-        <v>44600</v>
+        <v>71294</v>
       </c>
       <c r="AG69" s="11">
-        <v>71294</v>
+        <v>6400</v>
       </c>
       <c r="AH69" s="11">
-        <v>6400</v>
+        <v>93713</v>
       </c>
       <c r="AI69" s="11">
-        <v>93713</v>
+        <v>46962</v>
       </c>
       <c r="AJ69" s="11">
-        <v>46962</v>
+        <v>46811</v>
       </c>
       <c r="AK69" s="11">
-        <v>46811</v>
+        <v>39848</v>
       </c>
       <c r="AL69" s="11">
-        <v>39848</v>
+        <v>45695</v>
       </c>
       <c r="AM69" s="11">
-        <v>45695</v>
+        <v>86748</v>
       </c>
       <c r="AN69" s="11">
-        <v>86748</v>
-      </c>
-      <c r="AO69" s="11">
         <v>36409</v>
       </c>
-      <c r="AP69" s="11" t="s">
-        <v>58</v>
+      <c r="AO69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP69" s="11">
+        <v>36382</v>
       </c>
       <c r="AQ69" s="11">
-        <v>36382</v>
+        <v>72628</v>
       </c>
       <c r="AR69" s="11">
-        <v>72628</v>
+        <v>688375</v>
       </c>
       <c r="AS69" s="11">
-        <v>688375</v>
+        <v>36126</v>
       </c>
       <c r="AT69" s="11">
-        <v>36126</v>
+        <v>74364</v>
       </c>
       <c r="AU69" s="11">
-        <v>74364</v>
+        <v>39775</v>
       </c>
       <c r="AV69" s="11">
-        <v>39775</v>
+        <v>71646</v>
       </c>
       <c r="AW69" s="11">
-        <v>71646</v>
+        <v>38104</v>
       </c>
       <c r="AX69" s="11">
-        <v>38104</v>
+        <v>64699</v>
       </c>
       <c r="AY69" s="11">
-        <v>64699</v>
+        <v>53156</v>
       </c>
       <c r="AZ69" s="11">
-        <v>53156</v>
+        <v>39904</v>
       </c>
       <c r="BA69" s="11">
-        <v>39904</v>
+        <v>37819</v>
       </c>
       <c r="BB69" s="11">
-        <v>37819</v>
+        <v>40040</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>60</v>
       </c>
@@ -10101,14 +10136,14 @@
       <c r="AQ70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR70" s="13" t="s">
-        <v>58</v>
+      <c r="AR70" s="13">
+        <v>0</v>
       </c>
       <c r="AS70" s="13">
         <v>0</v>
       </c>
-      <c r="AT70" s="13">
-        <v>0</v>
+      <c r="AT70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU70" s="13" t="s">
         <v>58</v>
@@ -10119,11 +10154,11 @@
       <c r="AW70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY70" s="13">
-        <v>0</v>
+      <c r="AX70" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ70" s="13" t="s">
         <v>58</v>
@@ -10135,7 +10170,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>61</v>
       </c>
@@ -10203,54 +10238,54 @@
       <c r="X71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>58</v>
+      <c r="Y71" s="11">
+        <v>0</v>
       </c>
       <c r="Z71" s="11">
-        <v>0</v>
+        <v>6420</v>
       </c>
       <c r="AA71" s="11">
-        <v>6420</v>
+        <v>6450</v>
       </c>
       <c r="AB71" s="11">
-        <v>6450</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="11">
-        <v>0</v>
+        <v>5385</v>
       </c>
       <c r="AD71" s="11">
-        <v>5385</v>
+        <v>0</v>
       </c>
       <c r="AE71" s="11">
-        <v>0</v>
+        <v>5942</v>
       </c>
       <c r="AF71" s="11">
-        <v>5942</v>
+        <v>3604</v>
       </c>
       <c r="AG71" s="11">
-        <v>3604</v>
-      </c>
-      <c r="AH71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI71" s="11">
         <v>10157</v>
       </c>
-      <c r="AK71" s="11" t="s">
-        <v>58</v>
+      <c r="AJ71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK71" s="11">
+        <v>6469</v>
       </c>
       <c r="AL71" s="11">
-        <v>6469</v>
+        <v>5345</v>
       </c>
       <c r="AM71" s="11">
-        <v>5345</v>
-      </c>
-      <c r="AN71" s="11">
         <v>11828</v>
       </c>
+      <c r="AN71" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO71" s="11" t="s">
         <v>58</v>
       </c>
@@ -10260,41 +10295,41 @@
       <c r="AQ71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR71" s="11" t="s">
-        <v>58</v>
+      <c r="AR71" s="11">
+        <v>3625</v>
       </c>
       <c r="AS71" s="11">
-        <v>3625</v>
-      </c>
-      <c r="AT71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU71" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AT71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU71" s="11">
+        <v>0</v>
       </c>
       <c r="AV71" s="11">
-        <v>0</v>
+        <v>6399</v>
       </c>
       <c r="AW71" s="11">
-        <v>6399</v>
+        <v>6490</v>
       </c>
       <c r="AX71" s="11">
-        <v>6490</v>
+        <v>0</v>
       </c>
       <c r="AY71" s="11">
         <v>0</v>
       </c>
       <c r="AZ71" s="11">
-        <v>0</v>
+        <v>6449</v>
       </c>
       <c r="BA71" s="11">
-        <v>6449</v>
+        <v>3544</v>
       </c>
       <c r="BB71" s="11">
-        <v>3544</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>62</v>
       </c>
@@ -10419,20 +10454,20 @@
       <c r="AQ72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR72" s="13" t="s">
-        <v>58</v>
+      <c r="AR72" s="13">
+        <v>0</v>
       </c>
       <c r="AS72" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT72" s="13">
         <v>433</v>
       </c>
+      <c r="AT72" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV72" s="13" t="s">
-        <v>58</v>
+      <c r="AV72" s="13">
+        <v>0</v>
       </c>
       <c r="AW72" s="13">
         <v>0</v>
@@ -10453,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>63</v>
       </c>
@@ -10521,8 +10556,8 @@
       <c r="X73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y73" s="11" t="s">
-        <v>58</v>
+      <c r="Y73" s="11">
+        <v>0</v>
       </c>
       <c r="Z73" s="11">
         <v>0</v>
@@ -10540,17 +10575,17 @@
         <v>0</v>
       </c>
       <c r="AE73" s="11">
-        <v>0</v>
+        <v>88144</v>
       </c>
       <c r="AF73" s="11">
-        <v>88144</v>
+        <v>0</v>
       </c>
       <c r="AG73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH73" s="11">
         <v>45023</v>
       </c>
+      <c r="AH73" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI73" s="11" t="s">
         <v>58</v>
       </c>
@@ -10578,41 +10613,41 @@
       <c r="AQ73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR73" s="11" t="s">
-        <v>58</v>
+      <c r="AR73" s="11">
+        <v>0</v>
       </c>
       <c r="AS73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT73" s="11">
         <v>607115</v>
       </c>
-      <c r="AU73" s="11" t="s">
-        <v>58</v>
+      <c r="AT73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU73" s="11">
+        <v>44399</v>
       </c>
       <c r="AV73" s="11">
-        <v>44399</v>
+        <v>0</v>
       </c>
       <c r="AW73" s="11">
-        <v>0</v>
+        <v>86891</v>
       </c>
       <c r="AX73" s="11">
-        <v>86891</v>
+        <v>1</v>
       </c>
       <c r="AY73" s="11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AZ73" s="11">
-        <v>-1</v>
+        <v>46773</v>
       </c>
       <c r="BA73" s="11">
-        <v>46773</v>
+        <v>46262</v>
       </c>
       <c r="BB73" s="11">
-        <v>46262</v>
+        <v>45194</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>64</v>
       </c>
@@ -10695,8 +10730,8 @@
       <c r="AC74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD74" s="13" t="s">
-        <v>58</v>
+      <c r="AD74" s="13">
+        <v>0</v>
       </c>
       <c r="AE74" s="13">
         <v>0</v>
@@ -10707,8 +10742,8 @@
       <c r="AG74" s="13">
         <v>0</v>
       </c>
-      <c r="AH74" s="13">
-        <v>0</v>
+      <c r="AH74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI74" s="13" t="s">
         <v>58</v>
@@ -10771,7 +10806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>65</v>
       </c>
@@ -10930,7 +10965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>66</v>
       </c>
@@ -10998,8 +11033,8 @@
       <c r="X76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y76" s="13" t="s">
-        <v>58</v>
+      <c r="Y76" s="13">
+        <v>0</v>
       </c>
       <c r="Z76" s="13">
         <v>0</v>
@@ -11025,8 +11060,8 @@
       <c r="AG76" s="13">
         <v>0</v>
       </c>
-      <c r="AH76" s="13">
-        <v>0</v>
+      <c r="AH76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI76" s="13" t="s">
         <v>58</v>
@@ -11089,7 +11124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>67</v>
       </c>
@@ -11175,8 +11210,8 @@
       <c r="AD77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE77" s="11" t="s">
-        <v>58</v>
+      <c r="AE77" s="11">
+        <v>0</v>
       </c>
       <c r="AF77" s="11">
         <v>0</v>
@@ -11184,8 +11219,8 @@
       <c r="AG77" s="11">
         <v>0</v>
       </c>
-      <c r="AH77" s="11">
-        <v>0</v>
+      <c r="AH77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI77" s="11" t="s">
         <v>58</v>
@@ -11248,7 +11283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>68</v>
       </c>
@@ -11316,11 +11351,11 @@
       <c r="X78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y78" s="13" t="s">
-        <v>58</v>
+      <c r="Y78" s="13">
+        <v>994</v>
       </c>
       <c r="Z78" s="13">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="AA78" s="13">
         <v>0</v>
@@ -11332,10 +11367,10 @@
         <v>0</v>
       </c>
       <c r="AD78" s="13">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="AE78" s="13">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="AF78" s="13">
         <v>0</v>
@@ -11343,8 +11378,8 @@
       <c r="AG78" s="13">
         <v>0</v>
       </c>
-      <c r="AH78" s="13">
-        <v>0</v>
+      <c r="AH78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI78" s="13" t="s">
         <v>58</v>
@@ -11361,35 +11396,35 @@
       <c r="AM78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO78" s="13">
+      <c r="AN78" s="13">
         <v>949</v>
       </c>
-      <c r="AP78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ78" s="13">
+      <c r="AO78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP78" s="13">
         <v>865</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>58</v>
+      <c r="AQ78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR78" s="13">
+        <v>0</v>
       </c>
       <c r="AS78" s="13">
-        <v>0</v>
+        <v>1814</v>
       </c>
       <c r="AT78" s="13">
-        <v>1814</v>
+        <v>1899</v>
       </c>
       <c r="AU78" s="13">
-        <v>1899</v>
+        <v>0</v>
       </c>
       <c r="AV78" s="13">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="AW78" s="13">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="AX78" s="13">
         <v>0</v>
@@ -11404,10 +11439,10 @@
         <v>0</v>
       </c>
       <c r="BB78" s="13">
-        <v>0</v>
+        <v>951</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>70</v>
       </c>
@@ -11475,23 +11510,23 @@
       <c r="X79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="11" t="s">
-        <v>58</v>
+      <c r="Y79" s="11">
+        <v>0</v>
       </c>
       <c r="Z79" s="11">
-        <v>0</v>
+        <v>40213</v>
       </c>
       <c r="AA79" s="11">
-        <v>40213</v>
+        <v>82379</v>
       </c>
       <c r="AB79" s="11">
-        <v>82379</v>
+        <v>46008</v>
       </c>
       <c r="AC79" s="11">
-        <v>46008</v>
+        <v>46001</v>
       </c>
       <c r="AD79" s="11">
-        <v>46001</v>
+        <v>0</v>
       </c>
       <c r="AE79" s="11">
         <v>0</v>
@@ -11502,8 +11537,8 @@
       <c r="AG79" s="11">
         <v>0</v>
       </c>
-      <c r="AH79" s="11">
-        <v>0</v>
+      <c r="AH79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI79" s="11" t="s">
         <v>58</v>
@@ -11566,7 +11601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>72</v>
       </c>
@@ -11661,47 +11696,47 @@
       <c r="AG80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH80" s="13" t="s">
-        <v>58</v>
+      <c r="AH80" s="13">
+        <v>45617</v>
       </c>
       <c r="AI80" s="13">
-        <v>45617</v>
+        <v>21164</v>
       </c>
       <c r="AJ80" s="13">
-        <v>21164</v>
-      </c>
-      <c r="AK80" s="13">
         <v>123607</v>
       </c>
-      <c r="AL80" s="13" t="s">
-        <v>58</v>
+      <c r="AK80" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL80" s="13">
+        <v>92092</v>
       </c>
       <c r="AM80" s="13">
-        <v>92092</v>
+        <v>45385</v>
       </c>
       <c r="AN80" s="13">
-        <v>45385</v>
-      </c>
-      <c r="AO80" s="13">
         <v>45296</v>
       </c>
-      <c r="AP80" s="13" t="s">
-        <v>58</v>
+      <c r="AO80" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP80" s="13">
+        <v>93056</v>
       </c>
       <c r="AQ80" s="13">
-        <v>93056</v>
+        <v>47431</v>
       </c>
       <c r="AR80" s="13">
-        <v>47431</v>
+        <v>-560674</v>
       </c>
       <c r="AS80" s="13">
-        <v>-560674</v>
+        <v>0</v>
       </c>
       <c r="AT80" s="13">
         <v>0</v>
       </c>
-      <c r="AU80" s="13">
-        <v>0</v>
+      <c r="AU80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV80" s="13" t="s">
         <v>58</v>
@@ -11725,7 +11760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
         <v>84</v>
       </c>
@@ -11792,97 +11827,97 @@
         <v>0</v>
       </c>
       <c r="Y81" s="15">
-        <v>0</v>
+        <v>65282</v>
       </c>
       <c r="Z81" s="15">
-        <v>65282</v>
+        <v>86752</v>
       </c>
       <c r="AA81" s="15">
-        <v>86752</v>
+        <v>141756</v>
       </c>
       <c r="AB81" s="15">
-        <v>141756</v>
+        <v>92013</v>
       </c>
       <c r="AC81" s="15">
-        <v>92013</v>
+        <v>96848</v>
       </c>
       <c r="AD81" s="15">
-        <v>96848</v>
+        <v>46819</v>
       </c>
       <c r="AE81" s="15">
-        <v>46819</v>
+        <v>138686</v>
       </c>
       <c r="AF81" s="15">
-        <v>138686</v>
+        <v>74898</v>
       </c>
       <c r="AG81" s="15">
-        <v>74898</v>
+        <v>51423</v>
       </c>
       <c r="AH81" s="15">
-        <v>51423</v>
+        <v>139330</v>
       </c>
       <c r="AI81" s="15">
-        <v>139330</v>
+        <v>78283</v>
       </c>
       <c r="AJ81" s="15">
-        <v>78283</v>
+        <v>170418</v>
       </c>
       <c r="AK81" s="15">
-        <v>170418</v>
+        <v>46317</v>
       </c>
       <c r="AL81" s="15">
-        <v>46317</v>
+        <v>143132</v>
       </c>
       <c r="AM81" s="15">
-        <v>143132</v>
+        <v>143961</v>
       </c>
       <c r="AN81" s="15">
-        <v>143961</v>
+        <v>82654</v>
       </c>
       <c r="AO81" s="15">
-        <v>82654</v>
+        <v>0</v>
       </c>
       <c r="AP81" s="15">
-        <v>0</v>
+        <v>130303</v>
       </c>
       <c r="AQ81" s="15">
-        <v>130303</v>
+        <v>120059</v>
       </c>
       <c r="AR81" s="15">
-        <v>120059</v>
+        <v>131326</v>
       </c>
       <c r="AS81" s="15">
-        <v>131326</v>
+        <v>645488</v>
       </c>
       <c r="AT81" s="15">
-        <v>645488</v>
+        <v>76263</v>
       </c>
       <c r="AU81" s="15">
-        <v>76263</v>
+        <v>84174</v>
       </c>
       <c r="AV81" s="15">
-        <v>84174</v>
+        <v>78602</v>
       </c>
       <c r="AW81" s="15">
-        <v>78602</v>
+        <v>131485</v>
       </c>
       <c r="AX81" s="15">
-        <v>131485</v>
+        <v>64700</v>
       </c>
       <c r="AY81" s="15">
-        <v>64700</v>
+        <v>53155</v>
       </c>
       <c r="AZ81" s="15">
-        <v>53155</v>
+        <v>93126</v>
       </c>
       <c r="BA81" s="15">
-        <v>93126</v>
+        <v>87625</v>
       </c>
       <c r="BB81" s="15">
-        <v>87625</v>
+        <v>86185</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
         <v>77</v>
       </c>
@@ -11939,7 +11974,7 @@
       <c r="BA82" s="17"/>
       <c r="BB82" s="17"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>78</v>
       </c>
@@ -12005,8 +12040,8 @@
       <c r="X83" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="15" t="s">
-        <v>58</v>
+      <c r="Y83" s="15">
+        <v>0</v>
       </c>
       <c r="Z83" s="15">
         <v>0</v>
@@ -12053,11 +12088,11 @@
       <c r="AN83" s="15">
         <v>0</v>
       </c>
-      <c r="AO83" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP83" s="15" t="s">
-        <v>58</v>
+      <c r="AO83" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP83" s="15">
+        <v>0</v>
       </c>
       <c r="AQ83" s="15">
         <v>0</v>
@@ -12096,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>85</v>
       </c>
@@ -12153,7 +12188,7 @@
       <c r="BA84" s="17"/>
       <c r="BB84" s="17"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>86</v>
       </c>
@@ -12219,8 +12254,8 @@
       <c r="X85" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="15" t="s">
-        <v>58</v>
+      <c r="Y85" s="15">
+        <v>0</v>
       </c>
       <c r="Z85" s="15">
         <v>0</v>
@@ -12267,11 +12302,11 @@
       <c r="AN85" s="15">
         <v>0</v>
       </c>
-      <c r="AO85" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP85" s="15" t="s">
-        <v>58</v>
+      <c r="AO85" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP85" s="15">
+        <v>0</v>
       </c>
       <c r="AQ85" s="15">
         <v>0</v>
@@ -12310,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="18" t="s">
         <v>79</v>
       </c>
@@ -12377,97 +12412,97 @@
         <v>0</v>
       </c>
       <c r="Y86" s="19">
-        <v>0</v>
+        <v>187230</v>
       </c>
       <c r="Z86" s="19">
-        <v>187230</v>
+        <v>228397</v>
       </c>
       <c r="AA86" s="19">
-        <v>228397</v>
+        <v>269996</v>
       </c>
       <c r="AB86" s="19">
-        <v>269996</v>
+        <v>179461</v>
       </c>
       <c r="AC86" s="19">
-        <v>179461</v>
+        <v>273062</v>
       </c>
       <c r="AD86" s="19">
-        <v>273062</v>
+        <v>205640</v>
       </c>
       <c r="AE86" s="19">
-        <v>205640</v>
+        <v>315042</v>
       </c>
       <c r="AF86" s="19">
-        <v>315042</v>
+        <v>204414</v>
       </c>
       <c r="AG86" s="19">
-        <v>204414</v>
+        <v>140142</v>
       </c>
       <c r="AH86" s="19">
-        <v>140142</v>
+        <v>300879</v>
       </c>
       <c r="AI86" s="19">
-        <v>300879</v>
+        <v>247535</v>
       </c>
       <c r="AJ86" s="19">
-        <v>247535</v>
+        <v>273918</v>
       </c>
       <c r="AK86" s="19">
-        <v>273918</v>
+        <v>177753</v>
       </c>
       <c r="AL86" s="19">
-        <v>177753</v>
+        <v>295252</v>
       </c>
       <c r="AM86" s="19">
-        <v>295252</v>
+        <v>289705</v>
       </c>
       <c r="AN86" s="19">
-        <v>289705</v>
+        <v>215419</v>
       </c>
       <c r="AO86" s="19">
-        <v>215419</v>
+        <v>0</v>
       </c>
       <c r="AP86" s="19">
-        <v>0</v>
+        <v>215518</v>
       </c>
       <c r="AQ86" s="19">
-        <v>215518</v>
+        <v>207305</v>
       </c>
       <c r="AR86" s="19">
-        <v>207305</v>
+        <v>667807</v>
       </c>
       <c r="AS86" s="19">
-        <v>667807</v>
+        <v>2226871</v>
       </c>
       <c r="AT86" s="19">
-        <v>2226871</v>
+        <v>224244</v>
       </c>
       <c r="AU86" s="19">
-        <v>224244</v>
+        <v>266918</v>
       </c>
       <c r="AV86" s="19">
-        <v>266918</v>
+        <v>230705</v>
       </c>
       <c r="AW86" s="19">
-        <v>230705</v>
+        <v>320382</v>
       </c>
       <c r="AX86" s="19">
-        <v>320382</v>
+        <v>217384</v>
       </c>
       <c r="AY86" s="19">
-        <v>217384</v>
+        <v>213791</v>
       </c>
       <c r="AZ86" s="19">
-        <v>213791</v>
+        <v>259028</v>
       </c>
       <c r="BA86" s="19">
-        <v>259028</v>
+        <v>227729</v>
       </c>
       <c r="BB86" s="19">
-        <v>227729</v>
+        <v>220765</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -12522,7 +12557,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -12577,7 +12612,7 @@
       <c r="BA88" s="1"/>
       <c r="BB88" s="1"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -12632,7 +12667,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
     </row>
-    <row r="90" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>87</v>
       </c>
@@ -12789,7 +12824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12844,7 +12879,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>88</v>
       </c>
@@ -12901,7 +12936,7 @@
       <c r="BA92" s="9"/>
       <c r="BB92" s="9"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>56</v>
       </c>
@@ -13026,14 +13061,14 @@
       <c r="AQ93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR93" s="11" t="s">
-        <v>58</v>
+      <c r="AR93" s="11">
+        <v>0</v>
       </c>
       <c r="AS93" s="11">
         <v>0</v>
       </c>
-      <c r="AT93" s="11">
-        <v>0</v>
+      <c r="AT93" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU93" s="11" t="s">
         <v>58</v>
@@ -13060,7 +13095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>59</v>
       </c>
@@ -13128,8 +13163,8 @@
       <c r="X94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y94" s="13" t="s">
-        <v>58</v>
+      <c r="Y94" s="13">
+        <v>0</v>
       </c>
       <c r="Z94" s="13">
         <v>0</v>
@@ -13176,11 +13211,11 @@
       <c r="AN94" s="13">
         <v>0</v>
       </c>
-      <c r="AO94" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP94" s="13" t="s">
-        <v>58</v>
+      <c r="AO94" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP94" s="13">
+        <v>0</v>
       </c>
       <c r="AQ94" s="13">
         <v>0</v>
@@ -13204,13 +13239,13 @@
         <v>0</v>
       </c>
       <c r="AX94" s="13">
-        <v>0</v>
+        <v>314836</v>
       </c>
       <c r="AY94" s="13">
-        <v>314836</v>
+        <v>-314836</v>
       </c>
       <c r="AZ94" s="13">
-        <v>-314836</v>
+        <v>0</v>
       </c>
       <c r="BA94" s="13">
         <v>0</v>
@@ -13219,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>60</v>
       </c>
@@ -13353,23 +13388,23 @@
       <c r="AT95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU95" s="11" t="s">
-        <v>58</v>
+      <c r="AU95" s="11">
+        <v>0</v>
       </c>
       <c r="AV95" s="11">
-        <v>0</v>
+        <v>47100437</v>
       </c>
       <c r="AW95" s="11">
-        <v>47100437</v>
+        <v>0</v>
       </c>
       <c r="AX95" s="11">
-        <v>0</v>
+        <v>33354332</v>
       </c>
       <c r="AY95" s="11">
-        <v>33354332</v>
+        <v>20132378</v>
       </c>
       <c r="AZ95" s="11">
-        <v>20132378</v>
+        <v>0</v>
       </c>
       <c r="BA95" s="11">
         <v>0</v>
@@ -13378,7 +13413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>61</v>
       </c>
@@ -13446,8 +13481,8 @@
       <c r="X96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y96" s="13" t="s">
-        <v>58</v>
+      <c r="Y96" s="13">
+        <v>0</v>
       </c>
       <c r="Z96" s="13">
         <v>0</v>
@@ -13494,11 +13529,11 @@
       <c r="AN96" s="13">
         <v>0</v>
       </c>
-      <c r="AO96" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP96" s="13" t="s">
-        <v>58</v>
+      <c r="AO96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP96" s="13">
+        <v>0</v>
       </c>
       <c r="AQ96" s="13">
         <v>0</v>
@@ -13537,7 +13572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>62</v>
       </c>
@@ -13605,8 +13640,8 @@
       <c r="X97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="11" t="s">
-        <v>58</v>
+      <c r="Y97" s="11">
+        <v>0</v>
       </c>
       <c r="Z97" s="11">
         <v>0</v>
@@ -13653,41 +13688,41 @@
       <c r="AN97" s="11">
         <v>0</v>
       </c>
-      <c r="AO97" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP97" s="11" t="s">
-        <v>58</v>
+      <c r="AO97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP97" s="11">
+        <v>0</v>
       </c>
       <c r="AQ97" s="11">
         <v>0</v>
       </c>
-      <c r="AR97" s="11">
-        <v>0</v>
+      <c r="AR97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT97" s="11" t="s">
-        <v>58</v>
+      <c r="AT97" s="11">
+        <v>0</v>
       </c>
       <c r="AU97" s="11">
         <v>0</v>
       </c>
       <c r="AV97" s="11">
-        <v>0</v>
+        <v>52655559</v>
       </c>
       <c r="AW97" s="11">
-        <v>52655559</v>
+        <v>0</v>
       </c>
       <c r="AX97" s="11">
-        <v>0</v>
+        <v>38975301</v>
       </c>
       <c r="AY97" s="11">
-        <v>38975301</v>
+        <v>13733688</v>
       </c>
       <c r="AZ97" s="11">
-        <v>13733688</v>
+        <v>0</v>
       </c>
       <c r="BA97" s="11">
         <v>0</v>
@@ -13696,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>63</v>
       </c>
@@ -13764,8 +13799,8 @@
       <c r="X98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y98" s="13" t="s">
-        <v>58</v>
+      <c r="Y98" s="13">
+        <v>0</v>
       </c>
       <c r="Z98" s="13">
         <v>0</v>
@@ -13791,8 +13826,8 @@
       <c r="AG98" s="13">
         <v>0</v>
       </c>
-      <c r="AH98" s="13">
-        <v>0</v>
+      <c r="AH98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI98" s="13" t="s">
         <v>58</v>
@@ -13830,8 +13865,8 @@
       <c r="AT98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU98" s="13" t="s">
-        <v>58</v>
+      <c r="AU98" s="13">
+        <v>0</v>
       </c>
       <c r="AV98" s="13">
         <v>0</v>
@@ -13855,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>64</v>
       </c>
@@ -13923,8 +13958,8 @@
       <c r="X99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y99" s="11" t="s">
-        <v>58</v>
+      <c r="Y99" s="11">
+        <v>0</v>
       </c>
       <c r="Z99" s="11">
         <v>0</v>
@@ -13971,26 +14006,26 @@
       <c r="AN99" s="11">
         <v>0</v>
       </c>
-      <c r="AO99" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP99" s="11" t="s">
-        <v>58</v>
+      <c r="AO99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP99" s="11">
+        <v>0</v>
       </c>
       <c r="AQ99" s="11">
         <v>0</v>
       </c>
-      <c r="AR99" s="11">
-        <v>0</v>
+      <c r="AR99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU99" s="11">
-        <v>0</v>
+      <c r="AT99" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV99" s="11" t="s">
         <v>58</v>
@@ -14014,7 +14049,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>65</v>
       </c>
@@ -14082,8 +14117,8 @@
       <c r="X100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y100" s="13" t="s">
-        <v>58</v>
+      <c r="Y100" s="13">
+        <v>0</v>
       </c>
       <c r="Z100" s="13">
         <v>0</v>
@@ -14130,11 +14165,11 @@
       <c r="AN100" s="13">
         <v>0</v>
       </c>
-      <c r="AO100" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP100" s="13" t="s">
-        <v>58</v>
+      <c r="AO100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP100" s="13">
+        <v>0</v>
       </c>
       <c r="AQ100" s="13">
         <v>0</v>
@@ -14143,13 +14178,13 @@
         <v>0</v>
       </c>
       <c r="AS100" s="13">
-        <v>0</v>
+        <v>107865059</v>
       </c>
       <c r="AT100" s="13">
-        <v>107865059</v>
-      </c>
-      <c r="AU100" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AU100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV100" s="13" t="s">
         <v>58</v>
@@ -14173,7 +14208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>66</v>
       </c>
@@ -14241,8 +14276,8 @@
       <c r="X101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y101" s="11" t="s">
-        <v>58</v>
+      <c r="Y101" s="11">
+        <v>0</v>
       </c>
       <c r="Z101" s="11">
         <v>0</v>
@@ -14268,8 +14303,8 @@
       <c r="AG101" s="11">
         <v>0</v>
       </c>
-      <c r="AH101" s="11">
-        <v>0</v>
+      <c r="AH101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI101" s="11" t="s">
         <v>58</v>
@@ -14332,7 +14367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>67</v>
       </c>
@@ -14400,8 +14435,8 @@
       <c r="X102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y102" s="13" t="s">
-        <v>58</v>
+      <c r="Y102" s="13">
+        <v>0</v>
       </c>
       <c r="Z102" s="13">
         <v>0</v>
@@ -14448,11 +14483,11 @@
       <c r="AN102" s="13">
         <v>0</v>
       </c>
-      <c r="AO102" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP102" s="13" t="s">
-        <v>58</v>
+      <c r="AO102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP102" s="13">
+        <v>0</v>
       </c>
       <c r="AQ102" s="13">
         <v>0</v>
@@ -14463,8 +14498,8 @@
       <c r="AS102" s="13">
         <v>0</v>
       </c>
-      <c r="AT102" s="13">
-        <v>0</v>
+      <c r="AT102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU102" s="13" t="s">
         <v>58</v>
@@ -14491,7 +14526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>68</v>
       </c>
@@ -14559,8 +14594,8 @@
       <c r="X103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y103" s="11" t="s">
-        <v>58</v>
+      <c r="Y103" s="11">
+        <v>0</v>
       </c>
       <c r="Z103" s="11">
         <v>0</v>
@@ -14607,11 +14642,11 @@
       <c r="AN103" s="11">
         <v>0</v>
       </c>
-      <c r="AO103" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP103" s="11" t="s">
-        <v>58</v>
+      <c r="AO103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP103" s="11">
+        <v>0</v>
       </c>
       <c r="AQ103" s="11">
         <v>0</v>
@@ -14650,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>69</v>
       </c>
@@ -14718,8 +14753,8 @@
       <c r="X104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y104" s="13" t="s">
-        <v>58</v>
+      <c r="Y104" s="13">
+        <v>0</v>
       </c>
       <c r="Z104" s="13">
         <v>0</v>
@@ -14766,11 +14801,11 @@
       <c r="AN104" s="13">
         <v>0</v>
       </c>
-      <c r="AO104" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP104" s="13" t="s">
-        <v>58</v>
+      <c r="AO104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP104" s="13">
+        <v>0</v>
       </c>
       <c r="AQ104" s="13">
         <v>0</v>
@@ -14784,8 +14819,8 @@
       <c r="AT104" s="13">
         <v>0</v>
       </c>
-      <c r="AU104" s="13">
-        <v>0</v>
+      <c r="AU104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV104" s="13" t="s">
         <v>58</v>
@@ -14809,7 +14844,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>70</v>
       </c>
@@ -14877,8 +14912,8 @@
       <c r="X105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y105" s="11" t="s">
-        <v>58</v>
+      <c r="Y105" s="11">
+        <v>0</v>
       </c>
       <c r="Z105" s="11">
         <v>0</v>
@@ -14925,11 +14960,11 @@
       <c r="AN105" s="11">
         <v>0</v>
       </c>
-      <c r="AO105" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP105" s="11" t="s">
-        <v>58</v>
+      <c r="AO105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP105" s="11">
+        <v>0</v>
       </c>
       <c r="AQ105" s="11">
         <v>0</v>
@@ -14940,8 +14975,8 @@
       <c r="AS105" s="11">
         <v>0</v>
       </c>
-      <c r="AT105" s="11">
-        <v>0</v>
+      <c r="AT105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU105" s="11" t="s">
         <v>58</v>
@@ -14968,7 +15003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>71</v>
       </c>
@@ -15093,15 +15128,15 @@
       <c r="AQ106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR106" s="13" t="s">
-        <v>58</v>
+      <c r="AR106" s="13">
+        <v>0</v>
       </c>
       <c r="AS106" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT106" s="13">
         <v>88481097</v>
       </c>
+      <c r="AT106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU106" s="13" t="s">
         <v>58</v>
       </c>
@@ -15127,7 +15162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>72</v>
       </c>
@@ -15222,8 +15257,8 @@
       <c r="AG107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH107" s="11" t="s">
-        <v>58</v>
+      <c r="AH107" s="11">
+        <v>0</v>
       </c>
       <c r="AI107" s="11">
         <v>0</v>
@@ -15243,11 +15278,11 @@
       <c r="AN107" s="11">
         <v>0</v>
       </c>
-      <c r="AO107" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP107" s="11" t="s">
-        <v>58</v>
+      <c r="AO107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP107" s="11">
+        <v>0</v>
       </c>
       <c r="AQ107" s="11">
         <v>0</v>
@@ -15261,8 +15296,8 @@
       <c r="AT107" s="11">
         <v>0</v>
       </c>
-      <c r="AU107" s="11">
-        <v>0</v>
+      <c r="AU107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV107" s="11" t="s">
         <v>58</v>
@@ -15286,7 +15321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>73</v>
       </c>
@@ -15381,8 +15416,8 @@
       <c r="AG108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH108" s="13" t="s">
-        <v>58</v>
+      <c r="AH108" s="13">
+        <v>0</v>
       </c>
       <c r="AI108" s="13">
         <v>0</v>
@@ -15390,8 +15425,8 @@
       <c r="AJ108" s="13">
         <v>0</v>
       </c>
-      <c r="AK108" s="13">
-        <v>0</v>
+      <c r="AK108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL108" s="13" t="s">
         <v>58</v>
@@ -15445,7 +15480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
         <v>82</v>
       </c>
@@ -15572,28 +15607,28 @@
         <v>0</v>
       </c>
       <c r="AS109" s="15">
-        <v>0</v>
+        <v>196346156</v>
       </c>
       <c r="AT109" s="15">
-        <v>196346156</v>
+        <v>0</v>
       </c>
       <c r="AU109" s="15">
         <v>0</v>
       </c>
       <c r="AV109" s="15">
-        <v>0</v>
+        <v>99755996</v>
       </c>
       <c r="AW109" s="15">
-        <v>99755996</v>
+        <v>0</v>
       </c>
       <c r="AX109" s="15">
-        <v>0</v>
+        <v>72644469</v>
       </c>
       <c r="AY109" s="15">
-        <v>72644469</v>
+        <v>33551230</v>
       </c>
       <c r="AZ109" s="15">
-        <v>33551230</v>
+        <v>0</v>
       </c>
       <c r="BA109" s="15">
         <v>0</v>
@@ -15602,7 +15637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>90</v>
       </c>
@@ -15659,7 +15694,7 @@
       <c r="BA110" s="9"/>
       <c r="BB110" s="9"/>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>59</v>
       </c>
@@ -15727,8 +15762,8 @@
       <c r="X111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y111" s="11" t="s">
-        <v>58</v>
+      <c r="Y111" s="11">
+        <v>0</v>
       </c>
       <c r="Z111" s="11">
         <v>0</v>
@@ -15775,11 +15810,11 @@
       <c r="AN111" s="11">
         <v>0</v>
       </c>
-      <c r="AO111" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP111" s="11" t="s">
-        <v>58</v>
+      <c r="AO111" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP111" s="11">
+        <v>0</v>
       </c>
       <c r="AQ111" s="11">
         <v>0</v>
@@ -15788,28 +15823,28 @@
         <v>0</v>
       </c>
       <c r="AS111" s="11">
-        <v>0</v>
+        <v>66381707</v>
       </c>
       <c r="AT111" s="11">
-        <v>66381707</v>
+        <v>0</v>
       </c>
       <c r="AU111" s="11">
         <v>0</v>
       </c>
       <c r="AV111" s="11">
-        <v>0</v>
+        <v>26157894</v>
       </c>
       <c r="AW111" s="11">
-        <v>26157894</v>
+        <v>0</v>
       </c>
       <c r="AX111" s="11">
-        <v>0</v>
+        <v>11729307</v>
       </c>
       <c r="AY111" s="11">
-        <v>11729307</v>
+        <v>7235074</v>
       </c>
       <c r="AZ111" s="11">
-        <v>7235074</v>
+        <v>0</v>
       </c>
       <c r="BA111" s="11">
         <v>0</v>
@@ -15818,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>60</v>
       </c>
@@ -15943,14 +15978,14 @@
       <c r="AQ112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR112" s="13" t="s">
-        <v>58</v>
+      <c r="AR112" s="13">
+        <v>0</v>
       </c>
       <c r="AS112" s="13">
         <v>0</v>
       </c>
-      <c r="AT112" s="13">
-        <v>0</v>
+      <c r="AT112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU112" s="13" t="s">
         <v>58</v>
@@ -15961,11 +15996,11 @@
       <c r="AW112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY112" s="13">
-        <v>0</v>
+      <c r="AX112" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ112" s="13" t="s">
         <v>58</v>
@@ -15977,7 +16012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>61</v>
       </c>
@@ -16045,8 +16080,8 @@
       <c r="X113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y113" s="11" t="s">
-        <v>58</v>
+      <c r="Y113" s="11">
+        <v>0</v>
       </c>
       <c r="Z113" s="11">
         <v>0</v>
@@ -16072,11 +16107,11 @@
       <c r="AG113" s="11">
         <v>0</v>
       </c>
-      <c r="AH113" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI113" s="11" t="s">
-        <v>58</v>
+      <c r="AH113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI113" s="11">
+        <v>0</v>
       </c>
       <c r="AJ113" s="11">
         <v>0</v>
@@ -16093,11 +16128,11 @@
       <c r="AN113" s="11">
         <v>0</v>
       </c>
-      <c r="AO113" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP113" s="11" t="s">
-        <v>58</v>
+      <c r="AO113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP113" s="11">
+        <v>0</v>
       </c>
       <c r="AQ113" s="11">
         <v>0</v>
@@ -16106,28 +16141,28 @@
         <v>0</v>
       </c>
       <c r="AS113" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT113" s="11">
         <v>2453395</v>
       </c>
-      <c r="AU113" s="11" t="s">
-        <v>58</v>
+      <c r="AT113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU113" s="11">
+        <v>0</v>
       </c>
       <c r="AV113" s="11">
-        <v>0</v>
+        <v>633303</v>
       </c>
       <c r="AW113" s="11">
-        <v>633303</v>
+        <v>0</v>
       </c>
       <c r="AX113" s="11">
-        <v>0</v>
+        <v>432217</v>
       </c>
       <c r="AY113" s="11">
-        <v>432217</v>
+        <v>134486</v>
       </c>
       <c r="AZ113" s="11">
-        <v>134486</v>
+        <v>0</v>
       </c>
       <c r="BA113" s="11">
         <v>0</v>
@@ -16136,7 +16171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>62</v>
       </c>
@@ -16261,20 +16296,20 @@
       <c r="AQ114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR114" s="13" t="s">
-        <v>58</v>
+      <c r="AR114" s="13">
+        <v>0</v>
       </c>
       <c r="AS114" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT114" s="13">
         <v>17911</v>
       </c>
+      <c r="AT114" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV114" s="13" t="s">
-        <v>58</v>
+      <c r="AV114" s="13">
+        <v>0</v>
       </c>
       <c r="AW114" s="13">
         <v>0</v>
@@ -16295,7 +16330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>63</v>
       </c>
@@ -16363,8 +16398,8 @@
       <c r="X115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y115" s="11" t="s">
-        <v>58</v>
+      <c r="Y115" s="11">
+        <v>0</v>
       </c>
       <c r="Z115" s="11">
         <v>0</v>
@@ -16390,8 +16425,8 @@
       <c r="AG115" s="11">
         <v>0</v>
       </c>
-      <c r="AH115" s="11">
-        <v>0</v>
+      <c r="AH115" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI115" s="11" t="s">
         <v>58</v>
@@ -16420,32 +16455,32 @@
       <c r="AQ115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR115" s="11" t="s">
-        <v>58</v>
+      <c r="AR115" s="11">
+        <v>0</v>
       </c>
       <c r="AS115" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT115" s="11">
         <v>61397813</v>
       </c>
-      <c r="AU115" s="11" t="s">
-        <v>58</v>
+      <c r="AT115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU115" s="11">
+        <v>0</v>
       </c>
       <c r="AV115" s="11">
-        <v>0</v>
+        <v>5433585</v>
       </c>
       <c r="AW115" s="11">
-        <v>5433585</v>
+        <v>0</v>
       </c>
       <c r="AX115" s="11">
-        <v>0</v>
+        <v>9554211</v>
       </c>
       <c r="AY115" s="11">
-        <v>9554211</v>
+        <v>-379863</v>
       </c>
       <c r="AZ115" s="11">
-        <v>-379863</v>
+        <v>0</v>
       </c>
       <c r="BA115" s="11">
         <v>0</v>
@@ -16454,7 +16489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>64</v>
       </c>
@@ -16537,8 +16572,8 @@
       <c r="AC116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD116" s="13" t="s">
-        <v>58</v>
+      <c r="AD116" s="13">
+        <v>0</v>
       </c>
       <c r="AE116" s="13">
         <v>0</v>
@@ -16549,8 +16584,8 @@
       <c r="AG116" s="13">
         <v>0</v>
       </c>
-      <c r="AH116" s="13">
-        <v>0</v>
+      <c r="AH116" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI116" s="13" t="s">
         <v>58</v>
@@ -16613,7 +16648,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>65</v>
       </c>
@@ -16732,14 +16767,14 @@
       <c r="AO117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP117" s="11" t="s">
-        <v>58</v>
+      <c r="AP117" s="11">
+        <v>0</v>
       </c>
       <c r="AQ117" s="11">
         <v>0</v>
       </c>
-      <c r="AR117" s="11">
-        <v>0</v>
+      <c r="AR117" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS117" s="11" t="s">
         <v>58</v>
@@ -16772,7 +16807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>66</v>
       </c>
@@ -16840,8 +16875,8 @@
       <c r="X118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y118" s="13" t="s">
-        <v>58</v>
+      <c r="Y118" s="13">
+        <v>0</v>
       </c>
       <c r="Z118" s="13">
         <v>0</v>
@@ -16867,8 +16902,8 @@
       <c r="AG118" s="13">
         <v>0</v>
       </c>
-      <c r="AH118" s="13">
-        <v>0</v>
+      <c r="AH118" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI118" s="13" t="s">
         <v>58</v>
@@ -16931,7 +16966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>67</v>
       </c>
@@ -17017,8 +17052,8 @@
       <c r="AD119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE119" s="11" t="s">
-        <v>58</v>
+      <c r="AE119" s="11">
+        <v>0</v>
       </c>
       <c r="AF119" s="11">
         <v>0</v>
@@ -17026,8 +17061,8 @@
       <c r="AG119" s="11">
         <v>0</v>
       </c>
-      <c r="AH119" s="11">
-        <v>0</v>
+      <c r="AH119" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI119" s="11" t="s">
         <v>58</v>
@@ -17090,7 +17125,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>68</v>
       </c>
@@ -17158,8 +17193,8 @@
       <c r="X120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y120" s="13" t="s">
-        <v>58</v>
+      <c r="Y120" s="13">
+        <v>0</v>
       </c>
       <c r="Z120" s="13">
         <v>0</v>
@@ -17185,8 +17220,8 @@
       <c r="AG120" s="13">
         <v>0</v>
       </c>
-      <c r="AH120" s="13">
-        <v>0</v>
+      <c r="AH120" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI120" s="13" t="s">
         <v>58</v>
@@ -17194,8 +17229,8 @@
       <c r="AJ120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK120" s="13" t="s">
-        <v>58</v>
+      <c r="AK120" s="13">
+        <v>0</v>
       </c>
       <c r="AL120" s="13">
         <v>0</v>
@@ -17206,11 +17241,11 @@
       <c r="AN120" s="13">
         <v>0</v>
       </c>
-      <c r="AO120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP120" s="13" t="s">
-        <v>58</v>
+      <c r="AO120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP120" s="13">
+        <v>0</v>
       </c>
       <c r="AQ120" s="13">
         <v>0</v>
@@ -17219,28 +17254,28 @@
         <v>0</v>
       </c>
       <c r="AS120" s="13">
-        <v>0</v>
+        <v>120332</v>
       </c>
       <c r="AT120" s="13">
-        <v>120332</v>
+        <v>0</v>
       </c>
       <c r="AU120" s="13">
         <v>0</v>
       </c>
       <c r="AV120" s="13">
-        <v>0</v>
+        <v>249493</v>
       </c>
       <c r="AW120" s="13">
-        <v>249493</v>
+        <v>0</v>
       </c>
       <c r="AX120" s="13">
-        <v>0</v>
+        <v>-26733</v>
       </c>
       <c r="AY120" s="13">
-        <v>-26733</v>
+        <v>5758</v>
       </c>
       <c r="AZ120" s="13">
-        <v>5758</v>
+        <v>0</v>
       </c>
       <c r="BA120" s="13">
         <v>0</v>
@@ -17249,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>70</v>
       </c>
@@ -17317,8 +17352,8 @@
       <c r="X121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y121" s="11" t="s">
-        <v>58</v>
+      <c r="Y121" s="11">
+        <v>0</v>
       </c>
       <c r="Z121" s="11">
         <v>0</v>
@@ -17344,14 +17379,14 @@
       <c r="AG121" s="11">
         <v>0</v>
       </c>
-      <c r="AH121" s="11">
-        <v>0</v>
+      <c r="AH121" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ121" s="11" t="s">
-        <v>58</v>
+      <c r="AJ121" s="11">
+        <v>0</v>
       </c>
       <c r="AK121" s="11">
         <v>0</v>
@@ -17365,17 +17400,17 @@
       <c r="AN121" s="11">
         <v>0</v>
       </c>
-      <c r="AO121" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP121" s="11" t="s">
-        <v>58</v>
+      <c r="AO121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP121" s="11">
+        <v>0</v>
       </c>
       <c r="AQ121" s="11">
         <v>0</v>
       </c>
-      <c r="AR121" s="11">
-        <v>0</v>
+      <c r="AR121" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS121" s="11" t="s">
         <v>58</v>
@@ -17408,7 +17443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>72</v>
       </c>
@@ -17503,8 +17538,8 @@
       <c r="AG122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH122" s="13" t="s">
-        <v>58</v>
+      <c r="AH122" s="13">
+        <v>0</v>
       </c>
       <c r="AI122" s="13">
         <v>0</v>
@@ -17524,11 +17559,11 @@
       <c r="AN122" s="13">
         <v>0</v>
       </c>
-      <c r="AO122" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP122" s="13" t="s">
-        <v>58</v>
+      <c r="AO122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP122" s="13">
+        <v>0</v>
       </c>
       <c r="AQ122" s="13">
         <v>0</v>
@@ -17542,8 +17577,8 @@
       <c r="AT122" s="13">
         <v>0</v>
       </c>
-      <c r="AU122" s="13">
-        <v>0</v>
+      <c r="AU122" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV122" s="13" t="s">
         <v>58</v>
@@ -17567,7 +17602,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B123" s="14" t="s">
         <v>84</v>
       </c>
@@ -17694,28 +17729,28 @@
         <v>0</v>
       </c>
       <c r="AS123" s="15">
-        <v>0</v>
+        <v>130371158</v>
       </c>
       <c r="AT123" s="15">
-        <v>130371158</v>
+        <v>0</v>
       </c>
       <c r="AU123" s="15">
         <v>0</v>
       </c>
       <c r="AV123" s="15">
-        <v>0</v>
+        <v>32474275</v>
       </c>
       <c r="AW123" s="15">
-        <v>32474275</v>
+        <v>0</v>
       </c>
       <c r="AX123" s="15">
-        <v>0</v>
+        <v>21689002</v>
       </c>
       <c r="AY123" s="15">
-        <v>21689002</v>
+        <v>6995455</v>
       </c>
       <c r="AZ123" s="15">
-        <v>6995455</v>
+        <v>0</v>
       </c>
       <c r="BA123" s="15">
         <v>0</v>
@@ -17724,7 +17759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B124" s="16" t="s">
         <v>91</v>
       </c>
@@ -17781,7 +17816,7 @@
       <c r="BA124" s="17"/>
       <c r="BB124" s="17"/>
     </row>
-    <row r="125" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B125" s="14" t="s">
         <v>78</v>
       </c>
@@ -17849,8 +17884,8 @@
       <c r="X125" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y125" s="15" t="s">
-        <v>58</v>
+      <c r="Y125" s="15">
+        <v>0</v>
       </c>
       <c r="Z125" s="15">
         <v>0</v>
@@ -17897,11 +17932,11 @@
       <c r="AN125" s="15">
         <v>0</v>
       </c>
-      <c r="AO125" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP125" s="15" t="s">
-        <v>58</v>
+      <c r="AO125" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP125" s="15">
+        <v>0</v>
       </c>
       <c r="AQ125" s="15">
         <v>0</v>
@@ -17940,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B126" s="16" t="s">
         <v>92</v>
       </c>
@@ -17997,7 +18032,7 @@
       <c r="BA126" s="17"/>
       <c r="BB126" s="17"/>
     </row>
-    <row r="127" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>86</v>
       </c>
@@ -18065,8 +18100,8 @@
       <c r="X127" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y127" s="15" t="s">
-        <v>58</v>
+      <c r="Y127" s="15">
+        <v>0</v>
       </c>
       <c r="Z127" s="15">
         <v>0</v>
@@ -18113,11 +18148,11 @@
       <c r="AN127" s="15">
         <v>0</v>
       </c>
-      <c r="AO127" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP127" s="15" t="s">
-        <v>58</v>
+      <c r="AO127" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP127" s="15">
+        <v>0</v>
       </c>
       <c r="AQ127" s="15">
         <v>0</v>
@@ -18156,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>93</v>
       </c>
@@ -18213,7 +18248,7 @@
       <c r="BA128" s="9"/>
       <c r="BB128" s="9"/>
     </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>94</v>
       </c>
@@ -18281,8 +18316,8 @@
       <c r="X129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y129" s="11" t="s">
-        <v>58</v>
+      <c r="Y129" s="11">
+        <v>0</v>
       </c>
       <c r="Z129" s="11">
         <v>0</v>
@@ -18329,11 +18364,11 @@
       <c r="AN129" s="11">
         <v>0</v>
       </c>
-      <c r="AO129" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP129" s="11" t="s">
-        <v>58</v>
+      <c r="AO129" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP129" s="11">
+        <v>0</v>
       </c>
       <c r="AQ129" s="11">
         <v>0</v>
@@ -18372,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B130" s="18" t="s">
         <v>79</v>
       </c>
@@ -18499,28 +18534,28 @@
         <v>0</v>
       </c>
       <c r="AS130" s="19">
-        <v>0</v>
+        <v>326717314</v>
       </c>
       <c r="AT130" s="19">
-        <v>326717314</v>
+        <v>0</v>
       </c>
       <c r="AU130" s="19">
         <v>0</v>
       </c>
       <c r="AV130" s="19">
-        <v>0</v>
+        <v>132230271</v>
       </c>
       <c r="AW130" s="19">
-        <v>132230271</v>
+        <v>0</v>
       </c>
       <c r="AX130" s="19">
-        <v>0</v>
+        <v>94333471</v>
       </c>
       <c r="AY130" s="19">
-        <v>94333471</v>
+        <v>40546685</v>
       </c>
       <c r="AZ130" s="19">
-        <v>40546685</v>
+        <v>0</v>
       </c>
       <c r="BA130" s="19">
         <v>0</v>
@@ -18529,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -18584,7 +18619,7 @@
       <c r="BA131" s="1"/>
       <c r="BB131" s="1"/>
     </row>
-    <row r="132" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -18639,7 +18674,7 @@
       <c r="BA132" s="1"/>
       <c r="BB132" s="1"/>
     </row>
-    <row r="133" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -18694,7 +18729,7 @@
       <c r="BA133" s="1"/>
       <c r="BB133" s="1"/>
     </row>
-    <row r="134" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
         <v>95</v>
       </c>
@@ -18851,7 +18886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -18906,7 +18941,7 @@
       <c r="BA135" s="1"/>
       <c r="BB135" s="1"/>
     </row>
-    <row r="136" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>96</v>
       </c>
@@ -18963,7 +18998,7 @@
       <c r="BA136" s="9"/>
       <c r="BB136" s="9"/>
     </row>
-    <row r="137" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>59</v>
       </c>
@@ -19031,11 +19066,11 @@
       <c r="X137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y137" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z137" s="11">
-        <v>0</v>
+      <c r="Y137" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AA137" s="11" t="s">
         <v>58</v>
@@ -19043,23 +19078,23 @@
       <c r="AB137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC137" s="11" t="s">
-        <v>58</v>
+      <c r="AC137" s="11">
+        <v>0</v>
       </c>
       <c r="AD137" s="11">
         <v>0</v>
       </c>
-      <c r="AE137" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF137" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG137" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH137" s="11" t="s">
-        <v>58</v>
+      <c r="AE137" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF137" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG137" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH137" s="11">
+        <v>0</v>
       </c>
       <c r="AI137" s="11">
         <v>0</v>
@@ -19067,23 +19102,23 @@
       <c r="AJ137" s="11">
         <v>0</v>
       </c>
-      <c r="AK137" s="11">
-        <v>0</v>
+      <c r="AK137" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM137" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN137" s="11">
-        <v>0</v>
+      <c r="AM137" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN137" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP137" s="11" t="s">
-        <v>58</v>
+      <c r="AP137" s="11">
+        <v>0</v>
       </c>
       <c r="AQ137" s="11">
         <v>0</v>
@@ -19091,14 +19126,14 @@
       <c r="AR137" s="11">
         <v>0</v>
       </c>
-      <c r="AS137" s="11">
-        <v>0</v>
+      <c r="AS137" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU137" s="11" t="s">
-        <v>58</v>
+      <c r="AU137" s="11">
+        <v>0</v>
       </c>
       <c r="AV137" s="11">
         <v>0</v>
@@ -19107,22 +19142,22 @@
         <v>0</v>
       </c>
       <c r="AX137" s="11">
-        <v>0</v>
+        <v>166403806</v>
       </c>
       <c r="AY137" s="11">
-        <v>166403806</v>
+        <v>-166403805</v>
       </c>
       <c r="AZ137" s="11">
-        <v>-166403805</v>
-      </c>
-      <c r="BA137" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BA137" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB137" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B138" s="12" t="s">
         <v>60</v>
       </c>
@@ -19256,23 +19291,23 @@
       <c r="AT138" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU138" s="13" t="s">
-        <v>58</v>
+      <c r="AU138" s="13">
+        <v>0</v>
       </c>
       <c r="AV138" s="13">
-        <v>0</v>
+        <v>958943685</v>
       </c>
       <c r="AW138" s="13">
-        <v>958943685</v>
+        <v>0</v>
       </c>
       <c r="AX138" s="13">
-        <v>0</v>
+        <v>95292374</v>
       </c>
       <c r="AY138" s="13">
-        <v>95292374</v>
+        <v>229684052</v>
       </c>
       <c r="AZ138" s="13">
-        <v>229684052</v>
+        <v>0</v>
       </c>
       <c r="BA138" s="13">
         <v>0</v>
@@ -19281,7 +19316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>62</v>
       </c>
@@ -19349,8 +19384,8 @@
       <c r="X139" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y139" s="11" t="s">
-        <v>58</v>
+      <c r="Y139" s="11">
+        <v>0</v>
       </c>
       <c r="Z139" s="11">
         <v>0</v>
@@ -19397,41 +19432,41 @@
       <c r="AN139" s="11">
         <v>0</v>
       </c>
-      <c r="AO139" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP139" s="11" t="s">
-        <v>58</v>
+      <c r="AO139" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP139" s="11">
+        <v>0</v>
       </c>
       <c r="AQ139" s="11">
         <v>0</v>
       </c>
-      <c r="AR139" s="11">
-        <v>0</v>
+      <c r="AR139" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS139" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT139" s="11" t="s">
-        <v>58</v>
+      <c r="AT139" s="11">
+        <v>0</v>
       </c>
       <c r="AU139" s="11">
         <v>0</v>
       </c>
       <c r="AV139" s="11">
-        <v>0</v>
+        <v>514873119</v>
       </c>
       <c r="AW139" s="11">
-        <v>514873119</v>
+        <v>0</v>
       </c>
       <c r="AX139" s="11">
-        <v>0</v>
+        <v>82488108</v>
       </c>
       <c r="AY139" s="11">
-        <v>82488108</v>
+        <v>193252499</v>
       </c>
       <c r="AZ139" s="11">
-        <v>193252499</v>
+        <v>0</v>
       </c>
       <c r="BA139" s="11">
         <v>0</v>
@@ -19440,7 +19475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B140" s="12" t="s">
         <v>64</v>
       </c>
@@ -19508,8 +19543,8 @@
       <c r="X140" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y140" s="13" t="s">
-        <v>58</v>
+      <c r="Y140" s="13">
+        <v>0</v>
       </c>
       <c r="Z140" s="13">
         <v>0</v>
@@ -19556,26 +19591,26 @@
       <c r="AN140" s="13">
         <v>0</v>
       </c>
-      <c r="AO140" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP140" s="13" t="s">
-        <v>58</v>
+      <c r="AO140" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP140" s="13">
+        <v>0</v>
       </c>
       <c r="AQ140" s="13">
         <v>0</v>
       </c>
-      <c r="AR140" s="13">
-        <v>0</v>
+      <c r="AR140" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS140" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT140" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU140" s="13">
-        <v>0</v>
+      <c r="AT140" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU140" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV140" s="13" t="s">
         <v>58</v>
@@ -19599,7 +19634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>65</v>
       </c>
@@ -19670,8 +19705,8 @@
       <c r="Y141" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z141" s="11" t="s">
-        <v>58</v>
+      <c r="Z141" s="11">
+        <v>0</v>
       </c>
       <c r="AA141" s="11">
         <v>0</v>
@@ -19715,11 +19750,11 @@
       <c r="AN141" s="11">
         <v>0</v>
       </c>
-      <c r="AO141" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP141" s="11" t="s">
-        <v>58</v>
+      <c r="AO141" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP141" s="11">
+        <v>0</v>
       </c>
       <c r="AQ141" s="11">
         <v>0</v>
@@ -19728,13 +19763,13 @@
         <v>0</v>
       </c>
       <c r="AS141" s="11">
-        <v>0</v>
+        <v>123890549</v>
       </c>
       <c r="AT141" s="11">
-        <v>123890549</v>
-      </c>
-      <c r="AU141" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AU141" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV141" s="11" t="s">
         <v>58</v>
@@ -19758,7 +19793,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B142" s="12" t="s">
         <v>67</v>
       </c>
@@ -19917,7 +19952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>71</v>
       </c>
@@ -20042,15 +20077,15 @@
       <c r="AQ143" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR143" s="11" t="s">
-        <v>58</v>
+      <c r="AR143" s="11">
+        <v>0</v>
       </c>
       <c r="AS143" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT143" s="11">
         <v>124492387</v>
       </c>
+      <c r="AT143" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU143" s="11" t="s">
         <v>58</v>
       </c>
@@ -20076,7 +20111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>98</v>
       </c>
@@ -20133,7 +20168,7 @@
       <c r="BA144" s="9"/>
       <c r="BB144" s="9"/>
     </row>
-    <row r="145" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>59</v>
       </c>
@@ -20201,8 +20236,8 @@
       <c r="X145" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y145" s="11" t="s">
-        <v>58</v>
+      <c r="Y145" s="11">
+        <v>0</v>
       </c>
       <c r="Z145" s="11">
         <v>0</v>
@@ -20249,11 +20284,11 @@
       <c r="AN145" s="11">
         <v>0</v>
       </c>
-      <c r="AO145" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP145" s="11" t="s">
-        <v>58</v>
+      <c r="AO145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP145" s="11">
+        <v>0</v>
       </c>
       <c r="AQ145" s="11">
         <v>0</v>
@@ -20262,28 +20297,28 @@
         <v>0</v>
       </c>
       <c r="AS145" s="11">
-        <v>0</v>
+        <v>1837505038</v>
       </c>
       <c r="AT145" s="11">
-        <v>1837505038</v>
+        <v>0</v>
       </c>
       <c r="AU145" s="11">
         <v>0</v>
       </c>
       <c r="AV145" s="11">
-        <v>0</v>
+        <v>365099154</v>
       </c>
       <c r="AW145" s="11">
-        <v>365099154</v>
+        <v>0</v>
       </c>
       <c r="AX145" s="11">
-        <v>0</v>
+        <v>40643779</v>
       </c>
       <c r="AY145" s="11">
-        <v>40643779</v>
+        <v>132035314</v>
       </c>
       <c r="AZ145" s="11">
-        <v>132035314</v>
+        <v>0</v>
       </c>
       <c r="BA145" s="11">
         <v>0</v>
@@ -20292,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B146" s="12" t="s">
         <v>61</v>
       </c>
@@ -20363,41 +20398,41 @@
       <c r="Y146" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z146" s="13" t="s">
-        <v>58</v>
+      <c r="Z146" s="13">
+        <v>0</v>
       </c>
       <c r="AA146" s="13">
         <v>0</v>
       </c>
-      <c r="AB146" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC146" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD146" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE146" s="13" t="s">
-        <v>58</v>
+      <c r="AB146" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC146" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD146" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE146" s="13">
+        <v>0</v>
       </c>
       <c r="AF146" s="13">
         <v>0</v>
       </c>
-      <c r="AG146" s="13">
-        <v>0</v>
+      <c r="AG146" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH146" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI146" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ146" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK146" s="13" t="s">
-        <v>58</v>
+      <c r="AI146" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ146" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK146" s="13">
+        <v>0</v>
       </c>
       <c r="AL146" s="13">
         <v>0</v>
@@ -20405,8 +20440,8 @@
       <c r="AM146" s="13">
         <v>0</v>
       </c>
-      <c r="AN146" s="13">
-        <v>0</v>
+      <c r="AN146" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO146" s="13" t="s">
         <v>58</v>
@@ -20417,11 +20452,11 @@
       <c r="AQ146" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR146" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS146" s="13">
-        <v>0</v>
+      <c r="AR146" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS146" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT146" s="13" t="s">
         <v>58</v>
@@ -20429,29 +20464,29 @@
       <c r="AU146" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV146" s="13" t="s">
-        <v>58</v>
+      <c r="AV146" s="13">
+        <v>98969058</v>
       </c>
       <c r="AW146" s="13">
-        <v>98969058</v>
+        <v>0</v>
       </c>
       <c r="AX146" s="13">
-        <v>0</v>
+        <v>33533789</v>
       </c>
       <c r="AY146" s="13">
-        <v>33533789</v>
+        <v>10434169</v>
       </c>
       <c r="AZ146" s="13">
-        <v>10434169</v>
+        <v>0</v>
       </c>
       <c r="BA146" s="13">
         <v>0</v>
       </c>
-      <c r="BB146" s="13">
-        <v>0</v>
+      <c r="BB146" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="147" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>62</v>
       </c>
@@ -20579,12 +20614,12 @@
       <c r="AR147" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS147" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT147" s="11">
+      <c r="AS147" s="11">
         <v>41364896</v>
       </c>
+      <c r="AT147" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU147" s="11" t="s">
         <v>58</v>
       </c>
@@ -20610,7 +20645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B148" s="12" t="s">
         <v>63</v>
       </c>
@@ -20696,17 +20731,17 @@
       <c r="AD148" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE148" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF148" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG148" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH148" s="13">
-        <v>0</v>
+      <c r="AE148" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF148" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG148" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH148" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI148" s="13" t="s">
         <v>58</v>
@@ -20738,29 +20773,29 @@
       <c r="AR148" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS148" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT148" s="13">
+      <c r="AS148" s="13">
         <v>101130450</v>
       </c>
-      <c r="AU148" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV148" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW148" s="13" t="s">
-        <v>58</v>
+      <c r="AT148" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU148" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV148" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW148" s="13">
+        <v>0</v>
       </c>
       <c r="AX148" s="13">
-        <v>0</v>
+        <v>72770941</v>
       </c>
       <c r="AY148" s="13">
-        <v>72770941</v>
+        <v>-2892443</v>
       </c>
       <c r="AZ148" s="13">
-        <v>-2892443</v>
+        <v>0</v>
       </c>
       <c r="BA148" s="13">
         <v>0</v>
@@ -20769,7 +20804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>68</v>
       </c>
@@ -20837,11 +20872,11 @@
       <c r="X149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y149" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z149" s="11">
-        <v>0</v>
+      <c r="Y149" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z149" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AA149" s="11" t="s">
         <v>58</v>
@@ -20852,11 +20887,11 @@
       <c r="AC149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD149" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE149" s="11">
-        <v>0</v>
+      <c r="AD149" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE149" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AF149" s="11" t="s">
         <v>58</v>
@@ -20882,53 +20917,53 @@
       <c r="AM149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN149" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO149" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP149" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ149" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR149" s="11" t="s">
-        <v>58</v>
+      <c r="AN149" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO149" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP149" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ149" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR149" s="11">
+        <v>0</v>
       </c>
       <c r="AS149" s="11">
-        <v>0</v>
+        <v>66335171</v>
       </c>
       <c r="AT149" s="11">
-        <v>66335171</v>
-      </c>
-      <c r="AU149" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV149" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW149" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU149" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV149" s="11">
         <v>447922801</v>
       </c>
-      <c r="AX149" s="11" t="s">
-        <v>58</v>
+      <c r="AW149" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX149" s="11">
+        <v>-10884772</v>
       </c>
       <c r="AY149" s="11">
-        <v>-10884772</v>
-      </c>
-      <c r="AZ149" s="11">
         <v>2344463</v>
       </c>
+      <c r="AZ149" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="BA149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB149" s="11" t="s">
-        <v>58</v>
+      <c r="BB149" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B150" s="12" t="s">
         <v>70</v>
       </c>
@@ -20999,8 +21034,8 @@
       <c r="Y150" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z150" s="13" t="s">
-        <v>58</v>
+      <c r="Z150" s="13">
+        <v>0</v>
       </c>
       <c r="AA150" s="13">
         <v>0</v>
@@ -21011,8 +21046,8 @@
       <c r="AC150" s="13">
         <v>0</v>
       </c>
-      <c r="AD150" s="13">
-        <v>0</v>
+      <c r="AD150" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE150" s="13" t="s">
         <v>58</v>
@@ -21087,7 +21122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>72</v>
       </c>
@@ -21182,8 +21217,8 @@
       <c r="AG151" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH151" s="11" t="s">
-        <v>58</v>
+      <c r="AH151" s="11">
+        <v>0</v>
       </c>
       <c r="AI151" s="11">
         <v>0</v>
@@ -21191,11 +21226,11 @@
       <c r="AJ151" s="11">
         <v>0</v>
       </c>
-      <c r="AK151" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL151" s="11" t="s">
-        <v>58</v>
+      <c r="AK151" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL151" s="11">
+        <v>0</v>
       </c>
       <c r="AM151" s="11">
         <v>0</v>
@@ -21203,11 +21238,11 @@
       <c r="AN151" s="11">
         <v>0</v>
       </c>
-      <c r="AO151" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP151" s="11" t="s">
-        <v>58</v>
+      <c r="AO151" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP151" s="11">
+        <v>0</v>
       </c>
       <c r="AQ151" s="11">
         <v>0</v>
@@ -21215,8 +21250,8 @@
       <c r="AR151" s="11">
         <v>0</v>
       </c>
-      <c r="AS151" s="11">
-        <v>0</v>
+      <c r="AS151" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT151" s="11" t="s">
         <v>58</v>

--- a/database/industries/palayesh/shavan/product/monthly_seprated.xlsx
+++ b/database/industries/palayesh/shavan/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shavan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E34CE93-59EB-4BF7-B8E3-F18DC741D5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC436020-B14A-494E-9182-E8A9AF6B05AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="99">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شاوان-پالایش نفت لاوان</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -799,12 +799,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -859,7 +859,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -973,7 +973,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1028,7 +1028,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1197,7 +1197,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1409,7 +1409,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1588,14 +1588,14 @@
       <c r="AP11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>0</v>
+      <c r="AQ11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT11" s="11" t="s">
         <v>58</v>
@@ -1625,7 +1625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1687,104 +1687,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>32752</v>
+      </c>
+      <c r="X12" s="13">
+        <v>52296</v>
       </c>
       <c r="Y12" s="13">
-        <v>32752</v>
+        <v>48601</v>
       </c>
       <c r="Z12" s="13">
-        <v>52296</v>
+        <v>59027</v>
       </c>
       <c r="AA12" s="13">
-        <v>48601</v>
+        <v>50567</v>
       </c>
       <c r="AB12" s="13">
-        <v>59027</v>
+        <v>49806</v>
       </c>
       <c r="AC12" s="13">
-        <v>50567</v>
+        <v>57476</v>
       </c>
       <c r="AD12" s="13">
-        <v>49806</v>
+        <v>49006</v>
       </c>
       <c r="AE12" s="13">
-        <v>57476</v>
+        <v>43675</v>
       </c>
       <c r="AF12" s="13">
-        <v>49006</v>
+        <v>53485</v>
       </c>
       <c r="AG12" s="13">
-        <v>43675</v>
+        <v>53969</v>
       </c>
       <c r="AH12" s="13">
-        <v>53485</v>
+        <v>54781</v>
       </c>
       <c r="AI12" s="13">
-        <v>53969</v>
+        <v>53778</v>
       </c>
       <c r="AJ12" s="13">
-        <v>54781</v>
+        <v>55363</v>
       </c>
       <c r="AK12" s="13">
-        <v>53778</v>
+        <v>55308</v>
       </c>
       <c r="AL12" s="13">
-        <v>55363</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>55308</v>
+        <v>53104</v>
+      </c>
+      <c r="AM12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN12" s="13">
-        <v>53104</v>
-      </c>
-      <c r="AO12" s="13" t="s">
-        <v>58</v>
+        <v>55978</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>53607</v>
       </c>
       <c r="AP12" s="13">
-        <v>55978</v>
+        <v>55509</v>
       </c>
       <c r="AQ12" s="13">
-        <v>53607</v>
+        <v>635036</v>
       </c>
       <c r="AR12" s="13">
-        <v>-541713</v>
+        <v>54994</v>
       </c>
       <c r="AS12" s="13">
-        <v>635036</v>
+        <v>54853</v>
       </c>
       <c r="AT12" s="13">
-        <v>54994</v>
+        <v>52604</v>
       </c>
       <c r="AU12" s="13">
-        <v>54853</v>
+        <v>54998</v>
       </c>
       <c r="AV12" s="13">
-        <v>52604</v>
+        <v>49663</v>
       </c>
       <c r="AW12" s="13">
-        <v>54998</v>
+        <v>50198</v>
       </c>
       <c r="AX12" s="13">
-        <v>49663</v>
+        <v>45580</v>
       </c>
       <c r="AY12" s="13">
-        <v>50198</v>
+        <v>46369</v>
       </c>
       <c r="AZ12" s="13">
-        <v>45580</v>
+        <v>47642</v>
       </c>
       <c r="BA12" s="13">
-        <v>46369</v>
+        <v>46320</v>
       </c>
       <c r="BB12" s="13">
-        <v>47642</v>
+        <v>15454</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1912,38 +1912,38 @@
       <c r="AR13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT13" s="11" t="s">
-        <v>58</v>
+      <c r="AS13" s="11">
+        <v>74010</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>71095</v>
       </c>
       <c r="AU13" s="11">
-        <v>74010</v>
+        <v>74376</v>
       </c>
       <c r="AV13" s="11">
-        <v>71095</v>
+        <v>72082</v>
       </c>
       <c r="AW13" s="11">
-        <v>74376</v>
+        <v>74047</v>
       </c>
       <c r="AX13" s="11">
-        <v>72082</v>
+        <v>68761</v>
       </c>
       <c r="AY13" s="11">
-        <v>74047</v>
+        <v>68716</v>
       </c>
       <c r="AZ13" s="11">
-        <v>68761</v>
+        <v>72341</v>
       </c>
       <c r="BA13" s="11">
-        <v>68716</v>
+        <v>72912</v>
       </c>
       <c r="BB13" s="11">
-        <v>72341</v>
+        <v>16717</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2005,104 +2005,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>6066</v>
+      </c>
+      <c r="X14" s="13">
+        <v>4089</v>
       </c>
       <c r="Y14" s="13">
-        <v>6066</v>
+        <v>5220</v>
       </c>
       <c r="Z14" s="13">
-        <v>4089</v>
+        <v>3392</v>
       </c>
       <c r="AA14" s="13">
-        <v>5220</v>
+        <v>8438</v>
       </c>
       <c r="AB14" s="13">
-        <v>3392</v>
+        <v>9147</v>
       </c>
       <c r="AC14" s="13">
-        <v>8438</v>
+        <v>9973</v>
       </c>
       <c r="AD14" s="13">
-        <v>9147</v>
+        <v>12516</v>
       </c>
       <c r="AE14" s="13">
-        <v>9973</v>
+        <v>11209</v>
       </c>
       <c r="AF14" s="13">
-        <v>12516</v>
+        <v>6802</v>
       </c>
       <c r="AG14" s="13">
-        <v>11209</v>
+        <v>8608</v>
       </c>
       <c r="AH14" s="13">
-        <v>6802</v>
+        <v>4495</v>
       </c>
       <c r="AI14" s="13">
-        <v>8608</v>
+        <v>8078</v>
       </c>
       <c r="AJ14" s="13">
-        <v>4495</v>
+        <v>3843</v>
       </c>
       <c r="AK14" s="13">
-        <v>8078</v>
+        <v>5232</v>
       </c>
       <c r="AL14" s="13">
-        <v>3843</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>5232</v>
+        <v>5593</v>
+      </c>
+      <c r="AM14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN14" s="13">
-        <v>5593</v>
-      </c>
-      <c r="AO14" s="13" t="s">
-        <v>58</v>
+        <v>3906</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>5717</v>
       </c>
       <c r="AP14" s="13">
-        <v>3906</v>
+        <v>4706</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5717</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="13">
-        <v>4706</v>
+        <v>4610</v>
       </c>
       <c r="AS14" s="13">
-        <v>0</v>
+        <v>4468</v>
       </c>
       <c r="AT14" s="13">
-        <v>4610</v>
+        <v>3130</v>
       </c>
       <c r="AU14" s="13">
-        <v>4468</v>
+        <v>4260</v>
       </c>
       <c r="AV14" s="13">
-        <v>3130</v>
+        <v>3356</v>
       </c>
       <c r="AW14" s="13">
-        <v>4260</v>
+        <v>4391</v>
       </c>
       <c r="AX14" s="13">
-        <v>3356</v>
+        <v>2544</v>
       </c>
       <c r="AY14" s="13">
-        <v>4391</v>
+        <v>3728</v>
       </c>
       <c r="AZ14" s="13">
-        <v>2544</v>
+        <v>3028</v>
       </c>
       <c r="BA14" s="13">
-        <v>3728</v>
+        <v>3613</v>
       </c>
       <c r="BB14" s="13">
-        <v>3028</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2164,104 +2164,104 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>57361</v>
+      </c>
+      <c r="X15" s="11">
+        <v>57655</v>
       </c>
       <c r="Y15" s="11">
-        <v>57361</v>
+        <v>59775</v>
       </c>
       <c r="Z15" s="11">
-        <v>57655</v>
+        <v>53548</v>
       </c>
       <c r="AA15" s="11">
-        <v>59775</v>
+        <v>58688</v>
       </c>
       <c r="AB15" s="11">
-        <v>53548</v>
+        <v>66342</v>
       </c>
       <c r="AC15" s="11">
-        <v>58688</v>
+        <v>62120</v>
       </c>
       <c r="AD15" s="11">
-        <v>66342</v>
+        <v>62873</v>
       </c>
       <c r="AE15" s="11">
-        <v>62120</v>
+        <v>61529</v>
       </c>
       <c r="AF15" s="11">
-        <v>62873</v>
+        <v>62915</v>
       </c>
       <c r="AG15" s="11">
-        <v>61529</v>
+        <v>61972</v>
       </c>
       <c r="AH15" s="11">
-        <v>62915</v>
+        <v>62703</v>
       </c>
       <c r="AI15" s="11">
-        <v>61972</v>
+        <v>61304</v>
       </c>
       <c r="AJ15" s="11">
-        <v>62703</v>
+        <v>60440</v>
       </c>
       <c r="AK15" s="11">
-        <v>61304</v>
+        <v>56685</v>
       </c>
       <c r="AL15" s="11">
-        <v>60440</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>56685</v>
+        <v>60025</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN15" s="11">
-        <v>60025</v>
-      </c>
-      <c r="AO15" s="11" t="s">
-        <v>58</v>
+        <v>34418</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>72209</v>
       </c>
       <c r="AP15" s="11">
-        <v>34418</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>72209</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>58</v>
+        <v>85144</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>92698</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>89038</v>
       </c>
       <c r="AT15" s="11">
-        <v>92698</v>
+        <v>88540</v>
       </c>
       <c r="AU15" s="11">
-        <v>89038</v>
+        <v>88050</v>
       </c>
       <c r="AV15" s="11">
-        <v>88540</v>
+        <v>86901</v>
       </c>
       <c r="AW15" s="11">
-        <v>88050</v>
+        <v>90766</v>
       </c>
       <c r="AX15" s="11">
-        <v>86901</v>
+        <v>86891</v>
       </c>
       <c r="AY15" s="11">
-        <v>90766</v>
+        <v>86446</v>
       </c>
       <c r="AZ15" s="11">
-        <v>86891</v>
+        <v>86912</v>
       </c>
       <c r="BA15" s="11">
-        <v>86446</v>
+        <v>86295</v>
       </c>
       <c r="BB15" s="11">
-        <v>86912</v>
+        <v>46368</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2323,11 +2323,11 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0</v>
       </c>
       <c r="Y16" s="13">
         <v>0</v>
@@ -2339,23 +2339,23 @@
         <v>0</v>
       </c>
       <c r="AB16" s="13">
-        <v>0</v>
+        <v>94517</v>
       </c>
       <c r="AC16" s="13">
-        <v>0</v>
+        <v>47465</v>
       </c>
       <c r="AD16" s="13">
-        <v>94517</v>
+        <v>32547</v>
       </c>
       <c r="AE16" s="13">
-        <v>47465</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>32547</v>
-      </c>
-      <c r="AG16" s="13">
         <v>56829</v>
       </c>
+      <c r="AF16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG16" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH16" s="13" t="s">
         <v>58</v>
       </c>
@@ -2389,38 +2389,38 @@
       <c r="AR16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT16" s="13" t="s">
-        <v>58</v>
+      <c r="AS16" s="13">
+        <v>27285</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>34654</v>
       </c>
       <c r="AU16" s="13">
-        <v>27285</v>
+        <v>25308</v>
       </c>
       <c r="AV16" s="13">
-        <v>34654</v>
+        <v>33351</v>
       </c>
       <c r="AW16" s="13">
-        <v>25308</v>
+        <v>25614</v>
       </c>
       <c r="AX16" s="13">
-        <v>33351</v>
+        <v>28527</v>
       </c>
       <c r="AY16" s="13">
-        <v>25614</v>
+        <v>31323</v>
       </c>
       <c r="AZ16" s="13">
-        <v>28527</v>
+        <v>34254</v>
       </c>
       <c r="BA16" s="13">
-        <v>31323</v>
+        <v>37517</v>
       </c>
       <c r="BB16" s="13">
-        <v>34254</v>
+        <v>-12252</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2482,77 +2482,77 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>63367</v>
+      </c>
+      <c r="X17" s="11">
+        <v>67636</v>
       </c>
       <c r="Y17" s="11">
-        <v>63367</v>
+        <v>68801</v>
       </c>
       <c r="Z17" s="11">
-        <v>67636</v>
+        <v>53834</v>
       </c>
       <c r="AA17" s="11">
-        <v>68801</v>
+        <v>40763</v>
       </c>
       <c r="AB17" s="11">
-        <v>53834</v>
+        <v>59385</v>
       </c>
       <c r="AC17" s="11">
-        <v>40763</v>
+        <v>69266</v>
       </c>
       <c r="AD17" s="11">
-        <v>59385</v>
+        <v>73005</v>
       </c>
       <c r="AE17" s="11">
-        <v>69266</v>
+        <v>51387</v>
       </c>
       <c r="AF17" s="11">
-        <v>73005</v>
+        <v>75625</v>
       </c>
       <c r="AG17" s="11">
-        <v>51387</v>
+        <v>70638</v>
       </c>
       <c r="AH17" s="11">
-        <v>75625</v>
+        <v>75592</v>
       </c>
       <c r="AI17" s="11">
-        <v>70638</v>
+        <v>76086</v>
       </c>
       <c r="AJ17" s="11">
-        <v>75592</v>
+        <v>73331</v>
       </c>
       <c r="AK17" s="11">
-        <v>76086</v>
+        <v>58637</v>
       </c>
       <c r="AL17" s="11">
-        <v>73331</v>
-      </c>
-      <c r="AM17" s="11">
-        <v>58637</v>
+        <v>65382</v>
+      </c>
+      <c r="AM17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN17" s="11">
-        <v>65382</v>
-      </c>
-      <c r="AO17" s="11" t="s">
-        <v>58</v>
+        <v>7355</v>
+      </c>
+      <c r="AO17" s="11">
+        <v>39834</v>
       </c>
       <c r="AP17" s="11">
-        <v>7355</v>
-      </c>
-      <c r="AQ17" s="11">
-        <v>39834</v>
-      </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
+        <v>70439</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR17" s="11">
+        <v>72719</v>
       </c>
       <c r="AS17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT17" s="11">
-        <v>72719</v>
+      <c r="AT17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU17" s="11" t="s">
         <v>58</v>
@@ -2579,7 +2579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2641,78 +2641,78 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
+        <v>3025</v>
       </c>
       <c r="Y18" s="13">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="Z18" s="13">
-        <v>3025</v>
+        <v>25827</v>
       </c>
       <c r="AA18" s="13">
-        <v>1001</v>
+        <v>26640</v>
       </c>
       <c r="AB18" s="13">
-        <v>25827</v>
+        <v>19078</v>
       </c>
       <c r="AC18" s="13">
-        <v>26640</v>
+        <v>8428</v>
       </c>
       <c r="AD18" s="13">
-        <v>19078</v>
+        <v>3989</v>
       </c>
       <c r="AE18" s="13">
-        <v>8428</v>
+        <v>22308</v>
       </c>
       <c r="AF18" s="13">
-        <v>3989</v>
+        <v>1410</v>
       </c>
       <c r="AG18" s="13">
-        <v>22308</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>1410</v>
+        <v>5049</v>
+      </c>
+      <c r="AH18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI18" s="13">
-        <v>5049</v>
-      </c>
-      <c r="AJ18" s="13" t="s">
-        <v>58</v>
+        <v>913</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>438</v>
       </c>
       <c r="AK18" s="13">
-        <v>913</v>
+        <v>16719</v>
       </c>
       <c r="AL18" s="13">
-        <v>438</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>16719</v>
+        <v>8581</v>
+      </c>
+      <c r="AM18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN18" s="13">
-        <v>8581</v>
-      </c>
-      <c r="AO18" s="13" t="s">
-        <v>58</v>
+        <v>72231</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>34279</v>
       </c>
       <c r="AP18" s="13">
-        <v>72231</v>
+        <v>3432</v>
       </c>
       <c r="AQ18" s="13">
-        <v>34279</v>
+        <v>887769</v>
       </c>
       <c r="AR18" s="13">
-        <v>514970</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>887769</v>
-      </c>
-      <c r="AT18" s="13">
         <v>3118</v>
       </c>
+      <c r="AS18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT18" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU18" s="13" t="s">
         <v>58</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2800,11 +2800,11 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>0</v>
       </c>
       <c r="Y19" s="11">
         <v>0</v>
@@ -2827,11 +2827,11 @@
       <c r="AE19" s="11">
         <v>0</v>
       </c>
-      <c r="AF19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="11">
-        <v>0</v>
+      <c r="AF19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH19" s="11" t="s">
         <v>58</v>
@@ -2897,7 +2897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2959,11 +2959,11 @@
       <c r="V20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>58</v>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>0</v>
       </c>
       <c r="Y20" s="13">
         <v>0</v>
@@ -2989,11 +2989,11 @@
       <c r="AF20" s="13">
         <v>0</v>
       </c>
-      <c r="AG20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>0</v>
+      <c r="AG20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI20" s="13" t="s">
         <v>58</v>
@@ -3019,14 +3019,14 @@
       <c r="AP20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>0</v>
+      <c r="AQ20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT20" s="13" t="s">
         <v>58</v>
@@ -3056,7 +3056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3118,104 +3118,104 @@
       <c r="V21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>58</v>
+      <c r="W21" s="11">
+        <v>204</v>
+      </c>
+      <c r="X21" s="11">
+        <v>285</v>
       </c>
       <c r="Y21" s="11">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="Z21" s="11">
+        <v>228</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>107</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>313</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>299</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>392</v>
+      </c>
+      <c r="AI21" s="11">
+        <v>317</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>301</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>302</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>278</v>
+      </c>
+      <c r="AM21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN21" s="11">
+        <v>71</v>
+      </c>
+      <c r="AO21" s="11">
+        <v>127</v>
+      </c>
+      <c r="AP21" s="11">
+        <v>326</v>
+      </c>
+      <c r="AQ21" s="11">
+        <v>3216</v>
+      </c>
+      <c r="AR21" s="11">
+        <v>355</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>337</v>
+      </c>
+      <c r="AT21" s="11">
+        <v>282</v>
+      </c>
+      <c r="AU21" s="11">
+        <v>311</v>
+      </c>
+      <c r="AV21" s="11">
+        <v>305</v>
+      </c>
+      <c r="AW21" s="11">
+        <v>298</v>
+      </c>
+      <c r="AX21" s="11">
         <v>285</v>
       </c>
-      <c r="AA21" s="11">
-        <v>260</v>
-      </c>
-      <c r="AB21" s="11">
-        <v>228</v>
-      </c>
-      <c r="AC21" s="11">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>107</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>313</v>
-      </c>
-      <c r="AI21" s="11">
-        <v>299</v>
-      </c>
-      <c r="AJ21" s="11">
-        <v>392</v>
-      </c>
-      <c r="AK21" s="11">
-        <v>317</v>
-      </c>
-      <c r="AL21" s="11">
-        <v>301</v>
-      </c>
-      <c r="AM21" s="11">
-        <v>302</v>
-      </c>
-      <c r="AN21" s="11">
-        <v>278</v>
-      </c>
-      <c r="AO21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP21" s="11">
-        <v>71</v>
-      </c>
-      <c r="AQ21" s="11">
-        <v>127</v>
-      </c>
-      <c r="AR21" s="11">
-        <v>-2672</v>
-      </c>
-      <c r="AS21" s="11">
-        <v>3216</v>
-      </c>
-      <c r="AT21" s="11">
-        <v>355</v>
-      </c>
-      <c r="AU21" s="11">
-        <v>337</v>
-      </c>
-      <c r="AV21" s="11">
-        <v>282</v>
-      </c>
-      <c r="AW21" s="11">
-        <v>311</v>
-      </c>
-      <c r="AX21" s="11">
-        <v>305</v>
-      </c>
       <c r="AY21" s="11">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="AZ21" s="11">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="BA21" s="11">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="BB21" s="11">
-        <v>293</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3277,42 +3277,42 @@
       <c r="V22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>58</v>
+      <c r="W22" s="13">
+        <v>12383</v>
+      </c>
+      <c r="X22" s="13">
+        <v>3430</v>
       </c>
       <c r="Y22" s="13">
-        <v>12383</v>
+        <v>155</v>
       </c>
       <c r="Z22" s="13">
-        <v>3430</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="13">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="13">
-        <v>0</v>
+        <v>1828</v>
       </c>
       <c r="AC22" s="13">
         <v>0</v>
       </c>
       <c r="AD22" s="13">
-        <v>1828</v>
+        <v>9199</v>
       </c>
       <c r="AE22" s="13">
         <v>0</v>
       </c>
       <c r="AF22" s="13">
-        <v>9199</v>
-      </c>
-      <c r="AG22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="13">
         <v>6597</v>
       </c>
+      <c r="AG22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH22" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI22" s="13" t="s">
         <v>58</v>
       </c>
@@ -3337,17 +3337,17 @@
       <c r="AP22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ22" s="13" t="s">
-        <v>58</v>
+      <c r="AQ22" s="13">
+        <v>0</v>
       </c>
       <c r="AR22" s="13">
-        <v>-6597</v>
-      </c>
-      <c r="AS22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU22" s="13" t="s">
         <v>58</v>
@@ -3374,7 +3374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3436,74 +3436,74 @@
       <c r="V23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>58</v>
+      <c r="W23" s="11">
+        <v>16631</v>
+      </c>
+      <c r="X23" s="11">
+        <v>4316</v>
       </c>
       <c r="Y23" s="11">
-        <v>16631</v>
+        <v>31489</v>
       </c>
       <c r="Z23" s="11">
-        <v>4316</v>
+        <v>31015</v>
       </c>
       <c r="AA23" s="11">
-        <v>31489</v>
+        <v>24883</v>
       </c>
       <c r="AB23" s="11">
-        <v>31015</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="11">
-        <v>24883</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="11">
         <v>0</v>
       </c>
       <c r="AE23" s="11">
-        <v>0</v>
+        <v>3770</v>
       </c>
       <c r="AF23" s="11">
         <v>0</v>
       </c>
-      <c r="AG23" s="11">
-        <v>3770</v>
+      <c r="AG23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH23" s="11">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="AI23" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AJ23" s="11">
-        <v>409</v>
-      </c>
-      <c r="AK23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL23" s="11">
         <v>144</v>
       </c>
-      <c r="AM23" s="11">
+      <c r="AK23" s="11">
         <v>5758</v>
       </c>
-      <c r="AN23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP23" s="11">
+      <c r="AL23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN23" s="11">
         <v>15800</v>
       </c>
+      <c r="AO23" s="11">
+        <v>1209</v>
+      </c>
+      <c r="AP23" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ23" s="11">
-        <v>1209</v>
-      </c>
-      <c r="AR23" s="11">
-        <v>-28845</v>
-      </c>
-      <c r="AS23" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AR23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT23" s="11" t="s">
         <v>58</v>
@@ -3533,7 +3533,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>71</v>
       </c>
@@ -3655,15 +3655,15 @@
       <c r="AP24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="13">
+      <c r="AQ24" s="13">
         <v>738961</v>
       </c>
+      <c r="AR24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS24" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT24" s="13" t="s">
         <v>58</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>72</v>
       </c>
@@ -3781,51 +3781,51 @@
       <c r="AE25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG25" s="11" t="s">
-        <v>58</v>
+      <c r="AF25" s="11">
+        <v>36874</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>47398</v>
       </c>
       <c r="AH25" s="11">
-        <v>36874</v>
+        <v>76509</v>
       </c>
       <c r="AI25" s="11">
-        <v>47398</v>
+        <v>49588</v>
       </c>
       <c r="AJ25" s="11">
-        <v>76509</v>
+        <v>50789</v>
       </c>
       <c r="AK25" s="11">
-        <v>49588</v>
+        <v>45972</v>
       </c>
       <c r="AL25" s="11">
-        <v>50789</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>45972</v>
+        <v>49300</v>
+      </c>
+      <c r="AM25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN25" s="11">
-        <v>49300</v>
-      </c>
-      <c r="AO25" s="11" t="s">
-        <v>58</v>
+        <v>54501</v>
+      </c>
+      <c r="AO25" s="11">
+        <v>38757</v>
       </c>
       <c r="AP25" s="11">
-        <v>54501</v>
+        <v>30767</v>
       </c>
       <c r="AQ25" s="11">
-        <v>38757</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="11">
-        <v>-489887</v>
-      </c>
-      <c r="AS25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="11">
         <v>25175</v>
       </c>
+      <c r="AS25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT25" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU25" s="11" t="s">
         <v>58</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>73</v>
       </c>
@@ -3940,14 +3940,14 @@
       <c r="AE26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF26" s="13" t="s">
-        <v>58</v>
+      <c r="AF26" s="13">
+        <v>0</v>
       </c>
       <c r="AG26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH26" s="13">
-        <v>0</v>
+      <c r="AH26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI26" s="13" t="s">
         <v>58</v>
@@ -4010,7 +4010,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>74</v>
       </c>
@@ -4071,103 +4071,103 @@
         <v>0</v>
       </c>
       <c r="W27" s="15">
-        <v>0</v>
+        <v>188764</v>
       </c>
       <c r="X27" s="15">
-        <v>0</v>
+        <v>192732</v>
       </c>
       <c r="Y27" s="15">
-        <v>188764</v>
+        <v>215302</v>
       </c>
       <c r="Z27" s="15">
-        <v>192732</v>
+        <v>226871</v>
       </c>
       <c r="AA27" s="15">
-        <v>215302</v>
+        <v>209984</v>
       </c>
       <c r="AB27" s="15">
-        <v>226871</v>
+        <v>300103</v>
       </c>
       <c r="AC27" s="15">
-        <v>209984</v>
+        <v>254728</v>
       </c>
       <c r="AD27" s="15">
-        <v>300103</v>
+        <v>243135</v>
       </c>
       <c r="AE27" s="15">
-        <v>254728</v>
+        <v>250814</v>
       </c>
       <c r="AF27" s="15">
-        <v>243135</v>
+        <v>244021</v>
       </c>
       <c r="AG27" s="15">
-        <v>250814</v>
+        <v>247933</v>
       </c>
       <c r="AH27" s="15">
-        <v>244021</v>
+        <v>274881</v>
       </c>
       <c r="AI27" s="15">
-        <v>247933</v>
+        <v>250064</v>
       </c>
       <c r="AJ27" s="15">
-        <v>274881</v>
+        <v>244649</v>
       </c>
       <c r="AK27" s="15">
-        <v>250064</v>
+        <v>244613</v>
       </c>
       <c r="AL27" s="15">
-        <v>244649</v>
+        <v>242263</v>
       </c>
       <c r="AM27" s="15">
-        <v>244613</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="15">
-        <v>242263</v>
+        <v>244260</v>
       </c>
       <c r="AO27" s="15">
-        <v>0</v>
+        <v>245739</v>
       </c>
       <c r="AP27" s="15">
-        <v>244260</v>
+        <v>250323</v>
       </c>
       <c r="AQ27" s="15">
-        <v>245739</v>
+        <v>2264982</v>
       </c>
       <c r="AR27" s="15">
-        <v>-550038</v>
+        <v>253669</v>
       </c>
       <c r="AS27" s="15">
-        <v>2264982</v>
+        <v>249991</v>
       </c>
       <c r="AT27" s="15">
-        <v>253669</v>
+        <v>250305</v>
       </c>
       <c r="AU27" s="15">
-        <v>249991</v>
+        <v>247303</v>
       </c>
       <c r="AV27" s="15">
-        <v>250305</v>
+        <v>245658</v>
       </c>
       <c r="AW27" s="15">
-        <v>247303</v>
+        <v>245314</v>
       </c>
       <c r="AX27" s="15">
-        <v>245658</v>
+        <v>232588</v>
       </c>
       <c r="AY27" s="15">
-        <v>245314</v>
+        <v>236804</v>
       </c>
       <c r="AZ27" s="15">
-        <v>232588</v>
+        <v>244470</v>
       </c>
       <c r="BA27" s="15">
-        <v>236804</v>
+        <v>246925</v>
       </c>
       <c r="BB27" s="15">
-        <v>244470</v>
+        <v>66701</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>75</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>59</v>
       </c>
@@ -4286,11 +4286,11 @@
       <c r="V29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>58</v>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+      <c r="X29" s="11">
+        <v>0</v>
       </c>
       <c r="Y29" s="11">
         <v>0</v>
@@ -4316,11 +4316,11 @@
       <c r="AF29" s="11">
         <v>0</v>
       </c>
-      <c r="AG29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="11">
-        <v>0</v>
+      <c r="AG29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI29" s="11" t="s">
         <v>58</v>
@@ -4328,14 +4328,14 @@
       <c r="AJ29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK29" s="11" t="s">
-        <v>58</v>
+      <c r="AK29" s="11">
+        <v>0</v>
       </c>
       <c r="AL29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM29" s="11">
-        <v>0</v>
+      <c r="AM29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN29" s="11" t="s">
         <v>58</v>
@@ -4346,11 +4346,11 @@
       <c r="AP29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ29" s="11" t="s">
-        <v>58</v>
+      <c r="AQ29" s="11">
+        <v>0</v>
       </c>
       <c r="AR29" s="11">
-        <v>630938</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="11">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>60</v>
       </c>
@@ -4505,14 +4505,14 @@
       <c r="AP30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="13">
-        <v>0</v>
+      <c r="AQ30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT30" s="13" t="s">
         <v>58</v>
@@ -4523,11 +4523,11 @@
       <c r="AV30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX30" s="13">
-        <v>0</v>
+      <c r="AW30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY30" s="13" t="s">
         <v>58</v>
@@ -4542,7 +4542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>61</v>
       </c>
@@ -4604,11 +4604,11 @@
       <c r="V31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>58</v>
+      <c r="W31" s="11">
+        <v>0</v>
+      </c>
+      <c r="X31" s="11">
+        <v>0</v>
       </c>
       <c r="Y31" s="11">
         <v>0</v>
@@ -4631,11 +4631,11 @@
       <c r="AE31" s="11">
         <v>0</v>
       </c>
-      <c r="AF31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="11">
-        <v>0</v>
+      <c r="AF31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH31" s="11" t="s">
         <v>58</v>
@@ -4664,17 +4664,17 @@
       <c r="AP31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR31" s="11">
-        <v>0</v>
+      <c r="AQ31" s="11">
+        <v>49261</v>
+      </c>
+      <c r="AR31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS31" s="11">
-        <v>49261</v>
-      </c>
-      <c r="AT31" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AT31" s="11">
+        <v>0</v>
       </c>
       <c r="AU31" s="11">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>62</v>
       </c>
@@ -4823,20 +4823,20 @@
       <c r="AP32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="13">
+      <c r="AQ32" s="13">
         <v>450</v>
       </c>
-      <c r="AT32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU32" s="13" t="s">
-        <v>58</v>
+      <c r="AR32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="13">
+        <v>0</v>
       </c>
       <c r="AV32" s="13">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>63</v>
       </c>
@@ -4922,11 +4922,11 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>0</v>
+      </c>
+      <c r="X33" s="11">
+        <v>0</v>
       </c>
       <c r="Y33" s="11">
         <v>0</v>
@@ -4949,11 +4949,11 @@
       <c r="AE33" s="11">
         <v>0</v>
       </c>
-      <c r="AF33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="11">
-        <v>0</v>
+      <c r="AF33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH33" s="11" t="s">
         <v>58</v>
@@ -4982,17 +4982,17 @@
       <c r="AP33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR33" s="11">
-        <v>0</v>
+      <c r="AQ33" s="11">
+        <v>557134</v>
+      </c>
+      <c r="AR33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS33" s="11">
-        <v>557134</v>
-      </c>
-      <c r="AT33" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AT33" s="11">
+        <v>0</v>
       </c>
       <c r="AU33" s="11">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>64</v>
       </c>
@@ -5096,11 +5096,11 @@
       <c r="AA34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC34" s="13" t="s">
-        <v>58</v>
+      <c r="AB34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="13">
+        <v>0</v>
       </c>
       <c r="AD34" s="13">
         <v>0</v>
@@ -5108,11 +5108,11 @@
       <c r="AE34" s="13">
         <v>0</v>
       </c>
-      <c r="AF34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="13">
-        <v>0</v>
+      <c r="AF34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH34" s="13" t="s">
         <v>58</v>
@@ -5178,7 +5178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>65</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>66</v>
       </c>
@@ -5399,11 +5399,11 @@
       <c r="V36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="13" t="s">
-        <v>58</v>
+      <c r="W36" s="13">
+        <v>0</v>
+      </c>
+      <c r="X36" s="13">
+        <v>0</v>
       </c>
       <c r="Y36" s="13">
         <v>0</v>
@@ -5426,11 +5426,11 @@
       <c r="AE36" s="13">
         <v>0</v>
       </c>
-      <c r="AF36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="13">
-        <v>0</v>
+      <c r="AF36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH36" s="13" t="s">
         <v>58</v>
@@ -5496,7 +5496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>67</v>
       </c>
@@ -5576,20 +5576,20 @@
       <c r="AB37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD37" s="11" t="s">
-        <v>58</v>
+      <c r="AC37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>0</v>
       </c>
       <c r="AE37" s="11">
         <v>0</v>
       </c>
-      <c r="AF37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="11">
-        <v>0</v>
+      <c r="AF37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH37" s="11" t="s">
         <v>58</v>
@@ -5655,7 +5655,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>68</v>
       </c>
@@ -5717,11 +5717,11 @@
       <c r="V38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>58</v>
+      <c r="W38" s="13">
+        <v>0</v>
+      </c>
+      <c r="X38" s="13">
+        <v>0</v>
       </c>
       <c r="Y38" s="13">
         <v>0</v>
@@ -5744,11 +5744,11 @@
       <c r="AE38" s="13">
         <v>0</v>
       </c>
-      <c r="AF38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="13">
-        <v>0</v>
+      <c r="AF38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH38" s="13" t="s">
         <v>58</v>
@@ -5777,8 +5777,8 @@
       <c r="AP38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ38" s="13" t="s">
-        <v>58</v>
+      <c r="AQ38" s="13">
+        <v>0</v>
       </c>
       <c r="AR38" s="13">
         <v>0</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>70</v>
       </c>
@@ -5876,11 +5876,11 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>0</v>
+      </c>
+      <c r="X39" s="11">
+        <v>0</v>
       </c>
       <c r="Y39" s="11">
         <v>0</v>
@@ -5903,11 +5903,11 @@
       <c r="AE39" s="11">
         <v>0</v>
       </c>
-      <c r="AF39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="11">
-        <v>0</v>
+      <c r="AF39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH39" s="11" t="s">
         <v>58</v>
@@ -5973,7 +5973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>72</v>
       </c>
@@ -6062,14 +6062,14 @@
       <c r="AE40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF40" s="13" t="s">
-        <v>58</v>
+      <c r="AF40" s="13">
+        <v>0</v>
       </c>
       <c r="AG40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH40" s="13">
-        <v>0</v>
+      <c r="AH40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI40" s="13" t="s">
         <v>58</v>
@@ -6095,17 +6095,17 @@
       <c r="AP40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ40" s="13" t="s">
-        <v>58</v>
+      <c r="AQ40" s="13">
+        <v>0</v>
       </c>
       <c r="AR40" s="13">
         <v>0</v>
       </c>
-      <c r="AS40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>0</v>
+      <c r="AS40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU40" s="13" t="s">
         <v>58</v>
@@ -6132,7 +6132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>76</v>
       </c>
@@ -6253,13 +6253,13 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="15">
-        <v>0</v>
+        <v>606845</v>
       </c>
       <c r="AR41" s="15">
-        <v>630938</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="15">
-        <v>606845</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="15">
         <v>0</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>77</v>
       </c>
@@ -6346,7 +6346,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>78</v>
       </c>
@@ -6406,11 +6406,11 @@
       <c r="V43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="15" t="s">
-        <v>58</v>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>0</v>
       </c>
       <c r="Y43" s="15">
         <v>0</v>
@@ -6454,14 +6454,14 @@
       <c r="AL43" s="15">
         <v>0</v>
       </c>
-      <c r="AM43" s="15">
-        <v>0</v>
+      <c r="AM43" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AN43" s="15">
         <v>0</v>
       </c>
-      <c r="AO43" s="15" t="s">
-        <v>58</v>
+      <c r="AO43" s="15">
+        <v>0</v>
       </c>
       <c r="AP43" s="15">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>79</v>
       </c>
@@ -6564,103 +6564,103 @@
         <v>0</v>
       </c>
       <c r="W44" s="19">
-        <v>0</v>
+        <v>188764</v>
       </c>
       <c r="X44" s="19">
-        <v>0</v>
+        <v>192732</v>
       </c>
       <c r="Y44" s="19">
-        <v>188764</v>
+        <v>215302</v>
       </c>
       <c r="Z44" s="19">
-        <v>192732</v>
+        <v>226871</v>
       </c>
       <c r="AA44" s="19">
-        <v>215302</v>
+        <v>209984</v>
       </c>
       <c r="AB44" s="19">
-        <v>226871</v>
+        <v>300103</v>
       </c>
       <c r="AC44" s="19">
-        <v>209984</v>
+        <v>254728</v>
       </c>
       <c r="AD44" s="19">
-        <v>300103</v>
+        <v>243135</v>
       </c>
       <c r="AE44" s="19">
-        <v>254728</v>
+        <v>250814</v>
       </c>
       <c r="AF44" s="19">
-        <v>243135</v>
+        <v>244021</v>
       </c>
       <c r="AG44" s="19">
-        <v>250814</v>
+        <v>247933</v>
       </c>
       <c r="AH44" s="19">
-        <v>244021</v>
+        <v>274881</v>
       </c>
       <c r="AI44" s="19">
-        <v>247933</v>
+        <v>250064</v>
       </c>
       <c r="AJ44" s="19">
-        <v>274881</v>
+        <v>244649</v>
       </c>
       <c r="AK44" s="19">
-        <v>250064</v>
+        <v>244613</v>
       </c>
       <c r="AL44" s="19">
-        <v>244649</v>
+        <v>242263</v>
       </c>
       <c r="AM44" s="19">
-        <v>244613</v>
+        <v>0</v>
       </c>
       <c r="AN44" s="19">
-        <v>242263</v>
+        <v>244260</v>
       </c>
       <c r="AO44" s="19">
-        <v>0</v>
+        <v>245739</v>
       </c>
       <c r="AP44" s="19">
-        <v>244260</v>
+        <v>250323</v>
       </c>
       <c r="AQ44" s="19">
-        <v>245739</v>
+        <v>2871827</v>
       </c>
       <c r="AR44" s="19">
-        <v>80900</v>
+        <v>253669</v>
       </c>
       <c r="AS44" s="19">
-        <v>2871827</v>
+        <v>249991</v>
       </c>
       <c r="AT44" s="19">
-        <v>253669</v>
+        <v>250305</v>
       </c>
       <c r="AU44" s="19">
-        <v>249991</v>
+        <v>247303</v>
       </c>
       <c r="AV44" s="19">
-        <v>250305</v>
+        <v>245658</v>
       </c>
       <c r="AW44" s="19">
-        <v>247303</v>
+        <v>245314</v>
       </c>
       <c r="AX44" s="19">
-        <v>245658</v>
+        <v>232588</v>
       </c>
       <c r="AY44" s="19">
-        <v>245314</v>
+        <v>236804</v>
       </c>
       <c r="AZ44" s="19">
-        <v>232588</v>
+        <v>244470</v>
       </c>
       <c r="BA44" s="19">
-        <v>236804</v>
+        <v>246925</v>
       </c>
       <c r="BB44" s="19">
-        <v>244470</v>
+        <v>66701</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6715,7 +6715,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6770,7 +6770,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6825,7 +6825,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>80</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -7037,7 +7037,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>81</v>
       </c>
@@ -7094,7 +7094,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>56</v>
       </c>
@@ -7216,14 +7216,14 @@
       <c r="AP51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS51" s="11">
-        <v>0</v>
+      <c r="AQ51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT51" s="11" t="s">
         <v>58</v>
@@ -7253,7 +7253,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>59</v>
       </c>
@@ -7315,95 +7315,95 @@
       <c r="V52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X52" s="13" t="s">
-        <v>58</v>
+      <c r="W52" s="13">
+        <v>327</v>
+      </c>
+      <c r="X52" s="13">
+        <v>0</v>
       </c>
       <c r="Y52" s="13">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="13">
         <v>0</v>
       </c>
       <c r="AA52" s="13">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="AB52" s="13">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="AC52" s="13">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="13">
-        <v>918</v>
+        <v>401</v>
       </c>
       <c r="AE52" s="13">
         <v>0</v>
       </c>
       <c r="AF52" s="13">
-        <v>401</v>
+        <v>703</v>
       </c>
       <c r="AG52" s="13">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="AH52" s="13">
-        <v>703</v>
-      </c>
-      <c r="AI52" s="13">
-        <v>182</v>
-      </c>
-      <c r="AJ52" s="13">
         <v>393</v>
       </c>
-      <c r="AK52" s="13" t="s">
-        <v>58</v>
+      <c r="AI52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK52" s="13">
+        <v>504</v>
       </c>
       <c r="AL52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM52" s="13">
-        <v>504</v>
-      </c>
-      <c r="AN52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO52" s="13" t="s">
-        <v>58</v>
+      <c r="AM52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN52" s="13">
+        <v>407</v>
+      </c>
+      <c r="AO52" s="13">
+        <v>412</v>
       </c>
       <c r="AP52" s="13">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="AQ52" s="13">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="AR52" s="13">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="AS52" s="13">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="AT52" s="13">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="AU52" s="13">
-        <v>415</v>
+        <v>759</v>
       </c>
       <c r="AV52" s="13">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="AW52" s="13">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="AX52" s="13">
-        <v>1</v>
+        <v>869</v>
       </c>
       <c r="AY52" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="13">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="13">
         <v>0</v>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>60</v>
       </c>
@@ -7540,38 +7540,38 @@
       <c r="AR53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT53" s="11" t="s">
-        <v>58</v>
+      <c r="AS53" s="11">
+        <v>103259</v>
+      </c>
+      <c r="AT53" s="11">
+        <v>49117</v>
       </c>
       <c r="AU53" s="11">
-        <v>103259</v>
+        <v>82911</v>
       </c>
       <c r="AV53" s="11">
-        <v>49117</v>
+        <v>48573</v>
       </c>
       <c r="AW53" s="11">
-        <v>82911</v>
+        <v>83675</v>
       </c>
       <c r="AX53" s="11">
-        <v>48573</v>
+        <v>71681</v>
       </c>
       <c r="AY53" s="11">
-        <v>87916</v>
+        <v>61603</v>
       </c>
       <c r="AZ53" s="11">
-        <v>71681</v>
+        <v>60567</v>
       </c>
       <c r="BA53" s="11">
-        <v>61603</v>
+        <v>69567</v>
       </c>
       <c r="BB53" s="11">
-        <v>60567</v>
+        <v>60175</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>61</v>
       </c>
@@ -7633,11 +7633,11 @@
       <c r="V54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>58</v>
+      <c r="W54" s="13">
+        <v>0</v>
+      </c>
+      <c r="X54" s="13">
+        <v>0</v>
       </c>
       <c r="Y54" s="13">
         <v>0</v>
@@ -7663,26 +7663,26 @@
       <c r="AF54" s="13">
         <v>0</v>
       </c>
-      <c r="AG54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="13">
-        <v>0</v>
+      <c r="AG54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="13">
-        <v>0</v>
+      <c r="AJ54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN54" s="13" t="s">
         <v>58</v>
@@ -7693,8 +7693,8 @@
       <c r="AP54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ54" s="13" t="s">
-        <v>58</v>
+      <c r="AQ54" s="13">
+        <v>0</v>
       </c>
       <c r="AR54" s="13">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>62</v>
       </c>
@@ -7792,104 +7792,104 @@
       <c r="V55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>58</v>
+      <c r="W55" s="11">
+        <v>35137</v>
+      </c>
+      <c r="X55" s="11">
+        <v>72851</v>
       </c>
       <c r="Y55" s="11">
-        <v>35137</v>
+        <v>62737</v>
       </c>
       <c r="Z55" s="11">
-        <v>72851</v>
+        <v>37226</v>
       </c>
       <c r="AA55" s="11">
-        <v>62737</v>
+        <v>72323</v>
       </c>
       <c r="AB55" s="11">
-        <v>37226</v>
+        <v>75983</v>
       </c>
       <c r="AC55" s="11">
-        <v>72323</v>
+        <v>92568</v>
       </c>
       <c r="AD55" s="11">
-        <v>75983</v>
+        <v>51452</v>
       </c>
       <c r="AE55" s="11">
-        <v>92568</v>
+        <v>41342</v>
       </c>
       <c r="AF55" s="11">
-        <v>51452</v>
+        <v>84391</v>
       </c>
       <c r="AG55" s="11">
-        <v>41342</v>
+        <v>80022</v>
       </c>
       <c r="AH55" s="11">
-        <v>84391</v>
+        <v>42283</v>
       </c>
       <c r="AI55" s="11">
-        <v>80022</v>
+        <v>58186</v>
       </c>
       <c r="AJ55" s="11">
-        <v>42283</v>
+        <v>67883</v>
       </c>
       <c r="AK55" s="11">
-        <v>58186</v>
+        <v>60449</v>
       </c>
       <c r="AL55" s="11">
-        <v>67883</v>
-      </c>
-      <c r="AM55" s="11">
-        <v>60449</v>
+        <v>55654</v>
+      </c>
+      <c r="AM55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN55" s="11">
-        <v>55654</v>
-      </c>
-      <c r="AO55" s="11" t="s">
-        <v>58</v>
+        <v>15993</v>
+      </c>
+      <c r="AO55" s="11">
+        <v>49395</v>
       </c>
       <c r="AP55" s="11">
-        <v>15993</v>
-      </c>
-      <c r="AQ55" s="11">
-        <v>49395</v>
-      </c>
-      <c r="AR55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS55" s="11" t="s">
-        <v>58</v>
+        <v>68286</v>
+      </c>
+      <c r="AQ55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR55" s="11">
+        <v>81820</v>
+      </c>
+      <c r="AS55" s="11">
+        <v>79070</v>
       </c>
       <c r="AT55" s="11">
-        <v>81820</v>
+        <v>102269</v>
       </c>
       <c r="AU55" s="11">
-        <v>79070</v>
+        <v>105227</v>
       </c>
       <c r="AV55" s="11">
-        <v>102269</v>
+        <v>104110</v>
       </c>
       <c r="AW55" s="11">
-        <v>105227</v>
+        <v>84814</v>
       </c>
       <c r="AX55" s="11">
-        <v>104110</v>
+        <v>93352</v>
       </c>
       <c r="AY55" s="11">
-        <v>72721</v>
+        <v>78501</v>
       </c>
       <c r="AZ55" s="11">
-        <v>93352</v>
+        <v>74013</v>
       </c>
       <c r="BA55" s="11">
-        <v>78501</v>
+        <v>109982</v>
       </c>
       <c r="BB55" s="11">
-        <v>74013</v>
+        <v>53370</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>63</v>
       </c>
@@ -7951,11 +7951,11 @@
       <c r="V56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="13" t="s">
-        <v>58</v>
+      <c r="W56" s="13">
+        <v>0</v>
+      </c>
+      <c r="X56" s="13">
+        <v>0</v>
       </c>
       <c r="Y56" s="13">
         <v>0</v>
@@ -7978,11 +7978,11 @@
       <c r="AE56" s="13">
         <v>0</v>
       </c>
-      <c r="AF56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="13">
-        <v>0</v>
+      <c r="AF56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH56" s="13" t="s">
         <v>58</v>
@@ -8017,11 +8017,11 @@
       <c r="AR56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT56" s="13" t="s">
-        <v>58</v>
+      <c r="AS56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="13">
+        <v>0</v>
       </c>
       <c r="AU56" s="13">
         <v>0</v>
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>64</v>
       </c>
@@ -8110,77 +8110,77 @@
       <c r="V57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="11" t="s">
-        <v>58</v>
+      <c r="W57" s="11">
+        <v>86484</v>
+      </c>
+      <c r="X57" s="11">
+        <v>68741</v>
       </c>
       <c r="Y57" s="11">
-        <v>86484</v>
+        <v>65497</v>
       </c>
       <c r="Z57" s="11">
-        <v>68741</v>
+        <v>40549</v>
       </c>
       <c r="AA57" s="11">
-        <v>65497</v>
+        <v>68812</v>
       </c>
       <c r="AB57" s="11">
-        <v>40549</v>
+        <v>47858</v>
       </c>
       <c r="AC57" s="11">
-        <v>68812</v>
+        <v>83550</v>
       </c>
       <c r="AD57" s="11">
-        <v>47858</v>
+        <v>65973</v>
       </c>
       <c r="AE57" s="11">
-        <v>83550</v>
+        <v>31062</v>
       </c>
       <c r="AF57" s="11">
-        <v>65973</v>
+        <v>70644</v>
       </c>
       <c r="AG57" s="11">
-        <v>31062</v>
+        <v>88995</v>
       </c>
       <c r="AH57" s="11">
-        <v>70644</v>
+        <v>60777</v>
       </c>
       <c r="AI57" s="11">
-        <v>88995</v>
+        <v>73138</v>
       </c>
       <c r="AJ57" s="11">
-        <v>60777</v>
+        <v>84167</v>
       </c>
       <c r="AK57" s="11">
-        <v>73138</v>
+        <v>80850</v>
       </c>
       <c r="AL57" s="11">
-        <v>84167</v>
-      </c>
-      <c r="AM57" s="11">
-        <v>80850</v>
+        <v>53259</v>
+      </c>
+      <c r="AM57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN57" s="11">
-        <v>53259</v>
-      </c>
-      <c r="AO57" s="11" t="s">
-        <v>58</v>
+        <v>16533</v>
+      </c>
+      <c r="AO57" s="11">
+        <v>19201</v>
       </c>
       <c r="AP57" s="11">
-        <v>16533</v>
-      </c>
-      <c r="AQ57" s="11">
-        <v>19201</v>
-      </c>
-      <c r="AR57" s="11" t="s">
-        <v>58</v>
+        <v>41501</v>
+      </c>
+      <c r="AQ57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR57" s="11">
+        <v>55611</v>
       </c>
       <c r="AS57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT57" s="11">
-        <v>55611</v>
+      <c r="AT57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU57" s="11" t="s">
         <v>58</v>
@@ -8207,7 +8207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>65</v>
       </c>
@@ -8269,78 +8269,78 @@
       <c r="V58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X58" s="13" t="s">
-        <v>58</v>
+      <c r="W58" s="13">
+        <v>0</v>
+      </c>
+      <c r="X58" s="13">
+        <v>53</v>
       </c>
       <c r="Y58" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z58" s="13">
+        <v>9673</v>
+      </c>
+      <c r="AA58" s="13">
+        <v>34911</v>
+      </c>
+      <c r="AB58" s="13">
+        <v>34062</v>
+      </c>
+      <c r="AC58" s="13">
+        <v>238</v>
+      </c>
+      <c r="AD58" s="13">
+        <v>11690</v>
+      </c>
+      <c r="AE58" s="13">
+        <v>16315</v>
+      </c>
+      <c r="AF58" s="13">
+        <v>5811</v>
+      </c>
+      <c r="AG58" s="13">
         <v>53</v>
       </c>
-      <c r="AA58" s="13">
-        <v>6</v>
-      </c>
-      <c r="AB58" s="13">
-        <v>9673</v>
-      </c>
-      <c r="AC58" s="13">
-        <v>34911</v>
-      </c>
-      <c r="AD58" s="13">
-        <v>34062</v>
-      </c>
-      <c r="AE58" s="13">
-        <v>238</v>
-      </c>
-      <c r="AF58" s="13">
-        <v>11690</v>
-      </c>
-      <c r="AG58" s="13">
-        <v>16315</v>
-      </c>
       <c r="AH58" s="13">
-        <v>5811</v>
+        <v>47</v>
       </c>
       <c r="AI58" s="13">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="AJ58" s="13">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="AK58" s="13">
-        <v>112</v>
+        <v>3941</v>
       </c>
       <c r="AL58" s="13">
-        <v>70</v>
-      </c>
-      <c r="AM58" s="13">
-        <v>3941</v>
+        <v>23852</v>
+      </c>
+      <c r="AM58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN58" s="13">
-        <v>23852</v>
-      </c>
-      <c r="AO58" s="13" t="s">
-        <v>58</v>
+        <v>52282</v>
+      </c>
+      <c r="AO58" s="13">
+        <v>18238</v>
       </c>
       <c r="AP58" s="13">
-        <v>52282</v>
+        <v>12936</v>
       </c>
       <c r="AQ58" s="13">
-        <v>18238</v>
+        <v>870648</v>
       </c>
       <c r="AR58" s="13">
-        <v>536046</v>
-      </c>
-      <c r="AS58" s="13">
-        <v>870648</v>
-      </c>
-      <c r="AT58" s="13">
         <v>10550</v>
       </c>
+      <c r="AS58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT58" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU58" s="13" t="s">
         <v>58</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>66</v>
       </c>
@@ -8428,11 +8428,11 @@
       <c r="V59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>58</v>
+      <c r="W59" s="11">
+        <v>0</v>
+      </c>
+      <c r="X59" s="11">
+        <v>0</v>
       </c>
       <c r="Y59" s="11">
         <v>0</v>
@@ -8455,11 +8455,11 @@
       <c r="AE59" s="11">
         <v>0</v>
       </c>
-      <c r="AF59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="11">
-        <v>0</v>
+      <c r="AF59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH59" s="11" t="s">
         <v>58</v>
@@ -8525,7 +8525,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>67</v>
       </c>
@@ -8587,11 +8587,11 @@
       <c r="V60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X60" s="13" t="s">
-        <v>58</v>
+      <c r="W60" s="13">
+        <v>0</v>
+      </c>
+      <c r="X60" s="13">
+        <v>0</v>
       </c>
       <c r="Y60" s="13">
         <v>0</v>
@@ -8617,11 +8617,11 @@
       <c r="AF60" s="13">
         <v>0</v>
       </c>
-      <c r="AG60" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="13">
-        <v>0</v>
+      <c r="AG60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI60" s="13" t="s">
         <v>58</v>
@@ -8647,14 +8647,14 @@
       <c r="AP60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR60" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS60" s="13">
-        <v>0</v>
+      <c r="AQ60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT60" s="13" t="s">
         <v>58</v>
@@ -8684,7 +8684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>68</v>
       </c>
@@ -8746,11 +8746,11 @@
       <c r="V61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="11" t="s">
-        <v>58</v>
+      <c r="W61" s="11">
+        <v>0</v>
+      </c>
+      <c r="X61" s="11">
+        <v>0</v>
       </c>
       <c r="Y61" s="11">
         <v>0</v>
@@ -8776,11 +8776,11 @@
       <c r="AF61" s="11">
         <v>0</v>
       </c>
-      <c r="AG61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="11">
-        <v>0</v>
+      <c r="AG61" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI61" s="11" t="s">
         <v>58</v>
@@ -8806,8 +8806,8 @@
       <c r="AP61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ61" s="11" t="s">
-        <v>58</v>
+      <c r="AQ61" s="11">
+        <v>0</v>
       </c>
       <c r="AR61" s="11">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>69</v>
       </c>
@@ -8905,11 +8905,11 @@
       <c r="V62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X62" s="13" t="s">
-        <v>58</v>
+      <c r="W62" s="13">
+        <v>0</v>
+      </c>
+      <c r="X62" s="13">
+        <v>0</v>
       </c>
       <c r="Y62" s="13">
         <v>0</v>
@@ -8935,11 +8935,11 @@
       <c r="AF62" s="13">
         <v>0</v>
       </c>
-      <c r="AG62" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="13">
-        <v>0</v>
+      <c r="AG62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI62" s="13" t="s">
         <v>58</v>
@@ -8965,17 +8965,17 @@
       <c r="AP62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ62" s="13" t="s">
-        <v>58</v>
+      <c r="AQ62" s="13">
+        <v>0</v>
       </c>
       <c r="AR62" s="13">
         <v>0</v>
       </c>
-      <c r="AS62" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT62" s="13">
-        <v>0</v>
+      <c r="AS62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU62" s="13" t="s">
         <v>58</v>
@@ -9002,7 +9002,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>70</v>
       </c>
@@ -9064,11 +9064,11 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>0</v>
+      </c>
+      <c r="X63" s="11">
+        <v>0</v>
       </c>
       <c r="Y63" s="11">
         <v>0</v>
@@ -9094,11 +9094,11 @@
       <c r="AF63" s="11">
         <v>0</v>
       </c>
-      <c r="AG63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH63" s="11">
-        <v>0</v>
+      <c r="AG63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI63" s="11" t="s">
         <v>58</v>
@@ -9124,14 +9124,14 @@
       <c r="AP63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS63" s="11">
-        <v>0</v>
+      <c r="AQ63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT63" s="11" t="s">
         <v>58</v>
@@ -9161,7 +9161,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>71</v>
       </c>
@@ -9283,15 +9283,15 @@
       <c r="AP64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR64" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="13">
+      <c r="AQ64" s="13">
         <v>710735</v>
       </c>
+      <c r="AR64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS64" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT64" s="13" t="s">
         <v>58</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>72</v>
       </c>
@@ -9409,14 +9409,14 @@
       <c r="AE65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF65" s="11" t="s">
-        <v>58</v>
+      <c r="AF65" s="11">
+        <v>0</v>
       </c>
       <c r="AG65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH65" s="11">
-        <v>0</v>
+      <c r="AH65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI65" s="11" t="s">
         <v>58</v>
@@ -9442,17 +9442,17 @@
       <c r="AP65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ65" s="11" t="s">
-        <v>58</v>
+      <c r="AQ65" s="11">
+        <v>0</v>
       </c>
       <c r="AR65" s="11">
         <v>0</v>
       </c>
-      <c r="AS65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT65" s="11">
-        <v>0</v>
+      <c r="AS65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU65" s="11" t="s">
         <v>58</v>
@@ -9479,7 +9479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>73</v>
       </c>
@@ -9568,14 +9568,14 @@
       <c r="AE66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF66" s="13" t="s">
-        <v>58</v>
+      <c r="AF66" s="13">
+        <v>0</v>
       </c>
       <c r="AG66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH66" s="13">
-        <v>0</v>
+      <c r="AH66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI66" s="13" t="s">
         <v>58</v>
@@ -9638,7 +9638,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>82</v>
       </c>
@@ -9699,103 +9699,103 @@
         <v>0</v>
       </c>
       <c r="W67" s="15">
-        <v>0</v>
+        <v>121948</v>
       </c>
       <c r="X67" s="15">
-        <v>0</v>
+        <v>141645</v>
       </c>
       <c r="Y67" s="15">
-        <v>121948</v>
+        <v>128240</v>
       </c>
       <c r="Z67" s="15">
-        <v>141645</v>
+        <v>87448</v>
       </c>
       <c r="AA67" s="15">
-        <v>128240</v>
+        <v>176214</v>
       </c>
       <c r="AB67" s="15">
-        <v>87448</v>
+        <v>158821</v>
       </c>
       <c r="AC67" s="15">
-        <v>176214</v>
+        <v>176356</v>
       </c>
       <c r="AD67" s="15">
-        <v>158821</v>
+        <v>129516</v>
       </c>
       <c r="AE67" s="15">
-        <v>176356</v>
+        <v>88719</v>
       </c>
       <c r="AF67" s="15">
-        <v>129516</v>
+        <v>161549</v>
       </c>
       <c r="AG67" s="15">
-        <v>88719</v>
+        <v>169252</v>
       </c>
       <c r="AH67" s="15">
-        <v>161549</v>
+        <v>103500</v>
       </c>
       <c r="AI67" s="15">
-        <v>169252</v>
+        <v>131436</v>
       </c>
       <c r="AJ67" s="15">
-        <v>103500</v>
+        <v>152120</v>
       </c>
       <c r="AK67" s="15">
-        <v>131436</v>
+        <v>145744</v>
       </c>
       <c r="AL67" s="15">
-        <v>152120</v>
+        <v>132765</v>
       </c>
       <c r="AM67" s="15">
-        <v>145744</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="15">
-        <v>132765</v>
+        <v>85215</v>
       </c>
       <c r="AO67" s="15">
-        <v>0</v>
+        <v>87246</v>
       </c>
       <c r="AP67" s="15">
-        <v>85215</v>
+        <v>123158</v>
       </c>
       <c r="AQ67" s="15">
-        <v>87246</v>
+        <v>1581383</v>
       </c>
       <c r="AR67" s="15">
-        <v>536481</v>
+        <v>147981</v>
       </c>
       <c r="AS67" s="15">
-        <v>1581383</v>
+        <v>182744</v>
       </c>
       <c r="AT67" s="15">
-        <v>147981</v>
+        <v>152103</v>
       </c>
       <c r="AU67" s="15">
-        <v>182744</v>
+        <v>188897</v>
       </c>
       <c r="AV67" s="15">
-        <v>152103</v>
+        <v>152683</v>
       </c>
       <c r="AW67" s="15">
-        <v>188897</v>
+        <v>168489</v>
       </c>
       <c r="AX67" s="15">
-        <v>152684</v>
+        <v>165902</v>
       </c>
       <c r="AY67" s="15">
-        <v>160636</v>
+        <v>140104</v>
       </c>
       <c r="AZ67" s="15">
-        <v>165902</v>
+        <v>134580</v>
       </c>
       <c r="BA67" s="15">
-        <v>140104</v>
+        <v>179549</v>
       </c>
       <c r="BB67" s="15">
-        <v>134580</v>
+        <v>113545</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>83</v>
       </c>
@@ -9852,7 +9852,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>59</v>
       </c>
@@ -9914,104 +9914,104 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>64288</v>
+      </c>
+      <c r="X69" s="11">
+        <v>40119</v>
       </c>
       <c r="Y69" s="11">
-        <v>64288</v>
+        <v>52927</v>
       </c>
       <c r="Z69" s="11">
-        <v>40119</v>
+        <v>46005</v>
       </c>
       <c r="AA69" s="11">
-        <v>52927</v>
+        <v>45462</v>
       </c>
       <c r="AB69" s="11">
-        <v>46005</v>
+        <v>45890</v>
       </c>
       <c r="AC69" s="11">
-        <v>45462</v>
+        <v>44600</v>
       </c>
       <c r="AD69" s="11">
-        <v>45890</v>
+        <v>71294</v>
       </c>
       <c r="AE69" s="11">
-        <v>44600</v>
+        <v>6400</v>
       </c>
       <c r="AF69" s="11">
-        <v>71294</v>
+        <v>93713</v>
       </c>
       <c r="AG69" s="11">
-        <v>6400</v>
+        <v>46962</v>
       </c>
       <c r="AH69" s="11">
-        <v>93713</v>
+        <v>46811</v>
       </c>
       <c r="AI69" s="11">
-        <v>46962</v>
+        <v>39848</v>
       </c>
       <c r="AJ69" s="11">
-        <v>46811</v>
+        <v>45695</v>
       </c>
       <c r="AK69" s="11">
-        <v>39848</v>
+        <v>86748</v>
       </c>
       <c r="AL69" s="11">
-        <v>45695</v>
-      </c>
-      <c r="AM69" s="11">
-        <v>86748</v>
+        <v>36409</v>
+      </c>
+      <c r="AM69" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN69" s="11">
-        <v>36409</v>
-      </c>
-      <c r="AO69" s="11" t="s">
-        <v>58</v>
+        <v>36382</v>
+      </c>
+      <c r="AO69" s="11">
+        <v>72628</v>
       </c>
       <c r="AP69" s="11">
-        <v>36382</v>
+        <v>36086</v>
       </c>
       <c r="AQ69" s="11">
-        <v>72628</v>
+        <v>36126</v>
       </c>
       <c r="AR69" s="11">
-        <v>688375</v>
+        <v>74364</v>
       </c>
       <c r="AS69" s="11">
-        <v>36126</v>
+        <v>39775</v>
       </c>
       <c r="AT69" s="11">
-        <v>74364</v>
+        <v>71646</v>
       </c>
       <c r="AU69" s="11">
-        <v>39775</v>
+        <v>38104</v>
       </c>
       <c r="AV69" s="11">
-        <v>71646</v>
+        <v>64699</v>
       </c>
       <c r="AW69" s="11">
-        <v>38104</v>
+        <v>53156</v>
       </c>
       <c r="AX69" s="11">
-        <v>64699</v>
+        <v>39904</v>
       </c>
       <c r="AY69" s="11">
-        <v>53156</v>
+        <v>37819</v>
       </c>
       <c r="AZ69" s="11">
-        <v>39904</v>
+        <v>40040</v>
       </c>
       <c r="BA69" s="11">
-        <v>37819</v>
+        <v>37489</v>
       </c>
       <c r="BB69" s="11">
-        <v>40040</v>
+        <v>33832</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>60</v>
       </c>
@@ -10133,14 +10133,14 @@
       <c r="AP70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR70" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS70" s="13">
-        <v>0</v>
+      <c r="AQ70" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT70" s="13" t="s">
         <v>58</v>
@@ -10151,11 +10151,11 @@
       <c r="AV70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX70" s="13">
-        <v>0</v>
+      <c r="AW70" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY70" s="13" t="s">
         <v>58</v>
@@ -10170,7 +10170,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>61</v>
       </c>
@@ -10232,104 +10232,104 @@
       <c r="V71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" s="11" t="s">
-        <v>58</v>
+      <c r="W71" s="11">
+        <v>0</v>
+      </c>
+      <c r="X71" s="11">
+        <v>6420</v>
       </c>
       <c r="Y71" s="11">
-        <v>0</v>
+        <v>6450</v>
       </c>
       <c r="Z71" s="11">
-        <v>6420</v>
+        <v>0</v>
       </c>
       <c r="AA71" s="11">
-        <v>6450</v>
+        <v>5385</v>
       </c>
       <c r="AB71" s="11">
         <v>0</v>
       </c>
       <c r="AC71" s="11">
-        <v>5385</v>
+        <v>5942</v>
       </c>
       <c r="AD71" s="11">
-        <v>0</v>
+        <v>3604</v>
       </c>
       <c r="AE71" s="11">
-        <v>5942</v>
-      </c>
-      <c r="AF71" s="11">
-        <v>3604</v>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG71" s="11">
-        <v>0</v>
+        <v>10157</v>
       </c>
       <c r="AH71" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AI71" s="11">
-        <v>10157</v>
-      </c>
-      <c r="AJ71" s="11" t="s">
-        <v>58</v>
+        <v>6469</v>
+      </c>
+      <c r="AJ71" s="11">
+        <v>5345</v>
       </c>
       <c r="AK71" s="11">
-        <v>6469</v>
-      </c>
-      <c r="AL71" s="11">
-        <v>5345</v>
-      </c>
-      <c r="AM71" s="11">
         <v>11828</v>
       </c>
+      <c r="AL71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM71" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN71" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR71" s="11">
+      <c r="AP71" s="11">
         <v>3625</v>
       </c>
+      <c r="AQ71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS71" s="11">
         <v>0</v>
       </c>
-      <c r="AT71" s="11" t="s">
-        <v>58</v>
+      <c r="AT71" s="11">
+        <v>6399</v>
       </c>
       <c r="AU71" s="11">
-        <v>0</v>
+        <v>6490</v>
       </c>
       <c r="AV71" s="11">
-        <v>6399</v>
+        <v>0</v>
       </c>
       <c r="AW71" s="11">
-        <v>6490</v>
+        <v>0</v>
       </c>
       <c r="AX71" s="11">
-        <v>0</v>
+        <v>6449</v>
       </c>
       <c r="AY71" s="11">
-        <v>0</v>
+        <v>3544</v>
       </c>
       <c r="AZ71" s="11">
-        <v>6449</v>
+        <v>0</v>
       </c>
       <c r="BA71" s="11">
-        <v>3544</v>
+        <v>0</v>
       </c>
       <c r="BB71" s="11">
-        <v>0</v>
+        <v>3602</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>62</v>
       </c>
@@ -10451,20 +10451,20 @@
       <c r="AP72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR72" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS72" s="13">
+      <c r="AQ72" s="13">
         <v>433</v>
       </c>
-      <c r="AT72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU72" s="13" t="s">
-        <v>58</v>
+      <c r="AR72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT72" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU72" s="13">
+        <v>0</v>
       </c>
       <c r="AV72" s="13">
         <v>0</v>
@@ -10488,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>63</v>
       </c>
@@ -10550,11 +10550,11 @@
       <c r="V73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X73" s="11" t="s">
-        <v>58</v>
+      <c r="W73" s="11">
+        <v>0</v>
+      </c>
+      <c r="X73" s="11">
+        <v>0</v>
       </c>
       <c r="Y73" s="11">
         <v>0</v>
@@ -10569,20 +10569,20 @@
         <v>0</v>
       </c>
       <c r="AC73" s="11">
-        <v>0</v>
+        <v>88144</v>
       </c>
       <c r="AD73" s="11">
         <v>0</v>
       </c>
       <c r="AE73" s="11">
-        <v>88144</v>
-      </c>
-      <c r="AF73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="11">
         <v>45023</v>
       </c>
+      <c r="AF73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG73" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH73" s="11" t="s">
         <v>58</v>
       </c>
@@ -10610,44 +10610,44 @@
       <c r="AP73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR73" s="11">
-        <v>0</v>
+      <c r="AQ73" s="11">
+        <v>607115</v>
+      </c>
+      <c r="AR73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS73" s="11">
-        <v>607115</v>
-      </c>
-      <c r="AT73" s="11" t="s">
-        <v>58</v>
+        <v>44399</v>
+      </c>
+      <c r="AT73" s="11">
+        <v>0</v>
       </c>
       <c r="AU73" s="11">
-        <v>44399</v>
+        <v>86891</v>
       </c>
       <c r="AV73" s="11">
         <v>0</v>
       </c>
       <c r="AW73" s="11">
-        <v>86891</v>
+        <v>0</v>
       </c>
       <c r="AX73" s="11">
-        <v>1</v>
+        <v>46773</v>
       </c>
       <c r="AY73" s="11">
-        <v>-1</v>
+        <v>46262</v>
       </c>
       <c r="AZ73" s="11">
-        <v>46773</v>
+        <v>45194</v>
       </c>
       <c r="BA73" s="11">
-        <v>46262</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="11">
-        <v>45194</v>
+        <v>13952</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>64</v>
       </c>
@@ -10724,11 +10724,11 @@
       <c r="AA74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC74" s="13" t="s">
-        <v>58</v>
+      <c r="AB74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="13">
+        <v>0</v>
       </c>
       <c r="AD74" s="13">
         <v>0</v>
@@ -10736,11 +10736,11 @@
       <c r="AE74" s="13">
         <v>0</v>
       </c>
-      <c r="AF74" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG74" s="13">
-        <v>0</v>
+      <c r="AF74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH74" s="13" t="s">
         <v>58</v>
@@ -10806,7 +10806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>65</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>66</v>
       </c>
@@ -11027,11 +11027,11 @@
       <c r="V76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X76" s="13" t="s">
-        <v>58</v>
+      <c r="W76" s="13">
+        <v>0</v>
+      </c>
+      <c r="X76" s="13">
+        <v>0</v>
       </c>
       <c r="Y76" s="13">
         <v>0</v>
@@ -11054,11 +11054,11 @@
       <c r="AE76" s="13">
         <v>0</v>
       </c>
-      <c r="AF76" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG76" s="13">
-        <v>0</v>
+      <c r="AF76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH76" s="13" t="s">
         <v>58</v>
@@ -11124,7 +11124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>67</v>
       </c>
@@ -11204,20 +11204,20 @@
       <c r="AB77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD77" s="11" t="s">
-        <v>58</v>
+      <c r="AC77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="11">
+        <v>0</v>
       </c>
       <c r="AE77" s="11">
         <v>0</v>
       </c>
-      <c r="AF77" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG77" s="11">
-        <v>0</v>
+      <c r="AF77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH77" s="11" t="s">
         <v>58</v>
@@ -11283,7 +11283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>68</v>
       </c>
@@ -11345,14 +11345,14 @@
       <c r="V78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" s="13" t="s">
-        <v>58</v>
+      <c r="W78" s="13">
+        <v>994</v>
+      </c>
+      <c r="X78" s="13">
+        <v>0</v>
       </c>
       <c r="Y78" s="13">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="Z78" s="13">
         <v>0</v>
@@ -11361,22 +11361,22 @@
         <v>0</v>
       </c>
       <c r="AB78" s="13">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="AC78" s="13">
         <v>0</v>
       </c>
       <c r="AD78" s="13">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="13">
         <v>0</v>
       </c>
-      <c r="AF78" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG78" s="13">
-        <v>0</v>
+      <c r="AF78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH78" s="13" t="s">
         <v>58</v>
@@ -11390,38 +11390,38 @@
       <c r="AK78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL78" s="13" t="s">
-        <v>58</v>
+      <c r="AL78" s="13">
+        <v>949</v>
       </c>
       <c r="AM78" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AN78" s="13">
-        <v>949</v>
+        <v>865</v>
       </c>
       <c r="AO78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP78" s="13">
-        <v>865</v>
-      </c>
-      <c r="AQ78" s="13" t="s">
-        <v>58</v>
+      <c r="AP78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ78" s="13">
+        <v>1814</v>
       </c>
       <c r="AR78" s="13">
-        <v>0</v>
+        <v>1899</v>
       </c>
       <c r="AS78" s="13">
-        <v>1814</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="13">
-        <v>1899</v>
+        <v>557</v>
       </c>
       <c r="AU78" s="13">
         <v>0</v>
       </c>
       <c r="AV78" s="13">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="AW78" s="13">
         <v>0</v>
@@ -11433,16 +11433,16 @@
         <v>0</v>
       </c>
       <c r="AZ78" s="13">
-        <v>0</v>
+        <v>951</v>
       </c>
       <c r="BA78" s="13">
         <v>0</v>
       </c>
       <c r="BB78" s="13">
-        <v>951</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>70</v>
       </c>
@@ -11504,26 +11504,26 @@
       <c r="V79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="11" t="s">
-        <v>58</v>
+      <c r="W79" s="11">
+        <v>0</v>
+      </c>
+      <c r="X79" s="11">
+        <v>40213</v>
       </c>
       <c r="Y79" s="11">
-        <v>0</v>
+        <v>82379</v>
       </c>
       <c r="Z79" s="11">
-        <v>40213</v>
+        <v>46008</v>
       </c>
       <c r="AA79" s="11">
-        <v>82379</v>
+        <v>46001</v>
       </c>
       <c r="AB79" s="11">
-        <v>46008</v>
+        <v>0</v>
       </c>
       <c r="AC79" s="11">
-        <v>46001</v>
+        <v>0</v>
       </c>
       <c r="AD79" s="11">
         <v>0</v>
@@ -11531,11 +11531,11 @@
       <c r="AE79" s="11">
         <v>0</v>
       </c>
-      <c r="AF79" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG79" s="11">
-        <v>0</v>
+      <c r="AF79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH79" s="11" t="s">
         <v>58</v>
@@ -11601,7 +11601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>72</v>
       </c>
@@ -11690,50 +11690,50 @@
       <c r="AE80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG80" s="13" t="s">
-        <v>58</v>
+      <c r="AF80" s="13">
+        <v>45617</v>
+      </c>
+      <c r="AG80" s="13">
+        <v>21164</v>
       </c>
       <c r="AH80" s="13">
-        <v>45617</v>
-      </c>
-      <c r="AI80" s="13">
-        <v>21164</v>
+        <v>123607</v>
+      </c>
+      <c r="AI80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ80" s="13">
-        <v>123607</v>
-      </c>
-      <c r="AK80" s="13" t="s">
-        <v>58</v>
+        <v>92092</v>
+      </c>
+      <c r="AK80" s="13">
+        <v>45385</v>
       </c>
       <c r="AL80" s="13">
-        <v>92092</v>
-      </c>
-      <c r="AM80" s="13">
-        <v>45385</v>
+        <v>45296</v>
+      </c>
+      <c r="AM80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN80" s="13">
-        <v>45296</v>
-      </c>
-      <c r="AO80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP80" s="13">
         <v>93056</v>
       </c>
+      <c r="AO80" s="13">
+        <v>47431</v>
+      </c>
+      <c r="AP80" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ80" s="13">
-        <v>47431</v>
+        <v>0</v>
       </c>
       <c r="AR80" s="13">
-        <v>-560674</v>
-      </c>
-      <c r="AS80" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT80" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS80" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU80" s="13" t="s">
         <v>58</v>
@@ -11760,7 +11760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
         <v>84</v>
       </c>
@@ -11821,103 +11821,103 @@
         <v>0</v>
       </c>
       <c r="W81" s="15">
-        <v>0</v>
+        <v>65282</v>
       </c>
       <c r="X81" s="15">
-        <v>0</v>
+        <v>86752</v>
       </c>
       <c r="Y81" s="15">
-        <v>65282</v>
+        <v>141756</v>
       </c>
       <c r="Z81" s="15">
-        <v>86752</v>
+        <v>92013</v>
       </c>
       <c r="AA81" s="15">
-        <v>141756</v>
+        <v>96848</v>
       </c>
       <c r="AB81" s="15">
-        <v>92013</v>
+        <v>46819</v>
       </c>
       <c r="AC81" s="15">
-        <v>96848</v>
+        <v>138686</v>
       </c>
       <c r="AD81" s="15">
-        <v>46819</v>
+        <v>74898</v>
       </c>
       <c r="AE81" s="15">
-        <v>138686</v>
+        <v>51423</v>
       </c>
       <c r="AF81" s="15">
-        <v>74898</v>
+        <v>139330</v>
       </c>
       <c r="AG81" s="15">
-        <v>51423</v>
+        <v>78283</v>
       </c>
       <c r="AH81" s="15">
-        <v>139330</v>
+        <v>170418</v>
       </c>
       <c r="AI81" s="15">
-        <v>78283</v>
+        <v>46317</v>
       </c>
       <c r="AJ81" s="15">
-        <v>170418</v>
+        <v>143132</v>
       </c>
       <c r="AK81" s="15">
-        <v>46317</v>
+        <v>143961</v>
       </c>
       <c r="AL81" s="15">
-        <v>143132</v>
+        <v>82654</v>
       </c>
       <c r="AM81" s="15">
-        <v>143961</v>
+        <v>0</v>
       </c>
       <c r="AN81" s="15">
-        <v>82654</v>
+        <v>130303</v>
       </c>
       <c r="AO81" s="15">
-        <v>0</v>
+        <v>120059</v>
       </c>
       <c r="AP81" s="15">
-        <v>130303</v>
+        <v>39711</v>
       </c>
       <c r="AQ81" s="15">
-        <v>120059</v>
+        <v>645488</v>
       </c>
       <c r="AR81" s="15">
-        <v>131326</v>
+        <v>76263</v>
       </c>
       <c r="AS81" s="15">
-        <v>645488</v>
+        <v>84174</v>
       </c>
       <c r="AT81" s="15">
-        <v>76263</v>
+        <v>78602</v>
       </c>
       <c r="AU81" s="15">
-        <v>84174</v>
+        <v>131485</v>
       </c>
       <c r="AV81" s="15">
-        <v>78602</v>
+        <v>64699</v>
       </c>
       <c r="AW81" s="15">
-        <v>131485</v>
+        <v>53156</v>
       </c>
       <c r="AX81" s="15">
-        <v>64700</v>
+        <v>93126</v>
       </c>
       <c r="AY81" s="15">
-        <v>53155</v>
+        <v>87625</v>
       </c>
       <c r="AZ81" s="15">
-        <v>93126</v>
+        <v>86185</v>
       </c>
       <c r="BA81" s="15">
-        <v>87625</v>
+        <v>37489</v>
       </c>
       <c r="BB81" s="15">
-        <v>86185</v>
+        <v>51386</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
         <v>77</v>
       </c>
@@ -11974,7 +11974,7 @@
       <c r="BA82" s="17"/>
       <c r="BB82" s="17"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
         <v>78</v>
       </c>
@@ -12034,11 +12034,11 @@
       <c r="V83" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="15" t="s">
-        <v>58</v>
+      <c r="W83" s="15">
+        <v>0</v>
+      </c>
+      <c r="X83" s="15">
+        <v>0</v>
       </c>
       <c r="Y83" s="15">
         <v>0</v>
@@ -12082,14 +12082,14 @@
       <c r="AL83" s="15">
         <v>0</v>
       </c>
-      <c r="AM83" s="15">
-        <v>0</v>
+      <c r="AM83" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AN83" s="15">
         <v>0</v>
       </c>
-      <c r="AO83" s="15" t="s">
-        <v>58</v>
+      <c r="AO83" s="15">
+        <v>0</v>
       </c>
       <c r="AP83" s="15">
         <v>0</v>
@@ -12131,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
         <v>85</v>
       </c>
@@ -12188,7 +12188,7 @@
       <c r="BA84" s="17"/>
       <c r="BB84" s="17"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
         <v>86</v>
       </c>
@@ -12248,11 +12248,11 @@
       <c r="V85" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="15" t="s">
-        <v>58</v>
+      <c r="W85" s="15">
+        <v>0</v>
+      </c>
+      <c r="X85" s="15">
+        <v>0</v>
       </c>
       <c r="Y85" s="15">
         <v>0</v>
@@ -12296,14 +12296,14 @@
       <c r="AL85" s="15">
         <v>0</v>
       </c>
-      <c r="AM85" s="15">
-        <v>0</v>
+      <c r="AM85" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AN85" s="15">
         <v>0</v>
       </c>
-      <c r="AO85" s="15" t="s">
-        <v>58</v>
+      <c r="AO85" s="15">
+        <v>0</v>
       </c>
       <c r="AP85" s="15">
         <v>0</v>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>79</v>
       </c>
@@ -12406,103 +12406,103 @@
         <v>0</v>
       </c>
       <c r="W86" s="19">
-        <v>0</v>
+        <v>187230</v>
       </c>
       <c r="X86" s="19">
-        <v>0</v>
+        <v>228397</v>
       </c>
       <c r="Y86" s="19">
-        <v>187230</v>
+        <v>269996</v>
       </c>
       <c r="Z86" s="19">
-        <v>228397</v>
+        <v>179461</v>
       </c>
       <c r="AA86" s="19">
-        <v>269996</v>
+        <v>273062</v>
       </c>
       <c r="AB86" s="19">
-        <v>179461</v>
+        <v>205640</v>
       </c>
       <c r="AC86" s="19">
-        <v>273062</v>
+        <v>315042</v>
       </c>
       <c r="AD86" s="19">
-        <v>205640</v>
+        <v>204414</v>
       </c>
       <c r="AE86" s="19">
-        <v>315042</v>
+        <v>140142</v>
       </c>
       <c r="AF86" s="19">
-        <v>204414</v>
+        <v>300879</v>
       </c>
       <c r="AG86" s="19">
-        <v>140142</v>
+        <v>247535</v>
       </c>
       <c r="AH86" s="19">
-        <v>300879</v>
+        <v>273918</v>
       </c>
       <c r="AI86" s="19">
-        <v>247535</v>
+        <v>177753</v>
       </c>
       <c r="AJ86" s="19">
-        <v>273918</v>
+        <v>295252</v>
       </c>
       <c r="AK86" s="19">
-        <v>177753</v>
+        <v>289705</v>
       </c>
       <c r="AL86" s="19">
-        <v>295252</v>
+        <v>215419</v>
       </c>
       <c r="AM86" s="19">
-        <v>289705</v>
+        <v>0</v>
       </c>
       <c r="AN86" s="19">
-        <v>215419</v>
+        <v>215518</v>
       </c>
       <c r="AO86" s="19">
-        <v>0</v>
+        <v>207305</v>
       </c>
       <c r="AP86" s="19">
-        <v>215518</v>
+        <v>162869</v>
       </c>
       <c r="AQ86" s="19">
-        <v>207305</v>
+        <v>2226871</v>
       </c>
       <c r="AR86" s="19">
-        <v>667807</v>
+        <v>224244</v>
       </c>
       <c r="AS86" s="19">
-        <v>2226871</v>
+        <v>266918</v>
       </c>
       <c r="AT86" s="19">
-        <v>224244</v>
+        <v>230705</v>
       </c>
       <c r="AU86" s="19">
-        <v>266918</v>
+        <v>320382</v>
       </c>
       <c r="AV86" s="19">
-        <v>230705</v>
+        <v>217382</v>
       </c>
       <c r="AW86" s="19">
-        <v>320382</v>
+        <v>221645</v>
       </c>
       <c r="AX86" s="19">
-        <v>217384</v>
+        <v>259028</v>
       </c>
       <c r="AY86" s="19">
-        <v>213791</v>
+        <v>227729</v>
       </c>
       <c r="AZ86" s="19">
-        <v>259028</v>
+        <v>220765</v>
       </c>
       <c r="BA86" s="19">
-        <v>227729</v>
+        <v>217038</v>
       </c>
       <c r="BB86" s="19">
-        <v>220765</v>
+        <v>164931</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -12557,7 +12557,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -12612,7 +12612,7 @@
       <c r="BA88" s="1"/>
       <c r="BB88" s="1"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -12667,7 +12667,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
     </row>
-    <row r="90" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>87</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12879,7 +12879,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>88</v>
       </c>
@@ -12936,7 +12936,7 @@
       <c r="BA92" s="9"/>
       <c r="BB92" s="9"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>56</v>
       </c>
@@ -13058,14 +13058,14 @@
       <c r="AP93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ93" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR93" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS93" s="11">
-        <v>0</v>
+      <c r="AQ93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR93" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS93" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT93" s="11" t="s">
         <v>58</v>
@@ -13095,7 +13095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>59</v>
       </c>
@@ -13157,11 +13157,11 @@
       <c r="V94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W94" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X94" s="13" t="s">
-        <v>58</v>
+      <c r="W94" s="13">
+        <v>0</v>
+      </c>
+      <c r="X94" s="13">
+        <v>0</v>
       </c>
       <c r="Y94" s="13">
         <v>0</v>
@@ -13205,14 +13205,14 @@
       <c r="AL94" s="13">
         <v>0</v>
       </c>
-      <c r="AM94" s="13">
-        <v>0</v>
+      <c r="AM94" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN94" s="13">
         <v>0</v>
       </c>
-      <c r="AO94" s="13" t="s">
-        <v>58</v>
+      <c r="AO94" s="13">
+        <v>0</v>
       </c>
       <c r="AP94" s="13">
         <v>0</v>
@@ -13239,10 +13239,10 @@
         <v>0</v>
       </c>
       <c r="AX94" s="13">
-        <v>314836</v>
+        <v>0</v>
       </c>
       <c r="AY94" s="13">
-        <v>-314836</v>
+        <v>0</v>
       </c>
       <c r="AZ94" s="13">
         <v>0</v>
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>60</v>
       </c>
@@ -13382,26 +13382,26 @@
       <c r="AR95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS95" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT95" s="11" t="s">
-        <v>58</v>
+      <c r="AS95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT95" s="11">
+        <v>47100437</v>
       </c>
       <c r="AU95" s="11">
         <v>0</v>
       </c>
       <c r="AV95" s="11">
-        <v>47100437</v>
+        <v>0</v>
       </c>
       <c r="AW95" s="11">
-        <v>0</v>
+        <v>19233282</v>
       </c>
       <c r="AX95" s="11">
-        <v>33354332</v>
+        <v>0</v>
       </c>
       <c r="AY95" s="11">
-        <v>20132378</v>
+        <v>0</v>
       </c>
       <c r="AZ95" s="11">
         <v>0</v>
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>61</v>
       </c>
@@ -13475,11 +13475,11 @@
       <c r="V96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X96" s="13" t="s">
-        <v>58</v>
+      <c r="W96" s="13">
+        <v>0</v>
+      </c>
+      <c r="X96" s="13">
+        <v>0</v>
       </c>
       <c r="Y96" s="13">
         <v>0</v>
@@ -13523,14 +13523,14 @@
       <c r="AL96" s="13">
         <v>0</v>
       </c>
-      <c r="AM96" s="13">
-        <v>0</v>
+      <c r="AM96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN96" s="13">
         <v>0</v>
       </c>
-      <c r="AO96" s="13" t="s">
-        <v>58</v>
+      <c r="AO96" s="13">
+        <v>0</v>
       </c>
       <c r="AP96" s="13">
         <v>0</v>
@@ -13572,7 +13572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>62</v>
       </c>
@@ -13634,11 +13634,11 @@
       <c r="V97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X97" s="11" t="s">
-        <v>58</v>
+      <c r="W97" s="11">
+        <v>0</v>
+      </c>
+      <c r="X97" s="11">
+        <v>0</v>
       </c>
       <c r="Y97" s="11">
         <v>0</v>
@@ -13682,44 +13682,44 @@
       <c r="AL97" s="11">
         <v>0</v>
       </c>
-      <c r="AM97" s="11">
-        <v>0</v>
+      <c r="AM97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN97" s="11">
         <v>0</v>
       </c>
-      <c r="AO97" s="11" t="s">
-        <v>58</v>
+      <c r="AO97" s="11">
+        <v>0</v>
       </c>
       <c r="AP97" s="11">
         <v>0</v>
       </c>
-      <c r="AQ97" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS97" s="11" t="s">
-        <v>58</v>
+      <c r="AQ97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR97" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS97" s="11">
+        <v>0</v>
       </c>
       <c r="AT97" s="11">
-        <v>0</v>
+        <v>52655559</v>
       </c>
       <c r="AU97" s="11">
         <v>0</v>
       </c>
       <c r="AV97" s="11">
-        <v>52655559</v>
+        <v>0</v>
       </c>
       <c r="AW97" s="11">
-        <v>0</v>
+        <v>16447927</v>
       </c>
       <c r="AX97" s="11">
-        <v>38975301</v>
+        <v>0</v>
       </c>
       <c r="AY97" s="11">
-        <v>13733688</v>
+        <v>0</v>
       </c>
       <c r="AZ97" s="11">
         <v>0</v>
@@ -13731,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>63</v>
       </c>
@@ -13793,11 +13793,11 @@
       <c r="V98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X98" s="13" t="s">
-        <v>58</v>
+      <c r="W98" s="13">
+        <v>0</v>
+      </c>
+      <c r="X98" s="13">
+        <v>0</v>
       </c>
       <c r="Y98" s="13">
         <v>0</v>
@@ -13820,11 +13820,11 @@
       <c r="AE98" s="13">
         <v>0</v>
       </c>
-      <c r="AF98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG98" s="13">
-        <v>0</v>
+      <c r="AF98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH98" s="13" t="s">
         <v>58</v>
@@ -13859,11 +13859,11 @@
       <c r="AR98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT98" s="13" t="s">
-        <v>58</v>
+      <c r="AS98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT98" s="13">
+        <v>0</v>
       </c>
       <c r="AU98" s="13">
         <v>0</v>
@@ -13890,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>64</v>
       </c>
@@ -13952,11 +13952,11 @@
       <c r="V99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X99" s="11" t="s">
-        <v>58</v>
+      <c r="W99" s="11">
+        <v>0</v>
+      </c>
+      <c r="X99" s="11">
+        <v>0</v>
       </c>
       <c r="Y99" s="11">
         <v>0</v>
@@ -14000,29 +14000,29 @@
       <c r="AL99" s="11">
         <v>0</v>
       </c>
-      <c r="AM99" s="11">
-        <v>0</v>
+      <c r="AM99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN99" s="11">
         <v>0</v>
       </c>
-      <c r="AO99" s="11" t="s">
-        <v>58</v>
+      <c r="AO99" s="11">
+        <v>0</v>
       </c>
       <c r="AP99" s="11">
         <v>0</v>
       </c>
-      <c r="AQ99" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR99" s="11" t="s">
-        <v>58</v>
+      <c r="AQ99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR99" s="11">
+        <v>0</v>
       </c>
       <c r="AS99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT99" s="11">
-        <v>0</v>
+      <c r="AT99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU99" s="11" t="s">
         <v>58</v>
@@ -14049,7 +14049,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>65</v>
       </c>
@@ -14111,11 +14111,11 @@
       <c r="V100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X100" s="13" t="s">
-        <v>58</v>
+      <c r="W100" s="13">
+        <v>0</v>
+      </c>
+      <c r="X100" s="13">
+        <v>0</v>
       </c>
       <c r="Y100" s="13">
         <v>0</v>
@@ -14159,29 +14159,29 @@
       <c r="AL100" s="13">
         <v>0</v>
       </c>
-      <c r="AM100" s="13">
-        <v>0</v>
+      <c r="AM100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN100" s="13">
         <v>0</v>
       </c>
-      <c r="AO100" s="13" t="s">
-        <v>58</v>
+      <c r="AO100" s="13">
+        <v>0</v>
       </c>
       <c r="AP100" s="13">
         <v>0</v>
       </c>
       <c r="AQ100" s="13">
-        <v>0</v>
+        <v>107865059</v>
       </c>
       <c r="AR100" s="13">
         <v>0</v>
       </c>
-      <c r="AS100" s="13">
-        <v>107865059</v>
-      </c>
-      <c r="AT100" s="13">
-        <v>0</v>
+      <c r="AS100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU100" s="13" t="s">
         <v>58</v>
@@ -14208,7 +14208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>66</v>
       </c>
@@ -14270,11 +14270,11 @@
       <c r="V101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X101" s="11" t="s">
-        <v>58</v>
+      <c r="W101" s="11">
+        <v>0</v>
+      </c>
+      <c r="X101" s="11">
+        <v>0</v>
       </c>
       <c r="Y101" s="11">
         <v>0</v>
@@ -14297,11 +14297,11 @@
       <c r="AE101" s="11">
         <v>0</v>
       </c>
-      <c r="AF101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG101" s="11">
-        <v>0</v>
+      <c r="AF101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH101" s="11" t="s">
         <v>58</v>
@@ -14367,7 +14367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>67</v>
       </c>
@@ -14429,11 +14429,11 @@
       <c r="V102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X102" s="13" t="s">
-        <v>58</v>
+      <c r="W102" s="13">
+        <v>0</v>
+      </c>
+      <c r="X102" s="13">
+        <v>0</v>
       </c>
       <c r="Y102" s="13">
         <v>0</v>
@@ -14477,14 +14477,14 @@
       <c r="AL102" s="13">
         <v>0</v>
       </c>
-      <c r="AM102" s="13">
-        <v>0</v>
+      <c r="AM102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN102" s="13">
         <v>0</v>
       </c>
-      <c r="AO102" s="13" t="s">
-        <v>58</v>
+      <c r="AO102" s="13">
+        <v>0</v>
       </c>
       <c r="AP102" s="13">
         <v>0</v>
@@ -14492,11 +14492,11 @@
       <c r="AQ102" s="13">
         <v>0</v>
       </c>
-      <c r="AR102" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS102" s="13">
-        <v>0</v>
+      <c r="AR102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT102" s="13" t="s">
         <v>58</v>
@@ -14526,7 +14526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>68</v>
       </c>
@@ -14588,11 +14588,11 @@
       <c r="V103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X103" s="11" t="s">
-        <v>58</v>
+      <c r="W103" s="11">
+        <v>0</v>
+      </c>
+      <c r="X103" s="11">
+        <v>0</v>
       </c>
       <c r="Y103" s="11">
         <v>0</v>
@@ -14636,14 +14636,14 @@
       <c r="AL103" s="11">
         <v>0</v>
       </c>
-      <c r="AM103" s="11">
-        <v>0</v>
+      <c r="AM103" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN103" s="11">
         <v>0</v>
       </c>
-      <c r="AO103" s="11" t="s">
-        <v>58</v>
+      <c r="AO103" s="11">
+        <v>0</v>
       </c>
       <c r="AP103" s="11">
         <v>0</v>
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>69</v>
       </c>
@@ -14747,11 +14747,11 @@
       <c r="V104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X104" s="13" t="s">
-        <v>58</v>
+      <c r="W104" s="13">
+        <v>0</v>
+      </c>
+      <c r="X104" s="13">
+        <v>0</v>
       </c>
       <c r="Y104" s="13">
         <v>0</v>
@@ -14795,14 +14795,14 @@
       <c r="AL104" s="13">
         <v>0</v>
       </c>
-      <c r="AM104" s="13">
-        <v>0</v>
+      <c r="AM104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN104" s="13">
         <v>0</v>
       </c>
-      <c r="AO104" s="13" t="s">
-        <v>58</v>
+      <c r="AO104" s="13">
+        <v>0</v>
       </c>
       <c r="AP104" s="13">
         <v>0</v>
@@ -14813,11 +14813,11 @@
       <c r="AR104" s="13">
         <v>0</v>
       </c>
-      <c r="AS104" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT104" s="13">
-        <v>0</v>
+      <c r="AS104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU104" s="13" t="s">
         <v>58</v>
@@ -14844,7 +14844,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>70</v>
       </c>
@@ -14906,11 +14906,11 @@
       <c r="V105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X105" s="11" t="s">
-        <v>58</v>
+      <c r="W105" s="11">
+        <v>0</v>
+      </c>
+      <c r="X105" s="11">
+        <v>0</v>
       </c>
       <c r="Y105" s="11">
         <v>0</v>
@@ -14954,14 +14954,14 @@
       <c r="AL105" s="11">
         <v>0</v>
       </c>
-      <c r="AM105" s="11">
-        <v>0</v>
+      <c r="AM105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN105" s="11">
         <v>0</v>
       </c>
-      <c r="AO105" s="11" t="s">
-        <v>58</v>
+      <c r="AO105" s="11">
+        <v>0</v>
       </c>
       <c r="AP105" s="11">
         <v>0</v>
@@ -14969,11 +14969,11 @@
       <c r="AQ105" s="11">
         <v>0</v>
       </c>
-      <c r="AR105" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS105" s="11">
-        <v>0</v>
+      <c r="AR105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT105" s="11" t="s">
         <v>58</v>
@@ -15003,7 +15003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>71</v>
       </c>
@@ -15125,15 +15125,15 @@
       <c r="AP106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR106" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS106" s="13">
+      <c r="AQ106" s="13">
         <v>88481097</v>
       </c>
+      <c r="AR106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT106" s="13" t="s">
         <v>58</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>72</v>
       </c>
@@ -15251,11 +15251,11 @@
       <c r="AE107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG107" s="11" t="s">
-        <v>58</v>
+      <c r="AF107" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="11">
+        <v>0</v>
       </c>
       <c r="AH107" s="11">
         <v>0</v>
@@ -15272,14 +15272,14 @@
       <c r="AL107" s="11">
         <v>0</v>
       </c>
-      <c r="AM107" s="11">
-        <v>0</v>
+      <c r="AM107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN107" s="11">
         <v>0</v>
       </c>
-      <c r="AO107" s="11" t="s">
-        <v>58</v>
+      <c r="AO107" s="11">
+        <v>0</v>
       </c>
       <c r="AP107" s="11">
         <v>0</v>
@@ -15290,11 +15290,11 @@
       <c r="AR107" s="11">
         <v>0</v>
       </c>
-      <c r="AS107" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT107" s="11">
-        <v>0</v>
+      <c r="AS107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU107" s="11" t="s">
         <v>58</v>
@@ -15321,7 +15321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>73</v>
       </c>
@@ -15410,20 +15410,20 @@
       <c r="AE108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG108" s="13" t="s">
-        <v>58</v>
+      <c r="AF108" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="13">
+        <v>0</v>
       </c>
       <c r="AH108" s="13">
         <v>0</v>
       </c>
-      <c r="AI108" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ108" s="13">
-        <v>0</v>
+      <c r="AI108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK108" s="13" t="s">
         <v>58</v>
@@ -15480,7 +15480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="14" t="s">
         <v>82</v>
       </c>
@@ -15601,31 +15601,31 @@
         <v>0</v>
       </c>
       <c r="AQ109" s="15">
-        <v>0</v>
+        <v>196346156</v>
       </c>
       <c r="AR109" s="15">
         <v>0</v>
       </c>
       <c r="AS109" s="15">
-        <v>196346156</v>
+        <v>0</v>
       </c>
       <c r="AT109" s="15">
-        <v>0</v>
+        <v>99755996</v>
       </c>
       <c r="AU109" s="15">
         <v>0</v>
       </c>
       <c r="AV109" s="15">
-        <v>99755996</v>
+        <v>0</v>
       </c>
       <c r="AW109" s="15">
-        <v>0</v>
+        <v>35681209</v>
       </c>
       <c r="AX109" s="15">
-        <v>72644469</v>
+        <v>0</v>
       </c>
       <c r="AY109" s="15">
-        <v>33551230</v>
+        <v>0</v>
       </c>
       <c r="AZ109" s="15">
         <v>0</v>
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
         <v>90</v>
       </c>
@@ -15694,7 +15694,7 @@
       <c r="BA110" s="9"/>
       <c r="BB110" s="9"/>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>59</v>
       </c>
@@ -15756,11 +15756,11 @@
       <c r="V111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W111" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X111" s="11" t="s">
-        <v>58</v>
+      <c r="W111" s="11">
+        <v>0</v>
+      </c>
+      <c r="X111" s="11">
+        <v>0</v>
       </c>
       <c r="Y111" s="11">
         <v>0</v>
@@ -15804,44 +15804,44 @@
       <c r="AL111" s="11">
         <v>0</v>
       </c>
-      <c r="AM111" s="11">
-        <v>0</v>
+      <c r="AM111" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN111" s="11">
         <v>0</v>
       </c>
-      <c r="AO111" s="11" t="s">
-        <v>58</v>
+      <c r="AO111" s="11">
+        <v>0</v>
       </c>
       <c r="AP111" s="11">
         <v>0</v>
       </c>
       <c r="AQ111" s="11">
-        <v>0</v>
+        <v>66381707</v>
       </c>
       <c r="AR111" s="11">
         <v>0</v>
       </c>
       <c r="AS111" s="11">
-        <v>66381707</v>
+        <v>0</v>
       </c>
       <c r="AT111" s="11">
-        <v>0</v>
+        <v>26157894</v>
       </c>
       <c r="AU111" s="11">
         <v>0</v>
       </c>
       <c r="AV111" s="11">
-        <v>26157894</v>
+        <v>0</v>
       </c>
       <c r="AW111" s="11">
-        <v>0</v>
+        <v>6978572</v>
       </c>
       <c r="AX111" s="11">
-        <v>11729307</v>
+        <v>0</v>
       </c>
       <c r="AY111" s="11">
-        <v>7235074</v>
+        <v>0</v>
       </c>
       <c r="AZ111" s="11">
         <v>0</v>
@@ -15853,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
         <v>60</v>
       </c>
@@ -15975,14 +15975,14 @@
       <c r="AP112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR112" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS112" s="13">
-        <v>0</v>
+      <c r="AQ112" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT112" s="13" t="s">
         <v>58</v>
@@ -15993,11 +15993,11 @@
       <c r="AV112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX112" s="13">
-        <v>0</v>
+      <c r="AW112" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY112" s="13" t="s">
         <v>58</v>
@@ -16012,7 +16012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
         <v>61</v>
       </c>
@@ -16074,11 +16074,11 @@
       <c r="V113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W113" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X113" s="11" t="s">
-        <v>58</v>
+      <c r="W113" s="11">
+        <v>0</v>
+      </c>
+      <c r="X113" s="11">
+        <v>0</v>
       </c>
       <c r="Y113" s="11">
         <v>0</v>
@@ -16101,14 +16101,14 @@
       <c r="AE113" s="11">
         <v>0</v>
       </c>
-      <c r="AF113" s="11">
-        <v>0</v>
+      <c r="AF113" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG113" s="11">
         <v>0</v>
       </c>
-      <c r="AH113" s="11" t="s">
-        <v>58</v>
+      <c r="AH113" s="11">
+        <v>0</v>
       </c>
       <c r="AI113" s="11">
         <v>0</v>
@@ -16122,44 +16122,44 @@
       <c r="AL113" s="11">
         <v>0</v>
       </c>
-      <c r="AM113" s="11">
-        <v>0</v>
+      <c r="AM113" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN113" s="11">
         <v>0</v>
       </c>
-      <c r="AO113" s="11" t="s">
-        <v>58</v>
+      <c r="AO113" s="11">
+        <v>0</v>
       </c>
       <c r="AP113" s="11">
         <v>0</v>
       </c>
       <c r="AQ113" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR113" s="11">
-        <v>0</v>
+        <v>2453395</v>
+      </c>
+      <c r="AR113" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS113" s="11">
-        <v>2453395</v>
-      </c>
-      <c r="AT113" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AT113" s="11">
+        <v>633303</v>
       </c>
       <c r="AU113" s="11">
         <v>0</v>
       </c>
       <c r="AV113" s="11">
-        <v>633303</v>
+        <v>0</v>
       </c>
       <c r="AW113" s="11">
         <v>0</v>
       </c>
       <c r="AX113" s="11">
-        <v>432217</v>
+        <v>0</v>
       </c>
       <c r="AY113" s="11">
-        <v>134486</v>
+        <v>0</v>
       </c>
       <c r="AZ113" s="11">
         <v>0</v>
@@ -16171,7 +16171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
         <v>62</v>
       </c>
@@ -16293,20 +16293,20 @@
       <c r="AP114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ114" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR114" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS114" s="13">
+      <c r="AQ114" s="13">
         <v>17911</v>
       </c>
-      <c r="AT114" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU114" s="13" t="s">
-        <v>58</v>
+      <c r="AR114" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS114" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT114" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU114" s="13">
+        <v>0</v>
       </c>
       <c r="AV114" s="13">
         <v>0</v>
@@ -16330,7 +16330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
         <v>63</v>
       </c>
@@ -16392,11 +16392,11 @@
       <c r="V115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X115" s="11" t="s">
-        <v>58</v>
+      <c r="W115" s="11">
+        <v>0</v>
+      </c>
+      <c r="X115" s="11">
+        <v>0</v>
       </c>
       <c r="Y115" s="11">
         <v>0</v>
@@ -16419,11 +16419,11 @@
       <c r="AE115" s="11">
         <v>0</v>
       </c>
-      <c r="AF115" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG115" s="11">
-        <v>0</v>
+      <c r="AF115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG115" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH115" s="11" t="s">
         <v>58</v>
@@ -16452,32 +16452,32 @@
       <c r="AP115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR115" s="11">
-        <v>0</v>
+      <c r="AQ115" s="11">
+        <v>61397813</v>
+      </c>
+      <c r="AR115" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS115" s="11">
-        <v>61397813</v>
-      </c>
-      <c r="AT115" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AT115" s="11">
+        <v>5433585</v>
       </c>
       <c r="AU115" s="11">
         <v>0</v>
       </c>
       <c r="AV115" s="11">
-        <v>5433585</v>
+        <v>0</v>
       </c>
       <c r="AW115" s="11">
         <v>0</v>
       </c>
       <c r="AX115" s="11">
-        <v>9554211</v>
+        <v>0</v>
       </c>
       <c r="AY115" s="11">
-        <v>-379863</v>
+        <v>0</v>
       </c>
       <c r="AZ115" s="11">
         <v>0</v>
@@ -16489,7 +16489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>64</v>
       </c>
@@ -16566,11 +16566,11 @@
       <c r="AA116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC116" s="13" t="s">
-        <v>58</v>
+      <c r="AB116" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="13">
+        <v>0</v>
       </c>
       <c r="AD116" s="13">
         <v>0</v>
@@ -16578,11 +16578,11 @@
       <c r="AE116" s="13">
         <v>0</v>
       </c>
-      <c r="AF116" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG116" s="13">
-        <v>0</v>
+      <c r="AF116" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG116" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH116" s="13" t="s">
         <v>58</v>
@@ -16648,7 +16648,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
         <v>65</v>
       </c>
@@ -16761,17 +16761,17 @@
       <c r="AM117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN117" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO117" s="11" t="s">
-        <v>58</v>
+      <c r="AN117" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO117" s="11">
+        <v>0</v>
       </c>
       <c r="AP117" s="11">
         <v>0</v>
       </c>
-      <c r="AQ117" s="11">
-        <v>0</v>
+      <c r="AQ117" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR117" s="11" t="s">
         <v>58</v>
@@ -16807,7 +16807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
         <v>66</v>
       </c>
@@ -16869,11 +16869,11 @@
       <c r="V118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W118" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X118" s="13" t="s">
-        <v>58</v>
+      <c r="W118" s="13">
+        <v>0</v>
+      </c>
+      <c r="X118" s="13">
+        <v>0</v>
       </c>
       <c r="Y118" s="13">
         <v>0</v>
@@ -16896,11 +16896,11 @@
       <c r="AE118" s="13">
         <v>0</v>
       </c>
-      <c r="AF118" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG118" s="13">
-        <v>0</v>
+      <c r="AF118" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG118" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH118" s="13" t="s">
         <v>58</v>
@@ -16966,7 +16966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
         <v>67</v>
       </c>
@@ -17046,20 +17046,20 @@
       <c r="AB119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC119" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD119" s="11" t="s">
-        <v>58</v>
+      <c r="AC119" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD119" s="11">
+        <v>0</v>
       </c>
       <c r="AE119" s="11">
         <v>0</v>
       </c>
-      <c r="AF119" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG119" s="11">
-        <v>0</v>
+      <c r="AF119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG119" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH119" s="11" t="s">
         <v>58</v>
@@ -17125,7 +17125,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
         <v>68</v>
       </c>
@@ -17187,11 +17187,11 @@
       <c r="V120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W120" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X120" s="13" t="s">
-        <v>58</v>
+      <c r="W120" s="13">
+        <v>0</v>
+      </c>
+      <c r="X120" s="13">
+        <v>0</v>
       </c>
       <c r="Y120" s="13">
         <v>0</v>
@@ -17214,20 +17214,20 @@
       <c r="AE120" s="13">
         <v>0</v>
       </c>
-      <c r="AF120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG120" s="13">
-        <v>0</v>
+      <c r="AF120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG120" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI120" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ120" s="13" t="s">
-        <v>58</v>
+      <c r="AI120" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ120" s="13">
+        <v>0</v>
       </c>
       <c r="AK120" s="13">
         <v>0</v>
@@ -17235,44 +17235,44 @@
       <c r="AL120" s="13">
         <v>0</v>
       </c>
-      <c r="AM120" s="13">
-        <v>0</v>
+      <c r="AM120" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN120" s="13">
         <v>0</v>
       </c>
-      <c r="AO120" s="13" t="s">
-        <v>58</v>
+      <c r="AO120" s="13">
+        <v>0</v>
       </c>
       <c r="AP120" s="13">
         <v>0</v>
       </c>
       <c r="AQ120" s="13">
-        <v>0</v>
+        <v>120332</v>
       </c>
       <c r="AR120" s="13">
         <v>0</v>
       </c>
       <c r="AS120" s="13">
-        <v>120332</v>
+        <v>0</v>
       </c>
       <c r="AT120" s="13">
-        <v>0</v>
+        <v>249493</v>
       </c>
       <c r="AU120" s="13">
         <v>0</v>
       </c>
       <c r="AV120" s="13">
-        <v>249493</v>
+        <v>0</v>
       </c>
       <c r="AW120" s="13">
         <v>0</v>
       </c>
       <c r="AX120" s="13">
-        <v>-26733</v>
+        <v>0</v>
       </c>
       <c r="AY120" s="13">
-        <v>5758</v>
+        <v>0</v>
       </c>
       <c r="AZ120" s="13">
         <v>0</v>
@@ -17284,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>70</v>
       </c>
@@ -17346,11 +17346,11 @@
       <c r="V121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W121" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X121" s="11" t="s">
-        <v>58</v>
+      <c r="W121" s="11">
+        <v>0</v>
+      </c>
+      <c r="X121" s="11">
+        <v>0</v>
       </c>
       <c r="Y121" s="11">
         <v>0</v>
@@ -17373,17 +17373,17 @@
       <c r="AE121" s="11">
         <v>0</v>
       </c>
-      <c r="AF121" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG121" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH121" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI121" s="11" t="s">
-        <v>58</v>
+      <c r="AF121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH121" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI121" s="11">
+        <v>0</v>
       </c>
       <c r="AJ121" s="11">
         <v>0</v>
@@ -17394,20 +17394,20 @@
       <c r="AL121" s="11">
         <v>0</v>
       </c>
-      <c r="AM121" s="11">
-        <v>0</v>
+      <c r="AM121" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN121" s="11">
         <v>0</v>
       </c>
-      <c r="AO121" s="11" t="s">
-        <v>58</v>
+      <c r="AO121" s="11">
+        <v>0</v>
       </c>
       <c r="AP121" s="11">
         <v>0</v>
       </c>
-      <c r="AQ121" s="11">
-        <v>0</v>
+      <c r="AQ121" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR121" s="11" t="s">
         <v>58</v>
@@ -17443,7 +17443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
         <v>72</v>
       </c>
@@ -17532,11 +17532,11 @@
       <c r="AE122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF122" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG122" s="13" t="s">
-        <v>58</v>
+      <c r="AF122" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG122" s="13">
+        <v>0</v>
       </c>
       <c r="AH122" s="13">
         <v>0</v>
@@ -17553,14 +17553,14 @@
       <c r="AL122" s="13">
         <v>0</v>
       </c>
-      <c r="AM122" s="13">
-        <v>0</v>
+      <c r="AM122" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN122" s="13">
         <v>0</v>
       </c>
-      <c r="AO122" s="13" t="s">
-        <v>58</v>
+      <c r="AO122" s="13">
+        <v>0</v>
       </c>
       <c r="AP122" s="13">
         <v>0</v>
@@ -17571,11 +17571,11 @@
       <c r="AR122" s="13">
         <v>0</v>
       </c>
-      <c r="AS122" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT122" s="13">
-        <v>0</v>
+      <c r="AS122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT122" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU122" s="13" t="s">
         <v>58</v>
@@ -17602,7 +17602,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B123" s="14" t="s">
         <v>84</v>
       </c>
@@ -17723,31 +17723,31 @@
         <v>0</v>
       </c>
       <c r="AQ123" s="15">
-        <v>0</v>
+        <v>130371158</v>
       </c>
       <c r="AR123" s="15">
         <v>0</v>
       </c>
       <c r="AS123" s="15">
-        <v>130371158</v>
+        <v>0</v>
       </c>
       <c r="AT123" s="15">
-        <v>0</v>
+        <v>32474275</v>
       </c>
       <c r="AU123" s="15">
         <v>0</v>
       </c>
       <c r="AV123" s="15">
-        <v>32474275</v>
+        <v>0</v>
       </c>
       <c r="AW123" s="15">
-        <v>0</v>
+        <v>6978572</v>
       </c>
       <c r="AX123" s="15">
-        <v>21689002</v>
+        <v>0</v>
       </c>
       <c r="AY123" s="15">
-        <v>6995455</v>
+        <v>0</v>
       </c>
       <c r="AZ123" s="15">
         <v>0</v>
@@ -17759,7 +17759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B124" s="16" t="s">
         <v>91</v>
       </c>
@@ -17816,7 +17816,7 @@
       <c r="BA124" s="17"/>
       <c r="BB124" s="17"/>
     </row>
-    <row r="125" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B125" s="14" t="s">
         <v>78</v>
       </c>
@@ -17878,11 +17878,11 @@
       <c r="V125" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W125" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X125" s="15" t="s">
-        <v>58</v>
+      <c r="W125" s="15">
+        <v>0</v>
+      </c>
+      <c r="X125" s="15">
+        <v>0</v>
       </c>
       <c r="Y125" s="15">
         <v>0</v>
@@ -17926,14 +17926,14 @@
       <c r="AL125" s="15">
         <v>0</v>
       </c>
-      <c r="AM125" s="15">
-        <v>0</v>
+      <c r="AM125" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AN125" s="15">
         <v>0</v>
       </c>
-      <c r="AO125" s="15" t="s">
-        <v>58</v>
+      <c r="AO125" s="15">
+        <v>0</v>
       </c>
       <c r="AP125" s="15">
         <v>0</v>
@@ -17975,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B126" s="16" t="s">
         <v>92</v>
       </c>
@@ -18032,7 +18032,7 @@
       <c r="BA126" s="17"/>
       <c r="BB126" s="17"/>
     </row>
-    <row r="127" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B127" s="14" t="s">
         <v>86</v>
       </c>
@@ -18094,11 +18094,11 @@
       <c r="V127" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W127" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X127" s="15" t="s">
-        <v>58</v>
+      <c r="W127" s="15">
+        <v>0</v>
+      </c>
+      <c r="X127" s="15">
+        <v>0</v>
       </c>
       <c r="Y127" s="15">
         <v>0</v>
@@ -18142,14 +18142,14 @@
       <c r="AL127" s="15">
         <v>0</v>
       </c>
-      <c r="AM127" s="15">
-        <v>0</v>
+      <c r="AM127" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AN127" s="15">
         <v>0</v>
       </c>
-      <c r="AO127" s="15" t="s">
-        <v>58</v>
+      <c r="AO127" s="15">
+        <v>0</v>
       </c>
       <c r="AP127" s="15">
         <v>0</v>
@@ -18191,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
         <v>93</v>
       </c>
@@ -18248,7 +18248,7 @@
       <c r="BA128" s="9"/>
       <c r="BB128" s="9"/>
     </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
         <v>94</v>
       </c>
@@ -18310,11 +18310,11 @@
       <c r="V129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W129" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X129" s="11" t="s">
-        <v>58</v>
+      <c r="W129" s="11">
+        <v>0</v>
+      </c>
+      <c r="X129" s="11">
+        <v>0</v>
       </c>
       <c r="Y129" s="11">
         <v>0</v>
@@ -18358,14 +18358,14 @@
       <c r="AL129" s="11">
         <v>0</v>
       </c>
-      <c r="AM129" s="11">
-        <v>0</v>
+      <c r="AM129" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN129" s="11">
         <v>0</v>
       </c>
-      <c r="AO129" s="11" t="s">
-        <v>58</v>
+      <c r="AO129" s="11">
+        <v>0</v>
       </c>
       <c r="AP129" s="11">
         <v>0</v>
@@ -18407,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B130" s="18" t="s">
         <v>79</v>
       </c>
@@ -18528,31 +18528,31 @@
         <v>0</v>
       </c>
       <c r="AQ130" s="19">
-        <v>0</v>
+        <v>326717314</v>
       </c>
       <c r="AR130" s="19">
         <v>0</v>
       </c>
       <c r="AS130" s="19">
-        <v>326717314</v>
+        <v>0</v>
       </c>
       <c r="AT130" s="19">
-        <v>0</v>
+        <v>132230271</v>
       </c>
       <c r="AU130" s="19">
         <v>0</v>
       </c>
       <c r="AV130" s="19">
-        <v>132230271</v>
+        <v>0</v>
       </c>
       <c r="AW130" s="19">
-        <v>0</v>
+        <v>42659781</v>
       </c>
       <c r="AX130" s="19">
-        <v>94333471</v>
+        <v>0</v>
       </c>
       <c r="AY130" s="19">
-        <v>40546685</v>
+        <v>0</v>
       </c>
       <c r="AZ130" s="19">
         <v>0</v>
@@ -18564,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -18619,7 +18619,7 @@
       <c r="BA131" s="1"/>
       <c r="BB131" s="1"/>
     </row>
-    <row r="132" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -18674,7 +18674,7 @@
       <c r="BA132" s="1"/>
       <c r="BB132" s="1"/>
     </row>
-    <row r="133" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -18729,7 +18729,7 @@
       <c r="BA133" s="1"/>
       <c r="BB133" s="1"/>
     </row>
-    <row r="134" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
         <v>95</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -18941,7 +18941,7 @@
       <c r="BA135" s="1"/>
       <c r="BB135" s="1"/>
     </row>
-    <row r="136" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
         <v>96</v>
       </c>
@@ -18998,7 +18998,7 @@
       <c r="BA136" s="9"/>
       <c r="BB136" s="9"/>
     </row>
-    <row r="137" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
         <v>59</v>
       </c>
@@ -19060,26 +19060,26 @@
       <c r="V137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W137" s="11" t="s">
-        <v>58</v>
+      <c r="W137" s="11">
+        <v>0</v>
       </c>
       <c r="X137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y137" s="11">
-        <v>0</v>
+      <c r="Y137" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Z137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA137" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB137" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC137" s="11">
-        <v>0</v>
+      <c r="AA137" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB137" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC137" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD137" s="11">
         <v>0</v>
@@ -19090,65 +19090,65 @@
       <c r="AF137" s="11">
         <v>0</v>
       </c>
-      <c r="AG137" s="11" t="s">
-        <v>58</v>
+      <c r="AG137" s="11">
+        <v>0</v>
       </c>
       <c r="AH137" s="11">
         <v>0</v>
       </c>
-      <c r="AI137" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ137" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK137" s="11" t="s">
-        <v>58</v>
+      <c r="AI137" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ137" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK137" s="11">
+        <v>0</v>
       </c>
       <c r="AL137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM137" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN137" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO137" s="11" t="s">
-        <v>58</v>
+      <c r="AM137" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN137" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO137" s="11">
+        <v>0</v>
       </c>
       <c r="AP137" s="11">
         <v>0</v>
       </c>
-      <c r="AQ137" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR137" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS137" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT137" s="11" t="s">
-        <v>58</v>
+      <c r="AQ137" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR137" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS137" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT137" s="11">
+        <v>0</v>
       </c>
       <c r="AU137" s="11">
         <v>0</v>
       </c>
-      <c r="AV137" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW137" s="11">
-        <v>0</v>
+      <c r="AV137" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW137" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX137" s="11">
-        <v>166403806</v>
-      </c>
-      <c r="AY137" s="11">
-        <v>-166403805</v>
-      </c>
-      <c r="AZ137" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AY137" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ137" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA137" s="11" t="s">
         <v>58</v>
@@ -19157,7 +19157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
         <v>60</v>
       </c>
@@ -19285,26 +19285,26 @@
       <c r="AR138" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS138" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT138" s="13" t="s">
-        <v>58</v>
+      <c r="AS138" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT138" s="13">
+        <v>958943685</v>
       </c>
       <c r="AU138" s="13">
         <v>0</v>
       </c>
       <c r="AV138" s="13">
-        <v>958943685</v>
+        <v>0</v>
       </c>
       <c r="AW138" s="13">
-        <v>0</v>
+        <v>229856970</v>
       </c>
       <c r="AX138" s="13">
-        <v>95292374</v>
+        <v>0</v>
       </c>
       <c r="AY138" s="13">
-        <v>229684052</v>
+        <v>0</v>
       </c>
       <c r="AZ138" s="13">
         <v>0</v>
@@ -19316,7 +19316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
         <v>62</v>
       </c>
@@ -19378,11 +19378,11 @@
       <c r="V139" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W139" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X139" s="11" t="s">
-        <v>58</v>
+      <c r="W139" s="11">
+        <v>0</v>
+      </c>
+      <c r="X139" s="11">
+        <v>0</v>
       </c>
       <c r="Y139" s="11">
         <v>0</v>
@@ -19426,44 +19426,44 @@
       <c r="AL139" s="11">
         <v>0</v>
       </c>
-      <c r="AM139" s="11">
-        <v>0</v>
+      <c r="AM139" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN139" s="11">
         <v>0</v>
       </c>
-      <c r="AO139" s="11" t="s">
-        <v>58</v>
+      <c r="AO139" s="11">
+        <v>0</v>
       </c>
       <c r="AP139" s="11">
         <v>0</v>
       </c>
-      <c r="AQ139" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR139" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS139" s="11" t="s">
-        <v>58</v>
+      <c r="AQ139" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR139" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS139" s="11">
+        <v>0</v>
       </c>
       <c r="AT139" s="11">
-        <v>0</v>
+        <v>514873119</v>
       </c>
       <c r="AU139" s="11">
         <v>0</v>
       </c>
       <c r="AV139" s="11">
-        <v>514873119</v>
+        <v>0</v>
       </c>
       <c r="AW139" s="11">
-        <v>0</v>
+        <v>193929387</v>
       </c>
       <c r="AX139" s="11">
-        <v>82488108</v>
+        <v>0</v>
       </c>
       <c r="AY139" s="11">
-        <v>193252499</v>
+        <v>0</v>
       </c>
       <c r="AZ139" s="11">
         <v>0</v>
@@ -19475,7 +19475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
         <v>64</v>
       </c>
@@ -19537,11 +19537,11 @@
       <c r="V140" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W140" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X140" s="13" t="s">
-        <v>58</v>
+      <c r="W140" s="13">
+        <v>0</v>
+      </c>
+      <c r="X140" s="13">
+        <v>0</v>
       </c>
       <c r="Y140" s="13">
         <v>0</v>
@@ -19585,29 +19585,29 @@
       <c r="AL140" s="13">
         <v>0</v>
       </c>
-      <c r="AM140" s="13">
-        <v>0</v>
+      <c r="AM140" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN140" s="13">
         <v>0</v>
       </c>
-      <c r="AO140" s="13" t="s">
-        <v>58</v>
+      <c r="AO140" s="13">
+        <v>0</v>
       </c>
       <c r="AP140" s="13">
         <v>0</v>
       </c>
-      <c r="AQ140" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR140" s="13" t="s">
-        <v>58</v>
+      <c r="AQ140" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR140" s="13">
+        <v>0</v>
       </c>
       <c r="AS140" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT140" s="13">
-        <v>0</v>
+      <c r="AT140" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU140" s="13" t="s">
         <v>58</v>
@@ -19634,7 +19634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
         <v>65</v>
       </c>
@@ -19699,11 +19699,11 @@
       <c r="W141" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X141" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y141" s="11" t="s">
-        <v>58</v>
+      <c r="X141" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y141" s="11">
+        <v>0</v>
       </c>
       <c r="Z141" s="11">
         <v>0</v>
@@ -19744,29 +19744,29 @@
       <c r="AL141" s="11">
         <v>0</v>
       </c>
-      <c r="AM141" s="11">
-        <v>0</v>
+      <c r="AM141" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN141" s="11">
         <v>0</v>
       </c>
-      <c r="AO141" s="11" t="s">
-        <v>58</v>
+      <c r="AO141" s="11">
+        <v>0</v>
       </c>
       <c r="AP141" s="11">
         <v>0</v>
       </c>
       <c r="AQ141" s="11">
-        <v>0</v>
+        <v>123890549</v>
       </c>
       <c r="AR141" s="11">
         <v>0</v>
       </c>
-      <c r="AS141" s="11">
-        <v>123890549</v>
-      </c>
-      <c r="AT141" s="11">
-        <v>0</v>
+      <c r="AS141" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT141" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU141" s="11" t="s">
         <v>58</v>
@@ -19793,7 +19793,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
         <v>67</v>
       </c>
@@ -19952,7 +19952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
         <v>71</v>
       </c>
@@ -20074,15 +20074,15 @@
       <c r="AP143" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ143" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR143" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS143" s="11">
+      <c r="AQ143" s="11">
         <v>124492387</v>
       </c>
+      <c r="AR143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS143" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT143" s="11" t="s">
         <v>58</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
         <v>98</v>
       </c>
@@ -20168,7 +20168,7 @@
       <c r="BA144" s="9"/>
       <c r="BB144" s="9"/>
     </row>
-    <row r="145" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
         <v>59</v>
       </c>
@@ -20230,11 +20230,11 @@
       <c r="V145" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W145" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X145" s="11" t="s">
-        <v>58</v>
+      <c r="W145" s="11">
+        <v>0</v>
+      </c>
+      <c r="X145" s="11">
+        <v>0</v>
       </c>
       <c r="Y145" s="11">
         <v>0</v>
@@ -20278,44 +20278,44 @@
       <c r="AL145" s="11">
         <v>0</v>
       </c>
-      <c r="AM145" s="11">
-        <v>0</v>
+      <c r="AM145" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN145" s="11">
         <v>0</v>
       </c>
-      <c r="AO145" s="11" t="s">
-        <v>58</v>
+      <c r="AO145" s="11">
+        <v>0</v>
       </c>
       <c r="AP145" s="11">
         <v>0</v>
       </c>
       <c r="AQ145" s="11">
-        <v>0</v>
+        <v>1837505038</v>
       </c>
       <c r="AR145" s="11">
         <v>0</v>
       </c>
       <c r="AS145" s="11">
-        <v>1837505038</v>
+        <v>0</v>
       </c>
       <c r="AT145" s="11">
-        <v>0</v>
+        <v>365099154</v>
       </c>
       <c r="AU145" s="11">
         <v>0</v>
       </c>
       <c r="AV145" s="11">
-        <v>365099154</v>
+        <v>0</v>
       </c>
       <c r="AW145" s="11">
-        <v>0</v>
+        <v>131284747</v>
       </c>
       <c r="AX145" s="11">
-        <v>40643779</v>
+        <v>0</v>
       </c>
       <c r="AY145" s="11">
-        <v>132035314</v>
+        <v>0</v>
       </c>
       <c r="AZ145" s="11">
         <v>0</v>
@@ -20327,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B146" s="12" t="s">
         <v>61</v>
       </c>
@@ -20392,14 +20392,14 @@
       <c r="W146" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X146" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y146" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z146" s="13">
-        <v>0</v>
+      <c r="X146" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y146" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z146" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AA146" s="13">
         <v>0</v>
@@ -20410,17 +20410,17 @@
       <c r="AC146" s="13">
         <v>0</v>
       </c>
-      <c r="AD146" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE146" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF146" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG146" s="13" t="s">
-        <v>58</v>
+      <c r="AD146" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF146" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG146" s="13">
+        <v>0</v>
       </c>
       <c r="AH146" s="13" t="s">
         <v>58</v>
@@ -20428,17 +20428,17 @@
       <c r="AI146" s="13">
         <v>0</v>
       </c>
-      <c r="AJ146" s="13" t="s">
-        <v>58</v>
+      <c r="AJ146" s="13">
+        <v>0</v>
       </c>
       <c r="AK146" s="13">
         <v>0</v>
       </c>
-      <c r="AL146" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM146" s="13">
-        <v>0</v>
+      <c r="AL146" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM146" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN146" s="13" t="s">
         <v>58</v>
@@ -20446,47 +20446,47 @@
       <c r="AO146" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP146" s="13" t="s">
-        <v>58</v>
+      <c r="AP146" s="13">
+        <v>0</v>
       </c>
       <c r="AQ146" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR146" s="13">
-        <v>0</v>
+      <c r="AR146" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS146" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT146" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU146" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV146" s="13">
+      <c r="AT146" s="13">
         <v>98969058</v>
       </c>
-      <c r="AW146" s="13">
-        <v>0</v>
+      <c r="AU146" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV146" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW146" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX146" s="13">
-        <v>33533789</v>
+        <v>0</v>
       </c>
       <c r="AY146" s="13">
-        <v>10434169</v>
-      </c>
-      <c r="AZ146" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA146" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB146" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AZ146" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA146" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB146" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
         <v>62</v>
       </c>
@@ -20608,14 +20608,14 @@
       <c r="AP147" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ147" s="11" t="s">
-        <v>58</v>
+      <c r="AQ147" s="11">
+        <v>41364896</v>
       </c>
       <c r="AR147" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS147" s="11">
-        <v>41364896</v>
+      <c r="AS147" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT147" s="11" t="s">
         <v>58</v>
@@ -20645,7 +20645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B148" s="12" t="s">
         <v>63</v>
       </c>
@@ -20725,8 +20725,8 @@
       <c r="AB148" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC148" s="13" t="s">
-        <v>58</v>
+      <c r="AC148" s="13">
+        <v>0</v>
       </c>
       <c r="AD148" s="13" t="s">
         <v>58</v>
@@ -20737,8 +20737,8 @@
       <c r="AF148" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG148" s="13">
-        <v>0</v>
+      <c r="AG148" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH148" s="13" t="s">
         <v>58</v>
@@ -20767,14 +20767,14 @@
       <c r="AP148" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ148" s="13" t="s">
-        <v>58</v>
+      <c r="AQ148" s="13">
+        <v>101130450</v>
       </c>
       <c r="AR148" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AS148" s="13">
-        <v>101130450</v>
+        <v>0</v>
       </c>
       <c r="AT148" s="13" t="s">
         <v>58</v>
@@ -20785,26 +20785,26 @@
       <c r="AV148" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW148" s="13">
-        <v>0</v>
+      <c r="AW148" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX148" s="13">
-        <v>72770941</v>
+        <v>0</v>
       </c>
       <c r="AY148" s="13">
-        <v>-2892443</v>
+        <v>0</v>
       </c>
       <c r="AZ148" s="13">
         <v>0</v>
       </c>
-      <c r="BA148" s="13">
-        <v>0</v>
+      <c r="BA148" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB148" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
         <v>68</v>
       </c>
@@ -20866,14 +20866,14 @@
       <c r="V149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W149" s="11" t="s">
-        <v>58</v>
+      <c r="W149" s="11">
+        <v>0</v>
       </c>
       <c r="X149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y149" s="11">
-        <v>0</v>
+      <c r="Y149" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Z149" s="11" t="s">
         <v>58</v>
@@ -20881,14 +20881,14 @@
       <c r="AA149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB149" s="11" t="s">
-        <v>58</v>
+      <c r="AB149" s="11">
+        <v>0</v>
       </c>
       <c r="AC149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD149" s="11">
-        <v>0</v>
+      <c r="AD149" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE149" s="11" t="s">
         <v>58</v>
@@ -20911,8 +20911,8 @@
       <c r="AK149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL149" s="11" t="s">
-        <v>58</v>
+      <c r="AL149" s="11">
+        <v>0</v>
       </c>
       <c r="AM149" s="11" t="s">
         <v>58</v>
@@ -20923,47 +20923,47 @@
       <c r="AO149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP149" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ149" s="11" t="s">
-        <v>58</v>
+      <c r="AP149" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ149" s="11">
+        <v>66335171</v>
       </c>
       <c r="AR149" s="11">
         <v>0</v>
       </c>
-      <c r="AS149" s="11">
-        <v>66335171</v>
+      <c r="AS149" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT149" s="11">
-        <v>0</v>
+        <v>447922801</v>
       </c>
       <c r="AU149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV149" s="11">
-        <v>447922801</v>
+      <c r="AV149" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX149" s="11">
-        <v>-10884772</v>
-      </c>
-      <c r="AY149" s="11">
-        <v>2344463</v>
-      </c>
-      <c r="AZ149" s="11" t="s">
-        <v>58</v>
+      <c r="AX149" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY149" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ149" s="11">
+        <v>0</v>
       </c>
       <c r="BA149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB149" s="11">
-        <v>0</v>
+      <c r="BB149" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="150" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
         <v>70</v>
       </c>
@@ -21028,11 +21028,11 @@
       <c r="W150" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X150" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y150" s="13" t="s">
-        <v>58</v>
+      <c r="X150" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y150" s="13">
+        <v>0</v>
       </c>
       <c r="Z150" s="13">
         <v>0</v>
@@ -21040,11 +21040,11 @@
       <c r="AA150" s="13">
         <v>0</v>
       </c>
-      <c r="AB150" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC150" s="13">
-        <v>0</v>
+      <c r="AB150" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC150" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD150" s="13" t="s">
         <v>58</v>
@@ -21122,7 +21122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
         <v>72</v>
       </c>
@@ -21211,44 +21211,44 @@
       <c r="AE151" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF151" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG151" s="11" t="s">
-        <v>58</v>
+      <c r="AF151" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG151" s="11">
+        <v>0</v>
       </c>
       <c r="AH151" s="11">
         <v>0</v>
       </c>
-      <c r="AI151" s="11">
-        <v>0</v>
+      <c r="AI151" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ151" s="11">
         <v>0</v>
       </c>
-      <c r="AK151" s="11" t="s">
-        <v>58</v>
+      <c r="AK151" s="11">
+        <v>0</v>
       </c>
       <c r="AL151" s="11">
         <v>0</v>
       </c>
-      <c r="AM151" s="11">
-        <v>0</v>
+      <c r="AM151" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN151" s="11">
         <v>0</v>
       </c>
-      <c r="AO151" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP151" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ151" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR151" s="11">
-        <v>0</v>
+      <c r="AO151" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP151" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ151" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR151" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS151" s="11" t="s">
         <v>58</v>
